--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00378C5-BBA4-954C-B3AC-D566F1BBE007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F9C26C-86BB-5F49-A7A7-B0503CEF0AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="636">
   <si>
     <t>Last Name</t>
   </si>
@@ -1938,6 +1938,15 @@
   </si>
   <si>
     <t>Scrumdiddliumptious</t>
+  </si>
+  <si>
+    <t>ChairForceOne</t>
+  </si>
+  <si>
+    <t>MightyDucks</t>
+  </si>
+  <si>
+    <t>Scum Master</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2917,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2921,7 +2930,7 @@
     <col min="6" max="6" width="7.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="7" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="3" bestFit="1" customWidth="1"/>
@@ -3626,7 +3635,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(O17,9)</f>
         <v>44000-001</v>
@@ -3668,7 +3677,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3687,6 +3696,12 @@
       <c r="E18" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Isaac</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -3710,7 +3725,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3724,11 +3739,22 @@
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Matthew Bilinski</v>
-      </c>
-      <c r="E19" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Matthew</v>
+        <v>Matt Bilinski</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -3752,7 +3778,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3794,7 +3820,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3836,7 +3862,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3878,7 +3904,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3897,6 +3923,9 @@
       <c r="E23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Kevin</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -3920,7 +3949,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3962,7 +3991,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3981,6 +4010,9 @@
       <c r="E25" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Stephen</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -4004,7 +4036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4023,6 +4055,15 @@
       <c r="E26" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Jayrell</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>633</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -4046,7 +4087,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4065,6 +4106,15 @@
       <c r="E27" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Brian</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -4088,7 +4138,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4130,7 +4180,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4149,6 +4199,12 @@
       <c r="E29" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Daniel</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -4172,7 +4228,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4190,6 +4246,15 @@
       </c>
       <c r="E30" s="3" t="s">
         <v>626</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>634</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -4213,7 +4278,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4232,6 +4297,12 @@
       <c r="E31" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Morgan</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -4255,7 +4326,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4274,6 +4345,12 @@
       <c r="E32" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Hima</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -4297,7 +4374,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4339,7 +4416,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4381,7 +4458,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4423,7 +4500,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4465,7 +4542,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4507,7 +4584,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4549,7 +4626,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4591,7 +4668,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4610,6 +4687,15 @@
       <c r="E40" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Aaron</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -4633,7 +4719,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4647,11 +4733,19 @@
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Benjamin Smith</v>
-      </c>
-      <c r="E41" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Benjamin</v>
+        <v>Ben Smith</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -4675,7 +4769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4717,7 +4811,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4759,7 +4853,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4778,6 +4872,12 @@
       <c r="E44" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Ahmad</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -4801,7 +4901,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4843,7 +4943,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" ref="A46:A49" si="8">RIGHT(O46,9)</f>
         <v>44500-001</v>
@@ -4891,7 +4991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -4936,7 +5036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -4981,7 +5081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5641,7 +5741,7 @@
   <autoFilter ref="A1:T61" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44500-001"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F9C26C-86BB-5F49-A7A7-B0503CEF0AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268DABC-B7BA-FA49-A8CD-40ABDF5FEA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="641">
   <si>
     <t>Last Name</t>
   </si>
@@ -1947,6 +1947,21 @@
   </si>
   <si>
     <t>Scum Master</t>
+  </si>
+  <si>
+    <t>Sindre</t>
+  </si>
+  <si>
+    <t>Zander</t>
+  </si>
+  <si>
+    <t>PurpleCobras</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Moe</t>
   </si>
 </sst>
 </file>
@@ -2916,8 +2931,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3005,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>RIGHT(O2,9)</f>
         <v>20000-002</v>
@@ -3047,7 +3062,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(O3,9)</f>
         <v>20000-002</v>
@@ -3061,11 +3076,16 @@
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D16" si="2">CONCATENATE(E3," ",Q3)</f>
-        <v>Alexander Bird</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E16" si="3">R3</f>
-        <v>Alexander</v>
+        <v>Zander Bird</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3089,7 +3109,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3106,7 +3126,7 @@
         <v>Daniel Bruin</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E3:E16" si="3">R4</f>
         <v>Daniel</v>
       </c>
       <c r="L4" s="10"/>
@@ -3131,7 +3151,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3145,11 +3165,19 @@
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Guillermo Garcia</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Guillermo</v>
+        <v>Moe Garcia</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -3173,7 +3201,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3187,11 +3215,16 @@
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Sindre Magnus Haltbakk</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Sindre Magnus</v>
+        <v>Sindre Haltbakk</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -3215,7 +3248,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3257,7 +3290,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3299,7 +3332,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3341,7 +3374,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3383,7 +3416,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3425,7 +3458,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3444,6 +3477,15 @@
       <c r="E12" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Luis</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -3467,7 +3509,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3481,11 +3523,19 @@
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Rachelle Pobanz-Pawlak</v>
-      </c>
-      <c r="E13" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Rachelle</v>
+        <v>Robin Pobanz-Pawlak</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -3509,7 +3559,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3551,7 +3601,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3593,7 +3643,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3612,6 +3662,18 @@
       <c r="E16" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Aaron</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -3635,7 +3697,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(O17,9)</f>
         <v>44000-001</v>
@@ -3677,7 +3739,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3725,7 +3787,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3778,7 +3840,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3820,7 +3882,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3862,7 +3924,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3904,7 +3966,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3949,7 +4011,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3991,7 +4053,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4036,7 +4098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4087,7 +4149,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4138,7 +4200,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4180,7 +4242,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4228,7 +4290,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4278,7 +4340,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4326,7 +4388,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4374,7 +4436,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4416,7 +4478,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4458,7 +4520,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4500,7 +4562,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4542,7 +4604,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4584,7 +4646,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4626,7 +4688,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4668,7 +4730,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4719,7 +4781,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4769,7 +4831,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4811,7 +4873,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4853,7 +4915,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4901,7 +4963,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5741,7 +5803,7 @@
   <autoFilter ref="A1:T61" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268DABC-B7BA-FA49-A8CD-40ABDF5FEA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D38521-7E50-804A-BB89-7BC8C6755DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23-fall'!$A$1:$AH$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$T$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$T$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-fall'!$A$1:$L$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="651">
   <si>
     <t>Last Name</t>
   </si>
@@ -1943,9 +1943,6 @@
     <t>ChairForceOne</t>
   </si>
   <si>
-    <t>MightyDucks</t>
-  </si>
-  <si>
     <t>Scum Master</t>
   </si>
   <si>
@@ -1962,6 +1959,39 @@
   </si>
   <si>
     <t>Moe</t>
+  </si>
+  <si>
+    <t>44000-001</t>
+  </si>
+  <si>
+    <t>Irving Sanchez</t>
+  </si>
+  <si>
+    <t>Gabriel DaSilva</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>SemperCrayola</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>CodeCrusaders</t>
+  </si>
+  <si>
+    <t>KrabbyPatties</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>DummyScrummy</t>
   </si>
 </sst>
 </file>
@@ -2929,10 +2959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3020,12 +3050,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>RIGHT(O2,9)</f>
         <v>20000-002</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <f>P2</f>
         <v>1</v>
       </c>
@@ -3062,12 +3092,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(O3,9)</f>
         <v>20000-002</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B16" si="1">P3</f>
         <v>2</v>
       </c>
@@ -3079,7 +3109,7 @@
         <v>Zander Bird</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -3109,12 +3139,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3126,7 +3156,7 @@
         <v>Daniel Bruin</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" ref="E3:E16" si="3">R4</f>
+        <f t="shared" ref="E4:E16" si="3">R4</f>
         <v>Daniel</v>
       </c>
       <c r="L4" s="10"/>
@@ -3151,12 +3181,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3168,7 +3198,7 @@
         <v>Moe Garcia</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -3201,12 +3231,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3218,7 +3248,7 @@
         <v>Sindre Haltbakk</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -3248,12 +3278,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3290,12 +3320,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3332,12 +3362,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -3374,12 +3404,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -3416,12 +3446,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -3458,12 +3488,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -3509,12 +3539,12 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -3526,7 +3556,7 @@
         <v>Robin Pobanz-Pawlak</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -3559,12 +3589,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -3601,12 +3631,12 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -3643,12 +3673,12 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -3670,7 +3700,7 @@
         <v>383</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>14</v>
@@ -3702,7 +3732,7 @@
         <f t="shared" ref="A17:A45" si="4">RIGHT(O17,9)</f>
         <v>44000-001</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f t="shared" ref="B17:B45" si="5">P17</f>
         <v>16</v>
       </c>
@@ -3716,6 +3746,15 @@
       <c r="E17" s="3" t="str">
         <f t="shared" ref="E17:E45" si="7">R17</f>
         <v>Olivia</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -3744,7 +3783,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -3764,6 +3803,9 @@
       </c>
       <c r="G18" s="3" t="s">
         <v>382</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>644</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -3792,7 +3834,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -3812,8 +3854,8 @@
       <c r="G19" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>382</v>
+      <c r="I19" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
@@ -3845,7 +3887,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
@@ -3859,6 +3901,15 @@
       <c r="E20" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Joshua</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -3887,7 +3938,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -3896,11 +3947,19 @@
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Gabriel Carlson</v>
-      </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Gabriel</v>
+        <v>Gabe Carlson</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -3929,7 +3988,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
@@ -3943,6 +4002,15 @@
       <c r="E22" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Justin</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -3971,7 +4039,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
@@ -3985,6 +4053,15 @@
       <c r="E23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Kevin</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>14</v>
@@ -4016,7 +4093,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
@@ -4030,6 +4107,15 @@
       <c r="E24" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Ryan</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -4058,7 +4144,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -4072,6 +4158,15 @@
       <c r="E25" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Stephen</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>14</v>
@@ -4103,7 +4198,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
@@ -4154,7 +4249,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
@@ -4174,6 +4269,9 @@
       </c>
       <c r="G27" s="3" t="s">
         <v>382</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>633</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>14</v>
@@ -4205,7 +4303,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -4219,6 +4317,15 @@
       <c r="E28" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Ryan</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -4247,7 +4354,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -4267,6 +4374,9 @@
       </c>
       <c r="G29" s="3" t="s">
         <v>383</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>633</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -4295,7 +4405,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -4316,7 +4426,7 @@
         <v>386</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -4345,7 +4455,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
@@ -4365,6 +4475,9 @@
       </c>
       <c r="G31" s="3" t="s">
         <v>381</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>644</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -4393,7 +4506,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
@@ -4413,6 +4526,9 @@
       </c>
       <c r="G32" s="3" t="s">
         <v>386</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>633</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -4441,7 +4557,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
@@ -4456,6 +4572,8 @@
         <f t="shared" si="7"/>
         <v>Ithalo</v>
       </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="5"/>
@@ -4483,7 +4601,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
@@ -4492,11 +4610,19 @@
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Mateusz Obrochta</v>
-      </c>
-      <c r="E34" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Mateusz</v>
+        <v>Matt Obrochta</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -4520,12 +4646,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
@@ -4534,11 +4660,19 @@
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Nicolas Paredes</v>
-      </c>
-      <c r="E35" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Nicolas</v>
+        <v>Nico Paredes</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -4562,12 +4696,12 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
@@ -4581,6 +4715,15 @@
       <c r="E36" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Julian</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -4609,7 +4752,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
@@ -4623,6 +4766,15 @@
       <c r="E37" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Logan</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -4651,7 +4803,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -4665,6 +4817,15 @@
       <c r="E38" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Ivan</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4693,7 +4854,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
@@ -4708,6 +4869,8 @@
         <f t="shared" si="7"/>
         <v>Moattar</v>
       </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="5"/>
@@ -4735,7 +4898,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -4756,8 +4919,11 @@
       <c r="G40" s="3" t="s">
         <v>383</v>
       </c>
+      <c r="I40" s="3" t="s">
+        <v>644</v>
+      </c>
       <c r="J40" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -4781,12 +4947,12 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -4804,10 +4970,13 @@
         <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -4836,7 +5005,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -4850,6 +5019,15 @@
       <c r="E42" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Michael</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -4878,7 +5056,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
@@ -4892,6 +5070,15 @@
       <c r="E43" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Emilio</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -4920,7 +5107,7 @@
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
@@ -4940,6 +5127,9 @@
       </c>
       <c r="G44" s="3" t="s">
         <v>384</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>644</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -4963,12 +5153,12 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
@@ -4982,6 +5172,15 @@
       <c r="E45" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Kevin</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -5010,7 +5209,7 @@
         <f t="shared" ref="A46:A49" si="8">RIGHT(O46,9)</f>
         <v>44500-001</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <f t="shared" ref="B46:B49" si="9">P46</f>
         <v>45</v>
       </c>
@@ -5025,6 +5224,9 @@
         <f t="shared" ref="E46:E49" si="11">R46</f>
         <v>Julie</v>
       </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="3" t="s">
         <v>632</v>
       </c>
@@ -5058,7 +5260,7 @@
         <f t="shared" si="8"/>
         <v>44500-001</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
@@ -5073,6 +5275,9 @@
         <f t="shared" si="11"/>
         <v>Collin</v>
       </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="3" t="s">
         <v>632</v>
       </c>
@@ -5103,7 +5308,7 @@
         <f t="shared" si="8"/>
         <v>44500-001</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <f t="shared" si="9"/>
         <v>47</v>
       </c>
@@ -5118,6 +5323,9 @@
         <f t="shared" si="11"/>
         <v>Luke</v>
       </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="3" t="s">
         <v>632</v>
       </c>
@@ -5148,7 +5356,7 @@
         <f t="shared" si="8"/>
         <v>44500-001</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
@@ -5163,6 +5371,9 @@
         <f t="shared" si="11"/>
         <v>Justina</v>
       </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="3" t="s">
         <v>632</v>
       </c>
@@ -5799,11 +6010,65 @@
         <v>624</v>
       </c>
     </row>
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B62" s="4">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B63" s="4">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T61" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+  <autoFilter ref="A1:T63" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D38521-7E50-804A-BB89-7BC8C6755DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B7CF1-4610-0C4E-9823-DE4ED6DD64E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23-fall'!$A$1:$AH$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$T$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$T$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-fall'!$A$1:$L$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="662">
   <si>
     <t>Last Name</t>
   </si>
@@ -1992,6 +1992,39 @@
   </si>
   <si>
     <t>DummyScrummy</t>
+  </si>
+  <si>
+    <t>Karlmandy Abanis</t>
+  </si>
+  <si>
+    <t>20000-002</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>SourPatchEngineers</t>
+  </si>
+  <si>
+    <t>FormidableFour</t>
+  </si>
+  <si>
+    <t>Luis*</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>TheATeam</t>
+  </si>
+  <si>
+    <t>Kirill Sidorko</t>
+  </si>
+  <si>
+    <t>Kirill</t>
   </si>
 </sst>
 </file>
@@ -2959,10 +2992,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3050,7 +3083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>RIGHT(O2,9)</f>
         <v>20000-002</v>
@@ -3069,6 +3102,15 @@
       <c r="E2" s="3" t="str">
         <f>R2</f>
         <v>Gene</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -3092,7 +3134,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(O3,9)</f>
         <v>20000-002</v>
@@ -3116,6 +3158,9 @@
       </c>
       <c r="G3" s="3" t="s">
         <v>382</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3139,7 +3184,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3153,11 +3198,19 @@
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Daniel Bruin</v>
-      </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E16" si="3">R4</f>
-        <v>Daniel</v>
+        <v>Danny Bruin</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -3181,7 +3234,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3205,6 +3258,9 @@
       </c>
       <c r="G5" s="3" t="s">
         <v>386</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -3231,7 +3287,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3255,6 +3311,9 @@
       </c>
       <c r="G6" s="3" t="s">
         <v>386</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -3278,7 +3337,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3295,8 +3354,17 @@
         <v>Julian Hernandez</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E7:E16" si="3">R7</f>
         <v>Julian</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -3320,7 +3388,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3339,6 +3407,15 @@
       <c r="E8" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Darko</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -3362,7 +3439,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3382,6 +3459,10 @@
         <f t="shared" si="3"/>
         <v>Tyson</v>
       </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="7"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
@@ -3404,7 +3485,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3424,6 +3505,10 @@
         <f t="shared" si="3"/>
         <v>Michael</v>
       </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="7"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
@@ -3446,7 +3531,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3460,11 +3545,19 @@
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Daniel Monbrod</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Daniel</v>
+        <v>Dan Monbrod</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3488,7 +3581,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3502,17 +3595,19 @@
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Luis Perez</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Luis</v>
+        <v>Luis* Perez</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>382</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -3539,7 +3634,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3563,6 +3658,9 @@
       </c>
       <c r="G13" s="3" t="s">
         <v>381</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
@@ -3589,7 +3687,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3608,6 +3706,15 @@
       <c r="E14" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Amatullah</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -3631,7 +3738,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3650,6 +3757,15 @@
       <c r="E15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Nicholas</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -3673,7 +3789,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4646,7 +4762,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4696,7 +4812,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4947,7 +5063,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5153,7 +5269,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6059,16 +6175,63 @@
         <v>384</v>
       </c>
     </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B64" s="4">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F64" s="3">
+        <v>4</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B65" s="4">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F65" s="3">
+        <v>6</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T63" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+  <autoFilter ref="A1:T65" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="3"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B7CF1-4610-0C4E-9823-DE4ED6DD64E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381142AE-DADB-4842-A1FA-B14E860F5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23-fall'!$A$1:$AH$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$T$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$T$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-fall'!$A$1:$L$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="663">
   <si>
     <t>Last Name</t>
   </si>
@@ -2009,9 +2009,6 @@
     <t>SourPatchEngineers</t>
   </si>
   <si>
-    <t>FormidableFour</t>
-  </si>
-  <si>
     <t>Luis*</t>
   </si>
   <si>
@@ -2025,6 +2022,12 @@
   </si>
   <si>
     <t>Kirill</t>
+  </si>
+  <si>
+    <t>Eric Wortman</t>
+  </si>
+  <si>
+    <t>FormidableFive</t>
   </si>
 </sst>
 </file>
@@ -2991,11 +2994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3201,7 +3203,7 @@
         <v>Danny Bruin</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -3210,7 +3212,7 @@
         <v>406</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -3257,10 +3259,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -3364,7 +3366,7 @@
         <v>381</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -3598,7 +3600,7 @@
         <v>Luis* Perez</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
@@ -3607,7 +3609,7 @@
         <v>382</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -3714,7 +3716,7 @@
         <v>384</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -3765,7 +3767,7 @@
         <v>383</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -3843,7 +3845,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(O17,9)</f>
         <v>44000-001</v>
@@ -3894,7 +3896,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3945,7 +3947,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3998,7 +4000,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4049,7 +4051,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4099,7 +4101,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4150,7 +4152,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4204,7 +4206,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4255,7 +4257,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4309,7 +4311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4360,7 +4362,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4414,7 +4416,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4465,7 +4467,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4516,7 +4518,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4566,7 +4568,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4617,7 +4619,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4668,7 +4670,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4712,7 +4714,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4762,7 +4764,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4812,7 +4814,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4863,7 +4865,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4914,7 +4916,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4965,7 +4967,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5009,7 +5011,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5063,7 +5065,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5116,7 +5118,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5167,7 +5169,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5218,7 +5220,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5269,7 +5271,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5320,7 +5322,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" ref="A46:A49" si="8">RIGHT(O46,9)</f>
         <v>44500-001</v>
@@ -5371,7 +5373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5419,7 +5421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5467,7 +5469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5515,7 +5517,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="12">RIGHT(O50,9)</f>
         <v>49200-002</v>
@@ -5567,7 +5569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5616,7 +5618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5668,7 +5670,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5718,7 +5720,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5768,7 +5770,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5818,7 +5820,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5870,7 +5872,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5922,7 +5924,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5972,7 +5974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6022,7 +6024,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6074,7 +6076,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6126,7 +6128,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>640</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>640</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>383</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -6212,10 +6214,10 @@
         <v>49</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>661</v>
       </c>
       <c r="F65" s="3">
         <v>6</v>
@@ -6224,17 +6226,37 @@
         <v>649</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B66" s="4">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T65" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="20000-002"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381142AE-DADB-4842-A1FA-B14E860F5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA80FA-20FF-E044-AA7D-181B1E474E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="662">
   <si>
     <t>Last Name</t>
   </si>
@@ -1923,9 +1923,6 @@
   </si>
   <si>
     <t>CoShop</t>
-  </si>
-  <si>
-    <t>Scrum Master/Product Owner</t>
   </si>
   <si>
     <t>CoShoppers</t>
@@ -2198,7 +2195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2426,12 +2423,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2593,7 +2584,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2627,13 +2618,17 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2994,10 +2989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3014,7 +3010,7 @@
     <col min="10" max="10" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="3" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" style="3" customWidth="1"/>
     <col min="16" max="16" width="4.5" style="3" bestFit="1" customWidth="1"/>
@@ -3063,7 +3059,7 @@
         <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1" t="s">
@@ -3085,7 +3081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>RIGHT(O2,9)</f>
         <v>20000-002</v>
@@ -3112,7 +3108,7 @@
         <v>384</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -3136,7 +3132,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(O3,9)</f>
         <v>20000-002</v>
@@ -3153,7 +3149,7 @@
         <v>Zander Bird</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -3162,7 +3158,7 @@
         <v>382</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3186,7 +3182,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3203,7 +3199,7 @@
         <v>Danny Bruin</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -3212,7 +3208,7 @@
         <v>406</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -3236,7 +3232,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3253,7 +3249,7 @@
         <v>Moe Garcia</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -3262,7 +3258,7 @@
         <v>383</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -3289,7 +3285,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3306,7 +3302,7 @@
         <v>Sindre Haltbakk</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -3315,7 +3311,7 @@
         <v>386</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -3339,7 +3335,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3366,7 +3362,7 @@
         <v>381</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -3390,7 +3386,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3417,7 +3413,7 @@
         <v>383</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -3441,7 +3437,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3487,7 +3483,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3533,7 +3529,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3550,7 +3546,7 @@
         <v>Dan Monbrod</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -3559,7 +3555,7 @@
         <v>386</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3583,7 +3579,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3600,7 +3596,7 @@
         <v>Luis* Perez</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
@@ -3609,7 +3605,7 @@
         <v>382</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -3636,7 +3632,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3653,7 +3649,7 @@
         <v>Robin Pobanz-Pawlak</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -3662,7 +3658,7 @@
         <v>381</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
@@ -3689,7 +3685,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3716,7 +3712,7 @@
         <v>384</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -3740,7 +3736,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3767,7 +3763,7 @@
         <v>383</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -3791,7 +3787,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3818,7 +3814,7 @@
         <v>383</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>14</v>
@@ -3845,7 +3841,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(O17,9)</f>
         <v>44000-001</v>
@@ -3872,7 +3868,7 @@
         <v>381</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -3896,7 +3892,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3923,7 +3919,7 @@
         <v>382</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -3947,7 +3943,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3973,7 +3969,7 @@
         <v>382</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
@@ -4000,7 +3996,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4027,7 +4023,7 @@
         <v>384</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -4051,7 +4047,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4068,7 +4064,7 @@
         <v>Gabe Carlson</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
@@ -4077,7 +4073,7 @@
         <v>384</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -4101,7 +4097,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4128,7 +4124,7 @@
         <v>386</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -4152,7 +4148,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4179,7 +4175,7 @@
         <v>382</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>14</v>
@@ -4206,7 +4202,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4233,7 +4229,7 @@
         <v>382</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -4257,7 +4253,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4284,7 +4280,7 @@
         <v>406</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>14</v>
@@ -4311,7 +4307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4338,7 +4334,7 @@
         <v>384</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -4362,7 +4358,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4389,7 +4385,7 @@
         <v>382</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>14</v>
@@ -4416,7 +4412,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4440,10 +4436,10 @@
         <v>6</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -4467,7 +4463,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4494,7 +4490,7 @@
         <v>383</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -4518,7 +4514,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4544,7 +4540,7 @@
         <v>386</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -4568,7 +4564,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4595,7 +4591,7 @@
         <v>381</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -4619,7 +4615,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4646,7 +4642,7 @@
         <v>386</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -4670,7 +4666,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4714,7 +4710,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4740,7 +4736,7 @@
         <v>386</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -4764,7 +4760,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4781,7 +4777,7 @@
         <v>Nico Paredes</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F35" s="3">
         <v>3</v>
@@ -4814,7 +4810,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4865,7 +4861,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4892,7 +4888,7 @@
         <v>383</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -4916,7 +4912,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4943,7 +4939,7 @@
         <v>381</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4967,7 +4963,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5011,7 +5007,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5038,10 +5034,10 @@
         <v>383</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -5065,7 +5061,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5094,7 +5090,7 @@
         <v>42</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -5118,7 +5114,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5145,7 +5141,7 @@
         <v>383</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -5169,7 +5165,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5196,7 +5192,7 @@
         <v>387</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -5220,7 +5216,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5247,7 +5243,7 @@
         <v>384</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -5271,7 +5267,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5322,7 +5318,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" ref="A46:A49" si="8">RIGHT(O46,9)</f>
         <v>44500-001</v>
@@ -5344,9 +5340,9 @@
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="22"/>
+      <c r="H46" s="21"/>
       <c r="I46" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>14</v>
@@ -5373,7 +5369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5395,9 +5391,9 @@
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="22"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -5421,7 +5417,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5443,9 +5439,9 @@
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="22"/>
+      <c r="H48" s="21"/>
       <c r="I48" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -5469,7 +5465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5491,9 +5487,9 @@
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="22"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -5537,17 +5533,17 @@
         <f t="shared" ref="E50:E61" si="15">R50</f>
         <v>David</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="M50" s="12" t="s">
-        <v>631</v>
+      <c r="M50" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="3" t="s">
@@ -5588,15 +5584,15 @@
       <c r="E51" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="L51" s="21" t="s">
+      <c r="J51" s="22"/>
+      <c r="L51" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M51" s="21" t="s">
-        <v>631</v>
+      <c r="M51" s="23" t="s">
+        <v>630</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="3" t="s">
@@ -5638,17 +5634,17 @@
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="L52" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="M52" s="12" t="s">
-        <v>631</v>
+      <c r="M52" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="3" t="s">
@@ -5690,15 +5686,15 @@
         <f t="shared" si="15"/>
         <v>Shane</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="L53" s="20" t="s">
+      <c r="J53" s="22"/>
+      <c r="L53" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="M53" s="12" t="s">
-        <v>631</v>
+      <c r="M53" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="3" t="s">
@@ -5740,15 +5736,15 @@
         <f t="shared" si="15"/>
         <v>Evan</v>
       </c>
-      <c r="I54" s="12" t="s">
+      <c r="I54" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="J54" s="12"/>
-      <c r="L54" s="22" t="s">
+      <c r="J54" s="22"/>
+      <c r="L54" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M54" s="21" t="s">
-        <v>631</v>
+      <c r="M54" s="23" t="s">
+        <v>630</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="3" t="s">
@@ -5790,15 +5786,15 @@
         <f t="shared" si="15"/>
         <v>Alex</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="J55" s="12"/>
-      <c r="L55" s="22" t="s">
+      <c r="J55" s="22"/>
+      <c r="L55" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M55" s="21" t="s">
-        <v>631</v>
+      <c r="M55" s="23" t="s">
+        <v>630</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="3" t="s">
@@ -5840,17 +5836,17 @@
         <f t="shared" si="15"/>
         <v>Alex</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L56" s="22" t="s">
+      <c r="L56" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M56" s="21" t="s">
-        <v>631</v>
+      <c r="M56" s="23" t="s">
+        <v>630</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="3" t="s">
@@ -5892,17 +5888,17 @@
         <f t="shared" si="15"/>
         <v>James</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L57" s="22" t="s">
+      <c r="L57" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M57" s="21" t="s">
-        <v>631</v>
+      <c r="M57" s="23" t="s">
+        <v>630</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="3" t="s">
@@ -5944,15 +5940,15 @@
         <f t="shared" si="15"/>
         <v>Luke</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="J58" s="12"/>
-      <c r="L58" s="23" t="s">
+      <c r="J58" s="22"/>
+      <c r="L58" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M58" s="12" t="s">
-        <v>631</v>
+      <c r="M58" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="3" t="s">
@@ -5994,15 +5990,15 @@
         <f t="shared" si="15"/>
         <v>Jacob</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="J59" s="12"/>
-      <c r="L59" s="23" t="s">
+      <c r="J59" s="22"/>
+      <c r="L59" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M59" s="12" t="s">
-        <v>631</v>
+      <c r="M59" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="3" t="s">
@@ -6044,17 +6040,17 @@
         <f t="shared" si="15"/>
         <v>Julian</v>
       </c>
-      <c r="I60" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="J60" s="7" t="s">
+      <c r="I60" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="L60" s="22" t="s">
+      <c r="J60" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="M60" s="22" t="s">
-        <v>631</v>
+      <c r="M60" s="24" t="s">
+        <v>630</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="3" t="s">
@@ -6096,17 +6092,17 @@
         <f t="shared" si="15"/>
         <v>Amna</v>
       </c>
-      <c r="I61" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="J61" s="7" t="s">
+      <c r="I61" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="L61" s="22" t="s">
+      <c r="J61" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L61" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="M61" s="22" t="s">
-        <v>631</v>
+      <c r="M61" s="24" t="s">
+        <v>630</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="3" t="s">
@@ -6128,9 +6124,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B62" s="4">
         <v>61</v>
@@ -6139,10 +6135,10 @@
         <v>49</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -6151,12 +6147,12 @@
         <v>381</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B63" s="4">
         <v>62</v>
@@ -6165,7 +6161,7 @@
         <v>49</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>529</v>
@@ -6177,9 +6173,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B64" s="4">
         <v>63</v>
@@ -6188,10 +6184,10 @@
         <v>49</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F64" s="3">
         <v>4</v>
@@ -6200,12 +6196,12 @@
         <v>383</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B65" s="4">
         <v>64</v>
@@ -6214,24 +6210,24 @@
         <v>49</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="F65" s="3">
         <v>6</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B66" s="4">
         <v>65</v>
@@ -6240,7 +6236,7 @@
         <v>49</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>17</v>
@@ -6252,11 +6248,17 @@
         <v>386</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}"/>
+  <autoFilter ref="A1:T66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="49200-002"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA80FA-20FF-E044-AA7D-181B1E474E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA127982-0EC9-DE4A-A175-A9171732B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -2584,7 +2584,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2621,14 +2621,10 @@
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5513,7 +5509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="12">RIGHT(O50,9)</f>
         <v>49200-002</v>
@@ -5533,16 +5529,16 @@
         <f t="shared" ref="E50:E61" si="15">R50</f>
         <v>David</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L50" s="22" t="s">
+      <c r="L50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M50" s="22" t="s">
+      <c r="M50" s="3" t="s">
         <v>630</v>
       </c>
       <c r="N50" s="5"/>
@@ -5584,14 +5580,13 @@
       <c r="E51" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J51" s="22"/>
-      <c r="L51" s="23" t="s">
+      <c r="L51" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="M51" s="23" t="s">
+      <c r="M51" s="22" t="s">
         <v>630</v>
       </c>
       <c r="N51" s="5"/>
@@ -5614,7 +5609,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5634,16 +5629,16 @@
         <f t="shared" si="15"/>
         <v>Pablo</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="22" t="s">
+      <c r="L52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M52" s="22" t="s">
+      <c r="M52" s="3" t="s">
         <v>630</v>
       </c>
       <c r="N52" s="5"/>
@@ -5666,7 +5661,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5686,14 +5681,13 @@
         <f t="shared" si="15"/>
         <v>Shane</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="J53" s="22"/>
-      <c r="L53" s="24" t="s">
+      <c r="L53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M53" s="22" t="s">
+      <c r="M53" s="3" t="s">
         <v>630</v>
       </c>
       <c r="N53" s="5"/>
@@ -5736,14 +5730,13 @@
         <f t="shared" si="15"/>
         <v>Evan</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J54" s="22"/>
-      <c r="L54" s="24" t="s">
+      <c r="L54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M54" s="23" t="s">
+      <c r="M54" s="22" t="s">
         <v>630</v>
       </c>
       <c r="N54" s="5"/>
@@ -5786,14 +5779,13 @@
         <f t="shared" si="15"/>
         <v>Alex</v>
       </c>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J55" s="22"/>
-      <c r="L55" s="24" t="s">
+      <c r="L55" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M55" s="23" t="s">
+      <c r="M55" s="22" t="s">
         <v>630</v>
       </c>
       <c r="N55" s="5"/>
@@ -5836,16 +5828,16 @@
         <f t="shared" si="15"/>
         <v>Alex</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="I56" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L56" s="24" t="s">
+      <c r="L56" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M56" s="23" t="s">
+      <c r="M56" s="22" t="s">
         <v>630</v>
       </c>
       <c r="N56" s="5"/>
@@ -5888,16 +5880,16 @@
         <f t="shared" si="15"/>
         <v>James</v>
       </c>
-      <c r="I57" s="22" t="s">
+      <c r="I57" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L57" s="24" t="s">
+      <c r="L57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M57" s="23" t="s">
+      <c r="M57" s="22" t="s">
         <v>630</v>
       </c>
       <c r="N57" s="5"/>
@@ -5920,7 +5912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5940,14 +5932,13 @@
         <f t="shared" si="15"/>
         <v>Luke</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="J58" s="22"/>
-      <c r="L58" s="25" t="s">
+      <c r="L58" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="M58" s="22" t="s">
+      <c r="M58" s="3" t="s">
         <v>630</v>
       </c>
       <c r="N58" s="5"/>
@@ -5970,7 +5961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5990,14 +5981,13 @@
         <f t="shared" si="15"/>
         <v>Jacob</v>
       </c>
-      <c r="I59" s="22" t="s">
+      <c r="I59" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="J59" s="22"/>
-      <c r="L59" s="25" t="s">
+      <c r="L59" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="M59" s="22" t="s">
+      <c r="M59" s="3" t="s">
         <v>630</v>
       </c>
       <c r="N59" s="5"/>
@@ -6020,7 +6010,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6040,16 +6030,16 @@
         <f t="shared" si="15"/>
         <v>Julian</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L60" s="24" t="s">
+      <c r="L60" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="M60" s="24" t="s">
+      <c r="M60" s="10" t="s">
         <v>630</v>
       </c>
       <c r="N60" s="5"/>
@@ -6072,7 +6062,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6092,16 +6082,16 @@
         <f t="shared" si="15"/>
         <v>Amna</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="24" t="s">
+      <c r="L61" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="M61" s="24" t="s">
+      <c r="M61" s="10" t="s">
         <v>630</v>
       </c>
       <c r="N61" s="5"/>
@@ -6256,6 +6246,11 @@
     <filterColumn colId="0">
       <filters>
         <filter val="49200-002"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="ScramJets"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA127982-0EC9-DE4A-A175-A9171732B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80802162-FE16-1F4E-B610-817476979FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1480" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="663">
   <si>
     <t>Last Name</t>
   </si>
@@ -2025,6 +2025,9 @@
   </si>
   <si>
     <t>FormidableFive</t>
+  </si>
+  <si>
+    <t>Mike</t>
   </si>
 </sst>
 </file>
@@ -2584,7 +2587,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2625,6 +2628,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2989,7 +2996,7 @@
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+      <selection activeCell="I359" sqref="I359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3077,7 +3084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>RIGHT(O2,9)</f>
         <v>20000-002</v>
@@ -3128,7 +3135,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(O3,9)</f>
         <v>20000-002</v>
@@ -3178,7 +3185,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3228,7 +3235,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3281,7 +3288,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3331,7 +3338,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3382,7 +3389,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3433,7 +3440,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3479,7 +3486,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3493,16 +3500,21 @@
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Michael Liberty</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Michael</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="7"/>
+        <v>Mike Liberty</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F10" s="24">
+        <v>3</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="3" t="s">
+        <v>654</v>
+      </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
@@ -3525,7 +3537,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3575,7 +3587,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3628,7 +3640,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3681,7 +3693,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3732,7 +3744,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3783,7 +3795,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -5561,7 +5573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5710,7 +5722,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5759,7 +5771,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5808,7 +5820,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5860,7 +5872,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6163,7 +6175,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6189,7 +6201,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6215,7 +6227,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6245,12 +6257,7 @@
   <autoFilter ref="A1:T66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-002"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="ScramJets"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80802162-FE16-1F4E-B610-817476979FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2079B74-C36E-6848-8515-8C21280B1F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1480" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -2587,7 +2587,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2628,10 +2628,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2996,7 +2992,7 @@
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I359" sqref="I359"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3084,7 +3080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>RIGHT(O2,9)</f>
         <v>20000-002</v>
@@ -3135,7 +3131,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(O3,9)</f>
         <v>20000-002</v>
@@ -3185,7 +3181,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3235,7 +3231,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3288,7 +3284,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3338,7 +3334,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3389,7 +3385,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3440,7 +3436,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3486,7 +3482,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3505,13 +3501,12 @@
       <c r="E10" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="H10" s="25"/>
       <c r="I10" s="3" t="s">
         <v>654</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3587,7 +3582,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3640,7 +3635,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3693,7 +3688,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3744,7 +3739,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3795,7 +3790,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3849,7 +3844,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(O17,9)</f>
         <v>44000-001</v>
@@ -3900,7 +3895,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3951,7 +3946,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4004,7 +3999,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4055,7 +4050,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4105,7 +4100,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4156,7 +4151,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4210,7 +4205,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4261,7 +4256,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4315,7 +4310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4366,7 +4361,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4420,7 +4415,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4471,7 +4466,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4522,7 +4517,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4572,7 +4567,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4623,7 +4618,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4674,7 +4669,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4718,7 +4713,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4768,7 +4763,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4818,7 +4813,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4869,7 +4864,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4920,7 +4915,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4971,7 +4966,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5015,7 +5010,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5069,7 +5064,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5122,7 +5117,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5173,7 +5168,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5224,7 +5219,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5275,7 +5270,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6126,7 +6121,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6152,7 +6147,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6175,7 +6170,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6201,7 +6196,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6227,7 +6222,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6257,7 +6252,7 @@
   <autoFilter ref="A1:T66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2079B74-C36E-6848-8515-8C21280B1F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1737B9C-81E6-5240-B23B-71CF9B22CCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36280" yWindow="-1720" windowWidth="29640" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="663">
   <si>
     <t>Last Name</t>
   </si>
@@ -2992,7 +2992,7 @@
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3844,7 +3844,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(O17,9)</f>
         <v>44000-001</v>
@@ -3895,7 +3895,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3946,7 +3946,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3999,7 +3999,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4050,7 +4050,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4100,7 +4100,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4151,7 +4151,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4205,7 +4205,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4256,7 +4256,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4310,7 +4310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4361,7 +4361,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4415,7 +4415,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4466,7 +4466,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4517,7 +4517,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4567,7 +4567,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4618,7 +4618,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4669,7 +4669,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4713,7 +4713,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4763,7 +4763,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4813,7 +4813,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4864,7 +4864,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4915,7 +4915,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4966,7 +4966,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5010,7 +5010,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5064,7 +5064,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5117,7 +5117,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5168,7 +5168,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5219,7 +5219,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5270,7 +5270,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5516,7 +5516,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="12">RIGHT(O50,9)</f>
         <v>49200-002</v>
@@ -5568,7 +5568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5616,7 +5616,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5668,7 +5668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5717,7 +5717,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5766,7 +5766,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5815,7 +5815,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5867,7 +5867,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5919,7 +5919,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5968,7 +5968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6017,7 +6017,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6069,7 +6069,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6121,7 +6121,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6168,6 +6168,9 @@
       </c>
       <c r="G63" s="3" t="s">
         <v>384</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -6252,7 +6255,7 @@
   <autoFilter ref="A1:T66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="49200-002"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1737B9C-81E6-5240-B23B-71CF9B22CCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D75A2-6602-9F48-A18A-2FBBE8917735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36280" yWindow="-1720" windowWidth="29640" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23-fall'!$A$1:$AH$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$T$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$U$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-fall'!$A$1:$L$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="663">
   <si>
     <t>Last Name</t>
   </si>
@@ -2989,17 +2989,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="3" customWidth="1"/>
@@ -3009,18 +3009,19 @@
     <col min="10" max="10" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="3"/>
+    <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3058,46 +3059,49 @@
         <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
-        <f>RIGHT(O2,9)</f>
+        <f>RIGHT(P2,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B2" s="4">
-        <f>P2</f>
+        <f>Q2</f>
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>417</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>CONCATENATE(E2," ",Q2)</f>
+        <f>CONCATENATE(E2," ",R2)</f>
         <v>Gene Anderson</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>R2</f>
+        <f>S2</f>
         <v>Gene</v>
       </c>
       <c r="F2" s="3">
@@ -3111,40 +3115,41 @@
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>1</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A16" si="0">RIGHT(O3,9)</f>
+        <f t="shared" ref="A3:A16" si="0">RIGHT(P3,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B16" si="1">P3</f>
+        <f t="shared" ref="B3:B16" si="1">Q3</f>
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D16" si="2">CONCATENATE(E3," ",Q3)</f>
+        <f t="shared" ref="D3:D16" si="2">CONCATENATE(E3," ",R3)</f>
         <v>Zander Bird</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3161,27 +3166,28 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3211,27 +3217,28 @@
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>3</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3263,28 +3270,31 @@
         <v>14</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="3" t="s">
+      <c r="M5" s="10">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>4</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3314,27 +3324,28 @@
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="3" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>5</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3351,7 +3362,7 @@
         <v>Julian Hernandez</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" ref="E7:E16" si="3">R7</f>
+        <f t="shared" ref="E7:E16" si="3">S7</f>
         <v>Julian</v>
       </c>
       <c r="F7" s="3">
@@ -3365,27 +3376,28 @@
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="3" t="s">
+      <c r="N7" s="10"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>6</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3416,27 +3428,28 @@
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="3" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3462,27 +3475,28 @@
       <c r="I9" s="7"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3512,27 +3526,28 @@
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="3" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3562,27 +3577,28 @@
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="3" t="s">
+      <c r="N11" s="10"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>10</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3615,27 +3631,28 @@
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="3" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3667,28 +3684,31 @@
         <v>14</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="3" t="s">
+      <c r="M13" s="10">
+        <v>1</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>12</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3719,27 +3739,28 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="10"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3770,27 +3791,28 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="3" t="s">
+      <c r="N15" s="10"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3823,45 +3845,48 @@
         <v>14</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="3" t="s">
+      <c r="M16" s="10">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <v>15</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
-        <f t="shared" ref="A17:A45" si="4">RIGHT(O17,9)</f>
+        <f t="shared" ref="A17:A45" si="4">RIGHT(P17,9)</f>
         <v>44000-001</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ref="B17:B45" si="5">P17</f>
+        <f t="shared" ref="B17:B45" si="5">Q17</f>
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" ref="D17:D45" si="6">CONCATENATE(E17," ",Q17)</f>
+        <f t="shared" ref="D17:D45" si="6">CONCATENATE(E17," ",R17)</f>
         <v>Olivia Adamic</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" ref="E17:E45" si="7">R17</f>
+        <f t="shared" ref="E17:E45" si="7">S17</f>
         <v>Olivia</v>
       </c>
       <c r="F17" s="3">
@@ -3875,27 +3900,28 @@
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="3" t="s">
+      <c r="N17" s="10"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3926,27 +3952,28 @@
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="3" t="s">
+      <c r="N18" s="10"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3979,27 +4006,28 @@
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="3" t="s">
+      <c r="N19" s="10"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="3">
         <v>18</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4030,27 +4058,28 @@
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="3" t="s">
+      <c r="N20" s="10"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4080,27 +4109,28 @@
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="3" t="s">
+      <c r="N21" s="10"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4131,27 +4161,28 @@
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="3" t="s">
+      <c r="N22" s="10"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4185,27 +4216,28 @@
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="3" t="s">
+      <c r="N23" s="10"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4236,27 +4268,28 @@
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="3" t="s">
+      <c r="N24" s="10"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4290,27 +4323,28 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="3" t="s">
+      <c r="N25" s="10"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <v>24</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4341,27 +4375,28 @@
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="3" t="s">
+      <c r="N26" s="10"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4394,28 +4429,31 @@
         <v>14</v>
       </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="3" t="s">
+      <c r="M27" s="10">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4446,27 +4484,28 @@
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="3" t="s">
+      <c r="N28" s="10"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <v>27</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4497,27 +4536,28 @@
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="10"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>28</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4547,27 +4587,28 @@
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="3" t="s">
+      <c r="N30" s="10"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="3">
         <v>29</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4598,27 +4639,28 @@
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="3" t="s">
+      <c r="N31" s="10"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P31" s="3">
+      <c r="Q31" s="3">
         <v>30</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4649,27 +4691,28 @@
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="3" t="s">
+      <c r="N32" s="10"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>31</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4693,27 +4736,28 @@
       <c r="G33" s="7"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="3" t="s">
+      <c r="N33" s="10"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4743,27 +4787,28 @@
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="3" t="s">
+      <c r="N34" s="10"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Q34" s="3">
         <v>33</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4792,28 +4837,31 @@
         <v>42</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="3" t="s">
+      <c r="M35" s="10">
+        <v>1</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4844,27 +4892,28 @@
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="3" t="s">
+      <c r="N36" s="10"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P36" s="3">
+      <c r="Q36" s="3">
         <v>35</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4895,27 +4944,28 @@
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="3" t="s">
+      <c r="N37" s="10"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P37" s="3">
+      <c r="Q37" s="3">
         <v>36</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4945,28 +4995,31 @@
         <v>645</v>
       </c>
       <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="3" t="s">
+      <c r="M38" s="10">
+        <v>1</v>
+      </c>
+      <c r="N38" s="10"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P38" s="3">
+      <c r="Q38" s="3">
         <v>37</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="U38" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4990,27 +5043,28 @@
       <c r="G39" s="7"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="3" t="s">
+      <c r="N39" s="10"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P39" s="3">
+      <c r="Q39" s="3">
         <v>38</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5043,28 +5097,31 @@
         <v>633</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="3" t="s">
+      <c r="M40" s="10">
+        <v>1</v>
+      </c>
+      <c r="N40" s="10"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P40" s="3">
+      <c r="Q40" s="3">
         <v>39</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5097,27 +5154,28 @@
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="3" t="s">
+      <c r="N41" s="10"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>40</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5147,28 +5205,31 @@
         <v>649</v>
       </c>
       <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="3" t="s">
+      <c r="M42" s="10">
+        <v>1</v>
+      </c>
+      <c r="N42" s="10"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>41</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5198,28 +5259,31 @@
         <v>646</v>
       </c>
       <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="3" t="s">
+      <c r="M43" s="10">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>42</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5250,27 +5314,28 @@
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="3" t="s">
+      <c r="N44" s="10"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5301,44 +5366,45 @@
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="3" t="s">
+      <c r="N45" s="10"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
-        <f t="shared" ref="A46:A49" si="8">RIGHT(O46,9)</f>
+        <f t="shared" ref="A46:A49" si="8">RIGHT(P46,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" ref="B46:B49" si="9">P46</f>
+        <f t="shared" ref="B46:B49" si="9">Q46</f>
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" ref="D46:D49" si="10">CONCATENATE(E46," ",Q46)</f>
+        <f t="shared" ref="D46:D49" si="10">CONCATENATE(E46," ",R46)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f t="shared" ref="E46:E49" si="11">R46</f>
+        <f t="shared" ref="E46:E49" si="11">S46</f>
         <v>Julie</v>
       </c>
       <c r="F46" s="12"/>
@@ -5352,27 +5418,28 @@
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="3" t="s">
+      <c r="N46" s="10"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5400,27 +5467,28 @@
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="3" t="s">
+      <c r="N47" s="10"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>46</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5448,27 +5516,28 @@
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="3" t="s">
+      <c r="N48" s="10"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>47</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5496,44 +5565,45 @@
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="3" t="s">
+      <c r="N49" s="10"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>48</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
-        <f t="shared" ref="A50:A61" si="12">RIGHT(O50,9)</f>
+        <f t="shared" ref="A50:A61" si="12">RIGHT(P50,9)</f>
         <v>49200-002</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" ref="B50:B61" si="13">P50</f>
+        <f t="shared" ref="B50:B61" si="13">Q50</f>
         <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" ref="D50:D61" si="14">CONCATENATE(E50," ",Q50)</f>
+        <f t="shared" ref="D50:D61" si="14">CONCATENATE(E50," ",R50)</f>
         <v>David Abrutis</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f t="shared" ref="E50:E61" si="15">R50</f>
+        <f t="shared" ref="E50:E61" si="15">S50</f>
         <v>David</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -5545,30 +5615,30 @@
       <c r="L50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="5"/>
+      <c r="P50" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P50" s="3">
-        <v>49</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="3">
+        <v>49</v>
+      </c>
+      <c r="R50" t="s">
         <v>97</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>98</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>99</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5593,30 +5663,31 @@
       <c r="L51" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="M51" s="22" t="s">
+      <c r="M51" s="22"/>
+      <c r="N51" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="N51" s="5"/>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="5"/>
+      <c r="P51" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P51" s="3">
+      <c r="Q51" s="3">
         <v>50</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>101</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>102</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>103</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5645,30 +5716,30 @@
       <c r="L52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="5"/>
+      <c r="P52" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>51</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>120</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>121</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>122</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5694,30 +5765,31 @@
       <c r="L53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="10"/>
+      <c r="N53" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="N53" s="5"/>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="5"/>
+      <c r="P53" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P53" s="3">
+      <c r="Q53" s="3">
         <v>52</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>152</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>153</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>154</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5743,30 +5815,31 @@
       <c r="L54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M54" s="22" t="s">
+      <c r="M54" s="10"/>
+      <c r="N54" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="3" t="s">
+      <c r="O54" s="5"/>
+      <c r="P54" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>609</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>610</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>611</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5792,30 +5865,31 @@
       <c r="L55" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M55" s="22" t="s">
+      <c r="M55" s="10"/>
+      <c r="N55" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="5"/>
+      <c r="P55" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P55" s="3">
+      <c r="Q55" s="3">
         <v>54</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>304</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>37</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>613</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5844,30 +5918,31 @@
       <c r="L56" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M56" s="22" t="s">
+      <c r="M56" s="10"/>
+      <c r="N56" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="5"/>
+      <c r="P56" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P56" s="3">
+      <c r="Q56" s="3">
         <v>55</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>134</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>37</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>135</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5896,30 +5971,31 @@
       <c r="L57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M57" s="22" t="s">
+      <c r="M57" s="10"/>
+      <c r="N57" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="3" t="s">
+      <c r="O57" s="5"/>
+      <c r="P57" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>56</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>137</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>50</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>138</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5945,30 +6021,31 @@
       <c r="L58" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="23"/>
+      <c r="N58" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="5"/>
+      <c r="P58" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>57</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>10</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>11</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>12</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5994,30 +6071,31 @@
       <c r="L59" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="23"/>
+      <c r="N59" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="5"/>
+      <c r="P59" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>615</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>33</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>616</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6046,30 +6124,31 @@
       <c r="L60" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="M60" s="10" t="s">
+      <c r="M60" s="10"/>
+      <c r="N60" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="3" t="s">
+      <c r="O60" s="5"/>
+      <c r="P60" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>59</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>618</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>478</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>619</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6098,30 +6177,31 @@
       <c r="L61" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="M61" s="10"/>
+      <c r="N61" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="N61" s="5"/>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="5"/>
+      <c r="P61" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>60</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>621</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>622</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>623</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6147,7 +6227,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6173,7 +6253,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6199,7 +6279,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6225,7 +6305,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6252,10 +6332,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+  <autoFilter ref="A1:U66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-002"/>
+        <filter val="20000-002"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Active"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D75A2-6602-9F48-A18A-2FBBE8917735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D53F2C1-B513-474A-B268-816F5C774800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3136,7 +3136,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(P3,9)</f>
         <v>20000-002</v>
@@ -3187,7 +3187,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3238,7 +3238,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3294,7 +3294,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3345,7 +3345,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3397,7 +3397,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3449,7 +3449,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3496,7 +3496,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3547,7 +3547,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3598,7 +3598,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3652,7 +3652,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3708,7 +3708,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3760,7 +3760,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3812,7 +3812,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3869,7 +3869,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(P17,9)</f>
         <v>44000-001</v>
@@ -3921,7 +3921,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3973,7 +3973,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4027,7 +4027,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4079,7 +4079,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4130,7 +4130,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4182,7 +4182,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4237,7 +4237,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4289,7 +4289,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4344,7 +4344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4396,7 +4396,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4453,7 +4453,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4505,7 +4505,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4557,7 +4557,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4608,7 +4608,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4660,7 +4660,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4712,7 +4712,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4757,7 +4757,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4808,7 +4808,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4861,7 +4861,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4913,7 +4913,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4965,7 +4965,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5019,7 +5019,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5064,7 +5064,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5121,7 +5121,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5175,7 +5175,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5229,7 +5229,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5283,7 +5283,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5335,7 +5335,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6201,7 +6201,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6335,7 +6335,7 @@
   <autoFilter ref="A1:U66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D53F2C1-B513-474A-B268-816F5C774800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF1993-FA86-1B46-B3EA-FA3EF1C8E154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2992,7 +2992,7 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3187,7 +3187,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3598,7 +3598,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3760,7 +3760,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3869,7 +3869,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(P17,9)</f>
         <v>44000-001</v>
@@ -3921,7 +3921,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3973,7 +3973,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4027,7 +4027,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4079,7 +4079,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4130,7 +4130,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4182,7 +4182,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4237,7 +4237,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4289,7 +4289,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4344,7 +4344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4396,7 +4396,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4453,7 +4453,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4505,7 +4505,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4557,7 +4557,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4608,7 +4608,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4660,7 +4660,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4712,7 +4712,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4757,7 +4757,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4808,7 +4808,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="5"/>
@@ -4861,7 +4861,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4913,7 +4913,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4965,7 +4965,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5019,7 +5019,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5064,7 +5064,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5121,7 +5121,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5175,7 +5175,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5229,7 +5229,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5283,7 +5283,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5335,7 +5335,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6201,7 +6201,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6335,12 +6335,17 @@
   <autoFilter ref="A1:U66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF1993-FA86-1B46-B3EA-FA3EF1C8E154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363B6E1-F5D1-2448-860E-D87DE34DE045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29520" yWindow="-15760" windowWidth="28840" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3187,7 +3187,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3598,7 +3598,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3760,7 +3760,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -5638,7 +5638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5789,7 +5789,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5839,7 +5839,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5889,7 +5889,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5942,7 +5942,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6279,7 +6279,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6335,7 +6335,7 @@
   <autoFilter ref="A1:U66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="49200-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -6343,9 +6343,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="11">
       <filters>
-        <filter val="6"/>
+        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363B6E1-F5D1-2448-860E-D87DE34DE045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A1920-E1F0-2948-896B-EB5940A34042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29520" yWindow="-15760" windowWidth="28840" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9800" yWindow="-13460" windowWidth="25580" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -2992,7 +2992,7 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4107,6 +4107,9 @@
       <c r="I21" s="3" t="s">
         <v>649</v>
       </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -4211,9 +4214,6 @@
       <c r="I23" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -4318,9 +4318,6 @@
       <c r="I25" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
@@ -4344,7 +4341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4372,6 +4369,9 @@
       </c>
       <c r="I26" s="3" t="s">
         <v>632</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -4396,7 +4396,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4424,9 +4424,6 @@
       </c>
       <c r="I27" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10">
@@ -4505,7 +4502,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4660,7 +4657,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4836,6 +4833,9 @@
       <c r="I35" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="J35" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10">
         <v>2</v>
@@ -4941,6 +4941,9 @@
       </c>
       <c r="I37" s="3" t="s">
         <v>646</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -5093,9 +5096,6 @@
       <c r="I40" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>633</v>
-      </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10">
         <v>1</v>
@@ -5148,9 +5148,6 @@
       </c>
       <c r="I41" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -5312,6 +5309,9 @@
       <c r="I44" s="3" t="s">
         <v>643</v>
       </c>
+      <c r="J44" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
@@ -5638,7 +5638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5789,7 +5789,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5839,7 +5839,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5889,7 +5889,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5942,7 +5942,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6201,7 +6201,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6335,7 +6335,7 @@
   <autoFilter ref="A1:U66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -6343,9 +6343,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="5">
       <filters>
-        <filter val="QuizMaster"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A1920-E1F0-2948-896B-EB5940A34042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE02EF-CA86-C940-9C90-9ECB03105361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="-13460" windowWidth="25580" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
     <sheet name="23-fall" sheetId="4" r:id="rId2"/>
+    <sheet name="Products" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23-fall'!$A$1:$AH$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$U$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$V$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-fall'!$A$1:$L$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="672">
   <si>
     <t>Last Name</t>
   </si>
@@ -2028,13 +2029,40 @@
   </si>
   <si>
     <t>Mike</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>QuizMasterKahoot!</t>
+  </si>
+  <si>
+    <t>SyllliMa</t>
+  </si>
+  <si>
+    <t>SyllliMaClient</t>
+  </si>
+  <si>
+    <t>Moc/ECaMS/SMC</t>
+  </si>
+  <si>
+    <t>SMC/Moc/ECaMS</t>
+  </si>
+  <si>
+    <t>Preliminarily</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2197,8 +2225,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2426,6 +2462,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2587,7 +2641,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2628,6 +2682,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2989,10 +3059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3008,20 +3078,21 @@
     <col min="9" max="9" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3059,49 +3130,52 @@
         <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
-        <f>RIGHT(P2,9)</f>
+        <f>RIGHT(Q2,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B2" s="4">
-        <f>Q2</f>
+        <f>R2</f>
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>CONCATENATE(E2," ",R2)</f>
+        <f>CONCATENATE(E2," ",S2)</f>
         <v>Gene Anderson</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>S2</f>
+        <f>T2</f>
         <v>Gene</v>
       </c>
       <c r="F2" s="3">
@@ -3116,40 +3190,41 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A16" si="0">RIGHT(P3,9)</f>
+        <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B16" si="1">Q3</f>
+        <f t="shared" ref="B3:B16" si="1">R3</f>
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D16" si="2">CONCATENATE(E3," ",R3)</f>
+        <f t="shared" ref="D3:D16" si="2">CONCATENATE(E3," ",S3)</f>
         <v>Zander Bird</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3166,28 +3241,31 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="3" t="s">
+      <c r="N3" s="10">
+        <v>6</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>2</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3217,28 +3295,31 @@
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="3" t="s">
+      <c r="N4" s="10">
+        <v>5</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>3</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3270,31 +3351,32 @@
         <v>14</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="10">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
         <v>1</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>4</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3324,28 +3406,31 @@
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="3" t="s">
+      <c r="N6" s="10">
+        <v>4</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>5</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3362,7 +3447,7 @@
         <v>Julian Hernandez</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" ref="E7:E16" si="3">S7</f>
+        <f t="shared" ref="E7:E16" si="3">T7</f>
         <v>Julian</v>
       </c>
       <c r="F7" s="3">
@@ -3376,28 +3461,31 @@
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="3" t="s">
+      <c r="N7" s="10">
+        <v>3</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>6</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3428,28 +3516,31 @@
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="3" t="s">
+      <c r="N8" s="10">
+        <v>2</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3475,28 +3566,31 @@
       <c r="I9" s="7"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="3" t="s">
+      <c r="N9" s="10">
+        <v>6</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3526,28 +3620,31 @@
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="3" t="s">
+      <c r="N10" s="10">
+        <v>5</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3577,28 +3674,31 @@
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="3" t="s">
+      <c r="N11" s="10">
+        <v>4</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>10</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3631,28 +3731,31 @@
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="3" t="s">
+      <c r="N12" s="10">
+        <v>3</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3684,31 +3787,32 @@
         <v>14</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="10">
+      <c r="M13" s="10"/>
+      <c r="N13" s="10">
         <v>1</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="3" t="s">
+      <c r="O13" s="10"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>12</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3739,28 +3843,31 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="3" t="s">
+      <c r="N14" s="10">
+        <v>2</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3791,28 +3898,31 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="3" t="s">
+      <c r="N15" s="10">
+        <v>2</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3845,48 +3955,49 @@
         <v>14</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="10">
+      <c r="M16" s="10"/>
+      <c r="N16" s="10">
         <v>1</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="10"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>15</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
-        <f t="shared" ref="A17:A45" si="4">RIGHT(P17,9)</f>
+        <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ref="B17:B45" si="5">Q17</f>
+        <f t="shared" ref="B17:B45" si="5">R17</f>
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" ref="D17:D45" si="6">CONCATENATE(E17," ",R17)</f>
+        <f t="shared" ref="D17:D45" si="6">CONCATENATE(E17," ",S17)</f>
         <v>Olivia Adamic</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" ref="E17:E45" si="7">S17</f>
+        <f t="shared" ref="E17:E45" si="7">T17</f>
         <v>Olivia</v>
       </c>
       <c r="F17" s="3">
@@ -3898,30 +4009,38 @@
       <c r="I17" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="3" t="s">
+      <c r="L17" s="10" t="str">
+        <f>Products!$A$6</f>
+        <v>SyllliMa</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="N17" s="10">
+        <v>4</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -3950,30 +4069,38 @@
       <c r="I18" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="3" t="s">
+      <c r="L18" s="10" t="str">
+        <f>Products!$A$5</f>
+        <v>QuizMasterKahoot!</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N18" s="10">
+        <v>3</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4004,30 +4131,38 @@
       <c r="J19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="3" t="s">
+      <c r="L19" s="10" t="str">
+        <f>Products!$A$7</f>
+        <v>SyllliMaClient</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N19" s="10">
+        <v>2</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="3">
         <v>18</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4056,30 +4191,36 @@
       <c r="I20" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="10" t="str">
+        <f>Products!$A$6</f>
+        <v>SyllliMa</v>
+      </c>
       <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="3" t="s">
+      <c r="N20" s="10">
+        <v>4</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4110,30 +4251,38 @@
       <c r="J21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="3" t="s">
+      <c r="L21" s="10" t="str">
+        <f>Products!$A$3</f>
+        <v>ECaMS Billboard</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="N21" s="10">
+        <v>3</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4162,30 +4311,36 @@
       <c r="I22" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="10" t="str">
+        <f>Products!$A$6</f>
+        <v>SyllliMa</v>
+      </c>
       <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="3" t="s">
+      <c r="N22" s="10">
+        <v>2</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4214,30 +4369,38 @@
       <c r="I23" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="3" t="s">
+      <c r="L23" s="10" t="str">
+        <f>Products!$A$6</f>
+        <v>SyllliMa</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="N23" s="10">
+        <v>4</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4266,30 +4429,36 @@
       <c r="I24" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="10" t="str">
+        <f>Products!$A$3</f>
+        <v>ECaMS Billboard</v>
+      </c>
       <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="3" t="s">
+      <c r="N24" s="10">
+        <v>3</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4318,30 +4487,37 @@
       <c r="I25" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="3" t="s">
+      <c r="L25" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="N25" s="10">
+        <v>2</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <v>24</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4373,30 +4549,38 @@
       <c r="J26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="3" t="s">
+      <c r="L26" s="10" t="str">
+        <f>Products!$A$4</f>
+        <v>QuizMaster</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N26" s="10">
+        <v>4</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4425,32 +4609,38 @@
       <c r="I27" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10">
+      <c r="L27" s="10" t="str">
+        <f>Products!$A$4</f>
+        <v>QuizMaster</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N27" s="10">
         <v>1</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="3" t="s">
+      <c r="O27" s="10"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4479,30 +4669,38 @@
       <c r="I28" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="3" t="s">
+      <c r="L28" s="10" t="str">
+        <f>Products!$A$3</f>
+        <v>ECaMS Billboard</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="N28" s="10">
+        <v>3</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="3">
         <v>27</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4531,30 +4729,38 @@
       <c r="I29" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="3" t="s">
+      <c r="L29" s="10" t="str">
+        <f>Products!$A$4</f>
+        <v>QuizMaster</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N29" s="10">
+        <v>2</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>28</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4582,30 +4788,36 @@
       <c r="I30" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="10" t="str">
+        <f>Products!$A$5</f>
+        <v>QuizMasterKahoot!</v>
+      </c>
       <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="3" t="s">
+      <c r="N30" s="10">
+        <v>4</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R30" s="3">
         <v>29</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4634,30 +4846,38 @@
       <c r="I31" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="3" t="s">
+      <c r="L31" s="10" t="str">
+        <f>Products!$A$5</f>
+        <v>QuizMasterKahoot!</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N31" s="10">
+        <v>3</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="R31" s="3">
         <v>30</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4686,30 +4906,38 @@
       <c r="I32" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="3" t="s">
+      <c r="L32" s="10" t="str">
+        <f>Products!$A$4</f>
+        <v>QuizMaster</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N32" s="10">
+        <v>2</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>31</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4719,7 +4947,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4729,32 +4957,36 @@
         <f t="shared" si="7"/>
         <v>Ithalo</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="3" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4782,30 +5014,38 @@
       <c r="I34" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="3" t="s">
+      <c r="L34" s="10" t="str">
+        <f>Products!$A$7</f>
+        <v>SyllliMaClient</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="N34" s="10">
+        <v>4</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
         <v>33</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4836,32 +5076,37 @@
       <c r="J35" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10">
+      <c r="L35" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N35" s="10">
         <v>2</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="3" t="s">
+      <c r="O35" s="10"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4890,30 +5135,37 @@
       <c r="I36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="3" t="s">
+      <c r="L36" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N36" s="10">
+        <v>2</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="R36" s="3">
         <v>35</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4945,30 +5197,38 @@
       <c r="J37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="3" t="s">
+      <c r="L37" s="10" t="str">
+        <f>Products!$A$6</f>
+        <v>SyllliMa</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="N37" s="10">
+        <v>3</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="R37" s="3">
         <v>36</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4997,32 +5257,38 @@
       <c r="I38" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10">
+      <c r="L38" s="10" t="str">
+        <f>Products!$A$7</f>
+        <v>SyllliMaClient</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N38" s="10">
         <v>1</v>
       </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="3" t="s">
+      <c r="O38" s="10"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="R38" s="3">
         <v>37</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="U38" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="V38" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5032,7 +5298,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="6"/>
@@ -5042,32 +5308,36 @@
         <f t="shared" si="7"/>
         <v>Moattar</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="3" t="s">
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="R39" s="3">
         <v>38</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5096,32 +5366,36 @@
       <c r="I40" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10">
+      <c r="L40" s="10" t="str">
+        <f>Products!$A$5</f>
+        <v>QuizMasterKahoot!</v>
+      </c>
+      <c r="M40" s="27"/>
+      <c r="N40" s="10">
         <v>1</v>
       </c>
-      <c r="N40" s="10"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="3" t="s">
+      <c r="O40" s="10"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="R40" s="3">
         <v>39</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5149,30 +5423,35 @@
       <c r="I41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="3" t="s">
+      <c r="L41" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="M41" s="27"/>
+      <c r="N41" s="10">
+        <v>2</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>40</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5201,32 +5480,36 @@
       <c r="I42" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10">
+      <c r="L42" s="10" t="str">
+        <f>Products!$A$3</f>
+        <v>ECaMS Billboard</v>
+      </c>
+      <c r="M42" s="27"/>
+      <c r="N42" s="10">
         <v>1</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="3" t="s">
+      <c r="O42" s="10"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>41</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5255,32 +5538,38 @@
       <c r="I43" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10">
+      <c r="L43" s="10" t="str">
+        <f>Products!$A$6</f>
+        <v>SyllliMa</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="N43" s="10">
         <v>1</v>
       </c>
-      <c r="N43" s="10"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="3" t="s">
+      <c r="O43" s="10"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>42</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5312,30 +5601,38 @@
       <c r="J44" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="3" t="s">
+      <c r="L44" s="10" t="str">
+        <f>Products!$A$5</f>
+        <v>QuizMasterKahoot!</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="N44" s="10">
+        <v>2</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5364,47 +5661,52 @@
       <c r="I45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="3" t="s">
+      <c r="L45" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="M45" s="27"/>
+      <c r="N45" s="10">
+        <v>2</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
-        <f t="shared" ref="A46:A49" si="8">RIGHT(P46,9)</f>
+        <f t="shared" ref="A46:A49" si="8">RIGHT(Q46,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" ref="B46:B49" si="9">Q46</f>
+        <f t="shared" ref="B46:B49" si="9">R46</f>
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" ref="D46:D49" si="10">CONCATENATE(E46," ",R46)</f>
+        <f t="shared" ref="D46:D49" si="10">CONCATENATE(E46," ",S46)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f t="shared" ref="E46:E49" si="11">S46</f>
+        <f t="shared" ref="E46:E49" si="11">T46</f>
         <v>Julie</v>
       </c>
       <c r="F46" s="12"/>
@@ -5419,27 +5721,28 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="3" t="s">
+      <c r="O46" s="10"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5468,27 +5771,28 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="3" t="s">
+      <c r="O47" s="10"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>46</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5517,27 +5821,28 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="3" t="s">
+      <c r="O48" s="10"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5566,44 +5871,45 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="3" t="s">
+      <c r="O49" s="10"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>48</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
-        <f t="shared" ref="A50:A61" si="12">RIGHT(P50,9)</f>
+        <f t="shared" ref="A50:A61" si="12">RIGHT(Q50,9)</f>
         <v>49200-002</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" ref="B50:B61" si="13">Q50</f>
+        <f t="shared" ref="B50:B61" si="13">R50</f>
         <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" ref="D50:D61" si="14">CONCATENATE(E50," ",R50)</f>
+        <f t="shared" ref="D50:D61" si="14">CONCATENATE(E50," ",S50)</f>
         <v>David Abrutis</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f t="shared" ref="E50:E61" si="15">S50</f>
+        <f t="shared" ref="E50:E61" si="15">T50</f>
         <v>David</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -5615,30 +5921,30 @@
       <c r="L50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="5"/>
+      <c r="Q50" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q50" s="3">
-        <v>49</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="R50" s="3">
+        <v>49</v>
+      </c>
+      <c r="S50" t="s">
         <v>97</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>98</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>99</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5664,30 +5970,31 @@
         <v>74</v>
       </c>
       <c r="M51" s="22"/>
-      <c r="N51" s="22" t="s">
+      <c r="N51" s="22"/>
+      <c r="O51" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="3" t="s">
+      <c r="P51" s="5"/>
+      <c r="Q51" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="R51" s="3">
         <v>50</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>101</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>102</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>103</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5716,30 +6023,30 @@
       <c r="L52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="O52" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="5"/>
+      <c r="Q52" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>51</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>120</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>121</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>122</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5766,30 +6073,31 @@
         <v>83</v>
       </c>
       <c r="M53" s="10"/>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="10"/>
+      <c r="O53" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="5"/>
+      <c r="Q53" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="R53" s="3">
         <v>52</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>152</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>153</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>154</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5816,30 +6124,31 @@
         <v>74</v>
       </c>
       <c r="M54" s="10"/>
-      <c r="N54" s="22" t="s">
+      <c r="N54" s="10"/>
+      <c r="O54" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="3" t="s">
+      <c r="P54" s="5"/>
+      <c r="Q54" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>609</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>610</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>611</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5866,30 +6175,31 @@
         <v>74</v>
       </c>
       <c r="M55" s="10"/>
-      <c r="N55" s="22" t="s">
+      <c r="N55" s="10"/>
+      <c r="O55" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="3" t="s">
+      <c r="P55" s="5"/>
+      <c r="Q55" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="R55" s="3">
         <v>54</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>304</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>37</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>613</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5919,30 +6229,31 @@
         <v>74</v>
       </c>
       <c r="M56" s="10"/>
-      <c r="N56" s="22" t="s">
+      <c r="N56" s="10"/>
+      <c r="O56" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="3" t="s">
+      <c r="P56" s="5"/>
+      <c r="Q56" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="R56" s="3">
         <v>55</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>134</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>37</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>135</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5972,30 +6283,31 @@
         <v>74</v>
       </c>
       <c r="M57" s="10"/>
-      <c r="N57" s="22" t="s">
+      <c r="N57" s="10"/>
+      <c r="O57" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="3" t="s">
+      <c r="P57" s="5"/>
+      <c r="Q57" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>56</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>137</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>50</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>138</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6022,30 +6334,31 @@
         <v>83</v>
       </c>
       <c r="M58" s="23"/>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="23"/>
+      <c r="O58" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="5"/>
+      <c r="Q58" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>57</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>10</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>11</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>12</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6072,30 +6385,31 @@
         <v>83</v>
       </c>
       <c r="M59" s="23"/>
-      <c r="N59" s="3" t="s">
+      <c r="N59" s="23"/>
+      <c r="O59" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="5"/>
+      <c r="Q59" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>58</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>615</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>33</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>616</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6125,30 +6439,31 @@
         <v>627</v>
       </c>
       <c r="M60" s="10"/>
-      <c r="N60" s="10" t="s">
+      <c r="N60" s="10"/>
+      <c r="O60" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="3" t="s">
+      <c r="P60" s="5"/>
+      <c r="Q60" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>59</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>618</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>478</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>619</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6178,30 +6493,31 @@
         <v>627</v>
       </c>
       <c r="M61" s="10"/>
-      <c r="N61" s="10" t="s">
+      <c r="N61" s="10"/>
+      <c r="O61" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="5"/>
+      <c r="Q61" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>60</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>621</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>622</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>623</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6226,8 +6542,16 @@
       <c r="I62" s="3" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="10" t="str">
+        <f>Products!$A$4</f>
+        <v>QuizMaster</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6252,8 +6576,17 @@
       <c r="I63" s="3" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="10" t="str">
+        <f>Products!$A$7</f>
+        <v>SyllliMaClient</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10">
+        <v>4</v>
+      </c>
+      <c r="P63" s="5"/>
+    </row>
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6278,8 +6611,11 @@
       <c r="I64" s="3" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N64" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6304,8 +6640,11 @@
       <c r="I65" s="3" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N65" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6330,9 +6669,17 @@
       <c r="I66" s="3" t="s">
         <v>661</v>
       </c>
+      <c r="N66" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+  <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
         <filter val="44000-001"/>
@@ -6341,11 +6688,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13075,4 +13417,57 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64390CA1-ED8E-1446-896A-E63F90B9BA12}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE02EF-CA86-C940-9C90-9ECB03105361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4F972-9879-074B-8C9F-76A604168802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23-fall'!$A$1:$AH$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$V$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-fall'!$A$1:$L$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'24-spring'!$A$1:$N$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -2641,7 +2642,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2685,9 +2686,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3058,11 +3056,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+      <selection sqref="A1:M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5370,7 +5370,7 @@
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
-      <c r="M40" s="27"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="10">
         <v>1</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="L41" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="M41" s="27"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="10">
         <v>2</v>
       </c>
@@ -5484,7 +5484,7 @@
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
-      <c r="M42" s="27"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="10">
         <v>1</v>
       </c>
@@ -5664,7 +5664,7 @@
       <c r="L45" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="M45" s="27"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="10">
         <v>2</v>
       </c>
@@ -6691,8 +6691,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13443,31 +13443,32 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4F972-9879-074B-8C9F-76A604168802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92743DD3-40AB-B146-83CF-BB40002EDDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="672">
   <si>
     <t>Last Name</t>
   </si>
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:M63"/>
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3296,7 +3296,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="5"/>
@@ -3844,7 +3844,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="5"/>
@@ -3899,7 +3899,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="5"/>
@@ -3980,7 +3980,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4040,7 +4040,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4100,7 +4100,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4162,7 +4162,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4178,9 +4178,8 @@
         <f t="shared" si="6"/>
         <v>Joshua Brown</v>
       </c>
-      <c r="E20" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Joshua</v>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -4195,9 +4194,11 @@
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="10" t="s">
+        <v>669</v>
+      </c>
       <c r="N20" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="5"/>
@@ -4220,7 +4221,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4259,7 +4260,7 @@
         <v>669</v>
       </c>
       <c r="N21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="5"/>
@@ -4282,7 +4283,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4317,7 +4318,7 @@
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="5"/>
@@ -4340,7 +4341,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4377,7 +4378,7 @@
         <v>669</v>
       </c>
       <c r="N23" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="5"/>
@@ -4400,7 +4401,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4458,7 +4459,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4494,7 +4495,7 @@
         <v>671</v>
       </c>
       <c r="N25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="5"/>
@@ -4517,7 +4518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4580,7 +4581,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4640,7 +4641,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4700,7 +4701,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4760,7 +4761,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4817,7 +4818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4877,7 +4878,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4986,7 +4987,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5045,7 +5046,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5083,7 +5084,7 @@
         <v>669</v>
       </c>
       <c r="N35" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="5"/>
@@ -5106,7 +5107,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5142,7 +5143,7 @@
         <v>669</v>
       </c>
       <c r="N36" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="5"/>
@@ -5165,7 +5166,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5228,7 +5229,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5337,7 +5338,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5395,7 +5396,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5451,7 +5452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5509,7 +5510,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5569,7 +5570,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5632,7 +5633,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5666,7 +5667,7 @@
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="10"/>
       <c r="P45" s="5"/>
@@ -5892,7 +5893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="12">RIGHT(Q50,9)</f>
         <v>49200-002</v>
@@ -5994,7 +5995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6046,7 +6047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6307,7 +6308,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6358,7 +6359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6517,7 +6518,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>661</v>
       </c>
       <c r="N64" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -6641,7 +6642,7 @@
         <v>657</v>
       </c>
       <c r="N65" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -6682,12 +6683,17 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="49200-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="AllPassers"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92743DD3-40AB-B146-83CF-BB40002EDDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95872527-CFA0-044F-AB5B-991E437BC1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95872527-CFA0-044F-AB5B-991E437BC1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069032C3-BAA7-FF4A-B1E0-58986E57773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="A18" sqref="A18:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4040,7 +4040,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4761,7 +4761,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4818,7 +4818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5338,7 +5338,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5570,7 +5570,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5893,7 +5893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="12">RIGHT(Q50,9)</f>
         <v>49200-002</v>
@@ -5995,7 +5995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6308,7 +6308,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6359,7 +6359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6683,7 +6683,7 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -6691,9 +6691,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="8">
+    <filterColumn colId="5">
       <filters>
-        <filter val="AllPassers"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069032C3-BAA7-FF4A-B1E0-58986E57773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722B0073-34B9-8840-BC9A-1D93E780A567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:M44"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3211,7 +3211,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3265,7 +3265,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3296,7 +3296,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="5"/>
@@ -3319,7 +3319,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3376,7 +3376,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3430,7 +3430,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3485,7 +3485,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3540,7 +3540,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3590,7 +3590,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3644,7 +3644,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3698,7 +3698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3755,7 +3755,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3812,7 +3812,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3867,7 +3867,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3922,7 +3922,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4040,7 +4040,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4761,7 +4761,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4818,7 +4818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5338,7 +5338,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5570,7 +5570,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6683,17 +6683,12 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722B0073-34B9-8840-BC9A-1D93E780A567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E7CB3-BFDE-3D40-BF9D-3E59927B1C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3211,7 +3211,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3265,7 +3265,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3319,7 +3319,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3376,7 +3376,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3430,7 +3430,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3485,7 +3485,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3540,7 +3540,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3590,7 +3590,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3644,7 +3644,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3698,7 +3698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3755,7 +3755,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3812,7 +3812,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3867,7 +3867,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3922,7 +3922,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -5893,7 +5893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="12">RIGHT(Q50,9)</f>
         <v>49200-002</v>
@@ -5995,7 +5995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6308,7 +6308,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6359,7 +6359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6683,12 +6683,17 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="49200-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="ECaMS Billboard"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E7CB3-BFDE-3D40-BF9D-3E59927B1C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA6CA0-18ED-BE42-9C98-CB39BFEB7382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3211,7 +3211,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3265,7 +3265,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3319,7 +3319,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3376,7 +3376,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3430,7 +3430,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3485,7 +3485,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3540,7 +3540,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3590,7 +3590,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3644,7 +3644,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3698,7 +3698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3755,7 +3755,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3812,7 +3812,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3867,7 +3867,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3922,7 +3922,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3980,7 +3980,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4040,7 +4040,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4100,7 +4100,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4162,7 +4162,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4221,7 +4221,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4283,7 +4283,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4341,7 +4341,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4401,7 +4401,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4459,7 +4459,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4518,7 +4518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4581,7 +4581,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4641,7 +4641,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4701,7 +4701,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4761,7 +4761,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4818,7 +4818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4878,7 +4878,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4987,7 +4987,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5046,7 +5046,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5107,7 +5107,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5166,7 +5166,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5229,7 +5229,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5338,7 +5338,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5396,7 +5396,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5452,7 +5452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5510,7 +5510,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5570,7 +5570,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5633,7 +5633,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5690,7 +5690,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" ref="A46:A49" si="8">RIGHT(Q46,9)</f>
         <v>44500-001</v>
@@ -5743,7 +5743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5793,7 +5793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5843,7 +5843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5945,7 +5945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6098,7 +6098,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6149,7 +6149,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6200,7 +6200,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6254,7 +6254,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6410,7 +6410,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6464,7 +6464,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6518,7 +6518,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6681,19 +6681,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="49200-002"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="ECaMS Billboard"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA6CA0-18ED-BE42-9C98-CB39BFEB7382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82B9F0-C1C2-8B4C-8B12-EA1AFC0EA762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3211,7 +3211,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3265,7 +3265,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3319,7 +3319,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3376,7 +3376,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3430,7 +3430,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3485,7 +3485,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3540,7 +3540,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3590,7 +3590,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3644,7 +3644,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3698,7 +3698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3755,7 +3755,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3812,7 +3812,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3867,7 +3867,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3922,7 +3922,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3980,7 +3980,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4040,7 +4040,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4100,7 +4100,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4162,7 +4162,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4283,7 +4283,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4341,7 +4341,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4518,7 +4518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4581,7 +4581,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4701,7 +4701,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4761,7 +4761,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4818,7 +4818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4878,7 +4878,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4987,7 +4987,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5046,7 +5046,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5107,7 +5107,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5166,7 +5166,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5229,7 +5229,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5338,7 +5338,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5396,7 +5396,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5510,7 +5510,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5570,7 +5570,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5633,7 +5633,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5690,7 +5690,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" ref="A46:A49" si="8">RIGHT(Q46,9)</f>
         <v>44500-001</v>
@@ -5743,7 +5743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5793,7 +5793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5843,7 +5843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>44500-001</v>
@@ -5893,7 +5893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="12">RIGHT(Q50,9)</f>
         <v>49200-002</v>
@@ -5945,7 +5945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -5995,7 +5995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6098,7 +6098,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6149,7 +6149,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6200,7 +6200,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6254,7 +6254,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6308,7 +6308,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6359,7 +6359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6410,7 +6410,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6464,7 +6464,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6518,7 +6518,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6681,9 +6681,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="44000-001"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82B9F0-C1C2-8B4C-8B12-EA1AFC0EA762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8695744F-75B3-7648-B7D5-F8FCB902F3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -4221,7 +4221,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4401,7 +4401,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4459,7 +4459,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4641,7 +4641,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5452,7 +5452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5945,7 +5945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6098,7 +6098,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6149,7 +6149,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6200,7 +6200,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6254,7 +6254,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>49200-002</v>
@@ -6683,7 +6683,7 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="49200-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -6691,9 +6691,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="11">
       <filters>
-        <filter val="6"/>
+        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8695744F-75B3-7648-B7D5-F8FCB902F3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A62C9C1-257C-7F49-87C9-F6E632B5F7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -25,6 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3062,7 +3063,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3296,7 +3297,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="5"/>
@@ -3980,7 +3981,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4040,7 +4041,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4100,7 +4101,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4162,7 +4163,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4221,7 +4222,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4283,7 +4284,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4341,7 +4342,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4401,7 +4402,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4459,7 +4460,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4518,7 +4519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4581,7 +4582,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4641,7 +4642,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4701,7 +4702,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4761,7 +4762,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4818,7 +4819,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4878,7 +4879,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4987,7 +4988,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5046,7 +5047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5107,7 +5108,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5166,7 +5167,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5229,7 +5230,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5338,7 +5339,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5396,7 +5397,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5452,7 +5453,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5510,7 +5511,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5570,7 +5571,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5633,7 +5634,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5692,22 +5693,22 @@
     </row>
     <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
-        <f t="shared" ref="A46:A49" si="8">RIGHT(Q46,9)</f>
+        <f>RIGHT(Q46,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" ref="B46:B49" si="9">R46</f>
+        <f>R46</f>
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" ref="D46:D49" si="10">CONCATENATE(E46," ",S46)</f>
+        <f>CONCATENATE(E46," ",S46)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f t="shared" ref="E46:E49" si="11">T46</f>
+        <f>T46</f>
         <v>Julie</v>
       </c>
       <c r="F46" s="12"/>
@@ -5745,22 +5746,22 @@
     </row>
     <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>RIGHT(Q47,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="9"/>
+        <f>R47</f>
         <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(E47," ",S47)</f>
         <v>Collin Koldoff</v>
       </c>
       <c r="E47" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f>T47</f>
         <v>Collin</v>
       </c>
       <c r="F47" s="12"/>
@@ -5795,22 +5796,22 @@
     </row>
     <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>RIGHT(Q48,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="9"/>
+        <f>R48</f>
         <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(E48," ",S48)</f>
         <v>Luke Mendiola</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f>T48</f>
         <v>Luke</v>
       </c>
       <c r="F48" s="12"/>
@@ -5845,22 +5846,22 @@
     </row>
     <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>RIGHT(Q49,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="9"/>
+        <f>R49</f>
         <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(E49," ",S49)</f>
         <v>Justina Piwoni</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f>T49</f>
         <v>Justina</v>
       </c>
       <c r="F49" s="12"/>
@@ -5895,22 +5896,22 @@
     </row>
     <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
-        <f t="shared" ref="A50:A61" si="12">RIGHT(Q50,9)</f>
+        <f t="shared" ref="A50:A61" si="8">RIGHT(Q50,9)</f>
         <v>49200-002</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" ref="B50:B61" si="13">R50</f>
+        <f t="shared" ref="B50:B61" si="9">R50</f>
         <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" ref="D50:D61" si="14">CONCATENATE(E50," ",S50)</f>
+        <f t="shared" ref="D50:D61" si="10">CONCATENATE(E50," ",S50)</f>
         <v>David Abrutis</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f t="shared" ref="E50:E61" si="15">T50</f>
+        <f t="shared" ref="E50:E61" si="11">T50</f>
         <v>David</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -5945,20 +5946,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Z Albaz</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -5997,22 +5998,22 @@
     </row>
     <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Pablo Enriquez</v>
       </c>
       <c r="E52" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Pablo</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -6049,22 +6050,22 @@
     </row>
     <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Shane Frantz</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Shane</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -6098,24 +6099,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Evan Hartke</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Evan</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -6149,24 +6150,24 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Alex Hernandez</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Alex</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -6200,24 +6201,24 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Alex Kaminski</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Alex</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -6254,24 +6255,24 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>James Mackowiak</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>James</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -6310,22 +6311,22 @@
     </row>
     <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Luke Mendiola</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Luke</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -6361,22 +6362,22 @@
     </row>
     <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Jacob Prince</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Jacob</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -6412,22 +6413,22 @@
     </row>
     <row r="60" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Julian Rocha</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Julian</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -6466,22 +6467,22 @@
     </row>
     <row r="61" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>49200-002</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>Amna Tasneem</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Amna</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -6518,7 +6519,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6683,17 +6684,12 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13243,22 +13239,22 @@
     </row>
     <row r="91" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
-        <f t="shared" ref="A91" si="19">RIGHT(T91,9)</f>
+        <f>RIGHT(T91,9)</f>
         <v>49200-001</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" ref="D91" si="20">U91</f>
+        <f>U91</f>
         <v>0</v>
       </c>
       <c r="E91" s="3" t="str">
-        <f t="shared" ref="E91" si="21">CONCATENATE(F91," ",V91)</f>
+        <f>CONCATENATE(F91," ",V91)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f t="shared" ref="F91" si="22">W91</f>
+        <f>W91</f>
         <v>Julie</v>
       </c>
       <c r="J91" s="3" t="str">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A62C9C1-257C-7F49-87C9-F6E632B5F7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6443A23-3D45-F249-B4BA-6482949F86C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28460" yWindow="34080" windowWidth="21860" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3063,7 +3062,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3266,7 +3265,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3297,7 +3296,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="5"/>
@@ -3699,7 +3698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3868,7 +3867,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3900,7 +3899,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="5"/>
@@ -3981,7 +3980,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4041,7 +4040,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4101,7 +4100,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4163,7 +4162,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4222,7 +4221,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4284,7 +4283,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4342,7 +4341,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4402,7 +4401,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4460,7 +4459,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4519,7 +4518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4582,7 +4581,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4642,7 +4641,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4702,7 +4701,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4762,7 +4761,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4819,7 +4818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4879,7 +4878,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4988,7 +4987,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5047,7 +5046,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5108,7 +5107,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5167,7 +5166,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5230,7 +5229,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5339,7 +5338,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5397,7 +5396,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5453,7 +5452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5511,7 +5510,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5571,7 +5570,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5634,7 +5633,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6519,7 +6518,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6617,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6684,12 +6683,17 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6443A23-3D45-F249-B4BA-6482949F86C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE8D8A0-F5CB-0449-A9DE-B1688B06A3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28460" yWindow="34080" windowWidth="21860" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-49440" yWindow="-5120" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="673">
   <si>
     <t>Last Name</t>
   </si>
@@ -2044,19 +2044,22 @@
     <t>SyllliMaClient</t>
   </si>
   <si>
-    <t>Moc/ECaMS/SMC</t>
-  </si>
-  <si>
-    <t>SMC/Moc/ECaMS</t>
-  </si>
-  <si>
-    <t>Preliminarily</t>
-  </si>
-  <si>
-    <t>Maybe</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>DraftBash</t>
+  </si>
+  <si>
+    <t>Bashers</t>
+  </si>
+  <si>
+    <t>Maybe Section 2</t>
   </si>
 </sst>
 </file>
@@ -3059,10 +3062,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3079,7 +3082,7 @@
     <col min="10" max="10" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="3" customWidth="1"/>
@@ -3265,7 +3268,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3698,7 +3701,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3867,7 +3870,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3980,7 +3983,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4074,7 +4077,7 @@
         <v>QuizMasterKahoot!</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N18" s="10">
         <v>3</v>
@@ -4100,7 +4103,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4131,11 +4134,10 @@
       <c r="J19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="10" t="str">
-        <f>Products!$A$7</f>
-        <v>SyllliMaClient</v>
-      </c>
-      <c r="M19" s="10" t="s">
+      <c r="L19" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="M19" s="22" t="s">
         <v>669</v>
       </c>
       <c r="N19" s="10">
@@ -4162,7 +4164,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4194,7 +4196,7 @@
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="22" t="s">
         <v>669</v>
       </c>
       <c r="N20" s="10">
@@ -4257,7 +4259,7 @@
         <v>ECaMS Billboard</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N21" s="10">
         <v>2</v>
@@ -4309,14 +4311,15 @@
       <c r="G22" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="L22" s="10" t="str">
-        <f>Products!$A$6</f>
-        <v>SyllliMa</v>
-      </c>
-      <c r="M22" s="10"/>
+      <c r="I22" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>668</v>
+      </c>
       <c r="N22" s="10">
         <v>3</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4486,13 +4489,13 @@
         <v>406</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>449</v>
+        <v>670</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="N25" s="10">
         <v>1</v>
@@ -4555,7 +4558,7 @@
         <v>QuizMaster</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N26" s="10">
         <v>4</v>
@@ -4615,7 +4618,7 @@
         <v>QuizMaster</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N27" s="10">
         <v>1</v>
@@ -4675,7 +4678,7 @@
         <v>ECaMS Billboard</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N28" s="10">
         <v>3</v>
@@ -4735,7 +4738,7 @@
         <v>QuizMaster</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N29" s="10">
         <v>2</v>
@@ -4793,7 +4796,9 @@
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
-      <c r="M30" s="10"/>
+      <c r="M30" s="10" t="s">
+        <v>667</v>
+      </c>
       <c r="N30" s="10">
         <v>4</v>
       </c>
@@ -4852,7 +4857,7 @@
         <v>QuizMasterKahoot!</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N31" s="10">
         <v>3</v>
@@ -4912,7 +4917,7 @@
         <v>QuizMaster</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N32" s="10">
         <v>2</v>
@@ -4987,7 +4992,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5015,12 +5020,11 @@
       <c r="I34" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="L34" s="10" t="str">
-        <f>Products!$A$7</f>
-        <v>SyllliMaClient</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>670</v>
+      <c r="L34" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>669</v>
       </c>
       <c r="N34" s="10">
         <v>4</v>
@@ -5046,7 +5050,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5071,16 +5075,16 @@
       <c r="G35" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>42</v>
+      <c r="I35" s="7" t="s">
+        <v>671</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>633</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="M35" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="M35" s="22" t="s">
         <v>669</v>
       </c>
       <c r="N35" s="10">
@@ -5133,14 +5137,14 @@
       <c r="G36" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>42</v>
+      <c r="I36" s="7" t="s">
+        <v>671</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="N36" s="10">
         <v>3</v>
@@ -5166,7 +5170,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5229,7 +5233,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5258,11 +5262,10 @@
       <c r="I38" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="L38" s="10" t="str">
-        <f>Products!$A$7</f>
-        <v>SyllliMaClient</v>
-      </c>
-      <c r="M38" s="10" t="s">
+      <c r="L38" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>669</v>
       </c>
       <c r="N38" s="10">
@@ -5371,7 +5374,9 @@
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
-      <c r="M40" s="10"/>
+      <c r="M40" s="10" t="s">
+        <v>667</v>
+      </c>
       <c r="N40" s="10">
         <v>1</v>
       </c>
@@ -5421,13 +5426,15 @@
       <c r="G41" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>42</v>
+      <c r="I41" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="L41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="M41" s="10"/>
       <c r="N41" s="10">
         <v>2</v>
       </c>
@@ -5510,7 +5517,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5607,7 +5614,7 @@
         <v>QuizMasterKahoot!</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N44" s="10">
         <v>2</v>
@@ -5633,7 +5640,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5659,13 +5666,15 @@
       <c r="G45" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>42</v>
+      <c r="I45" s="7" t="s">
+        <v>646</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="M45" s="10"/>
+        <v>665</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>669</v>
+      </c>
       <c r="N45" s="10">
         <v>3</v>
       </c>
@@ -6547,7 +6556,9 @@
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
-      <c r="M62" s="10"/>
+      <c r="M62" s="10" t="s">
+        <v>667</v>
+      </c>
       <c r="N62" s="10">
         <v>3</v>
       </c>
@@ -6577,9 +6588,8 @@
       <c r="I63" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="L63" s="10" t="str">
-        <f>Products!$A$7</f>
-        <v>SyllliMaClient</v>
+      <c r="L63" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10">
@@ -6616,7 +6626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6671,11 +6681,6 @@
         <v>661</v>
       </c>
       <c r="N66" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L75" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6683,7 +6688,7 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -6691,9 +6696,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="12">
       <filters>
-        <filter val="6"/>
+        <filter val="Section 2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE8D8A0-F5CB-0449-A9DE-B1688B06A3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A4C21-9B83-EE42-A425-15CF3E96F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49440" yWindow="-5120" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="679">
   <si>
     <t>Last Name</t>
   </si>
@@ -2060,6 +2060,24 @@
   </si>
   <si>
     <t>Maybe Section 2</t>
+  </si>
+  <si>
+    <t>SM6</t>
+  </si>
+  <si>
+    <t>PO6</t>
+  </si>
+  <si>
+    <t>Product Owner (PO6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Owner </t>
+  </si>
+  <si>
+    <t>Scum Master (SM6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> q</t>
   </si>
 </sst>
 </file>
@@ -3065,7 +3083,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3983,7 +4001,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4011,6 +4029,9 @@
       </c>
       <c r="I17" s="3" t="s">
         <v>646</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="L17" s="10" t="str">
         <f>Products!$A$6</f>
@@ -4103,7 +4124,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4132,7 +4153,7 @@
         <v>645</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>627</v>
@@ -4164,7 +4185,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4191,6 +4212,9 @@
       </c>
       <c r="I20" s="3" t="s">
         <v>646</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>678</v>
       </c>
       <c r="L20" s="10" t="str">
         <f>Products!$A$6</f>
@@ -4252,7 +4276,7 @@
         <v>649</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>14</v>
+        <v>674</v>
       </c>
       <c r="L21" s="10" t="str">
         <f>Products!$A$3</f>
@@ -4314,6 +4338,9 @@
       <c r="I22" s="7" t="s">
         <v>649</v>
       </c>
+      <c r="J22" s="3" t="s">
+        <v>673</v>
+      </c>
       <c r="L22" s="20" t="s">
         <v>83</v>
       </c>
@@ -4344,7 +4371,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4433,6 +4460,9 @@
       <c r="I24" s="3" t="s">
         <v>649</v>
       </c>
+      <c r="J24" s="3" t="s">
+        <v>676</v>
+      </c>
       <c r="L24" s="10" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
@@ -4491,6 +4521,9 @@
       <c r="I25" s="3" t="s">
         <v>671</v>
       </c>
+      <c r="J25" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="L25" s="10" t="s">
         <v>670</v>
       </c>
@@ -4613,6 +4646,9 @@
       <c r="I27" s="3" t="s">
         <v>632</v>
       </c>
+      <c r="J27" s="3" t="s">
+        <v>674</v>
+      </c>
       <c r="L27" s="10" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
@@ -4733,6 +4769,9 @@
       <c r="I29" s="3" t="s">
         <v>632</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="L29" s="10" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
@@ -4852,6 +4891,9 @@
       <c r="I31" s="3" t="s">
         <v>643</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>673</v>
+      </c>
       <c r="L31" s="10" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
@@ -4911,6 +4953,9 @@
       </c>
       <c r="I32" s="3" t="s">
         <v>632</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="L32" s="10" t="str">
         <f>Products!$A$4</f>
@@ -4992,7 +5037,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5019,6 +5064,9 @@
       </c>
       <c r="I34" s="3" t="s">
         <v>645</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>627</v>
@@ -5050,7 +5098,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5079,7 +5127,7 @@
         <v>671</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
       <c r="L35" s="20" t="s">
         <v>670</v>
@@ -5140,6 +5188,9 @@
       <c r="I36" s="7" t="s">
         <v>671</v>
       </c>
+      <c r="J36" s="3" t="s">
+        <v>674</v>
+      </c>
       <c r="L36" s="20" t="s">
         <v>670</v>
       </c>
@@ -5170,7 +5221,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5233,7 +5284,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5261,6 +5312,9 @@
       </c>
       <c r="I38" s="3" t="s">
         <v>645</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>627</v>
@@ -5370,6 +5424,9 @@
       <c r="I40" s="3" t="s">
         <v>643</v>
       </c>
+      <c r="J40" s="3" t="s">
+        <v>675</v>
+      </c>
       <c r="L40" s="10" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
@@ -5488,6 +5545,9 @@
       <c r="I42" s="3" t="s">
         <v>649</v>
       </c>
+      <c r="J42" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="L42" s="10" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
@@ -5517,7 +5577,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5545,6 +5605,9 @@
       </c>
       <c r="I43" s="3" t="s">
         <v>646</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="L43" s="10" t="str">
         <f>Products!$A$6</f>
@@ -5640,7 +5703,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5954,7 +6017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6107,7 +6170,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6158,7 +6221,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6209,7 +6272,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6263,7 +6326,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6588,6 +6651,9 @@
       <c r="I63" s="3" t="s">
         <v>645</v>
       </c>
+      <c r="J63" s="3" t="s">
+        <v>677</v>
+      </c>
       <c r="L63" s="10" t="s">
         <v>627</v>
       </c>
@@ -6688,7 +6754,7 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="49200-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -6696,9 +6762,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="12">
+    <filterColumn colId="11">
       <filters>
-        <filter val="Section 2"/>
+        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A4C21-9B83-EE42-A425-15CF3E96F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7623CD8-45F9-3843-BEE9-033620C08D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3083,7 +3083,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3232,7 +3232,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3286,7 +3286,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3340,7 +3340,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3397,7 +3397,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3451,7 +3451,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3506,7 +3506,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3561,7 +3561,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3611,7 +3611,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3665,7 +3665,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3719,7 +3719,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3776,7 +3776,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3833,7 +3833,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3888,7 +3888,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3943,7 +3943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -6017,7 +6017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6170,7 +6170,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6221,7 +6221,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6272,7 +6272,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6326,7 +6326,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6754,17 +6754,12 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="49200-002"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="QuizMaster"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7623CD8-45F9-3843-BEE9-033620C08D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115DA866-8CDF-4B4D-BB53-F6EC31FD4CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3083,7 +3083,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3232,7 +3232,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3286,7 +3286,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3340,7 +3340,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3397,7 +3397,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3451,7 +3451,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3506,7 +3506,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3561,7 +3561,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3611,7 +3611,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3665,7 +3665,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3719,7 +3719,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3776,7 +3776,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3833,7 +3833,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3888,7 +3888,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3943,7 +3943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4001,7 +4001,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4064,7 +4064,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4124,7 +4124,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4185,7 +4185,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4247,7 +4247,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4309,7 +4309,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4371,7 +4371,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4431,7 +4431,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4492,7 +4492,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4554,7 +4554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4617,7 +4617,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4680,7 +4680,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4740,7 +4740,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4803,7 +4803,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4862,7 +4862,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4925,7 +4925,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5037,7 +5037,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5098,7 +5098,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5159,7 +5159,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5221,7 +5221,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5284,7 +5284,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5395,7 +5395,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5458,7 +5458,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5516,7 +5516,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5577,7 +5577,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5640,7 +5640,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5703,7 +5703,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6590,7 +6590,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6754,7 +6754,7 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115DA866-8CDF-4B4D-BB53-F6EC31FD4CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608301F-2C37-CF48-928A-951533A4135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="678">
   <si>
     <t>Last Name</t>
   </si>
@@ -2075,9 +2075,6 @@
   </si>
   <si>
     <t>Scum Master (SM6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> q</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3080,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3286,7 +3283,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3317,7 +3314,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="5"/>
@@ -3696,7 +3693,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="5"/>
@@ -3719,7 +3716,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3888,7 +3885,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3920,7 +3917,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="5"/>
@@ -4001,7 +3998,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4064,7 +4061,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4124,7 +4121,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4185,7 +4182,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4212,9 +4209,6 @@
       </c>
       <c r="I20" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="L20" s="10" t="str">
         <f>Products!$A$6</f>
@@ -4247,7 +4241,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4309,7 +4303,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4371,7 +4365,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4431,7 +4425,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4492,7 +4486,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4554,7 +4548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4594,7 +4588,7 @@
         <v>668</v>
       </c>
       <c r="N26" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="5"/>
@@ -4617,7 +4611,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4680,7 +4674,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4740,7 +4734,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4803,7 +4797,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4862,7 +4856,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4925,7 +4919,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5037,7 +5031,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5098,7 +5092,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5159,7 +5153,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5221,7 +5215,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5261,7 +5255,7 @@
         <v>669</v>
       </c>
       <c r="N37" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O37" s="10"/>
       <c r="P37" s="5"/>
@@ -5284,7 +5278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5395,7 +5389,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5458,7 +5452,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5516,7 +5510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5577,7 +5571,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5640,7 +5634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5703,7 +5697,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6590,7 +6584,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6626,7 +6620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6692,7 +6686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6718,7 +6712,7 @@
         <v>657</v>
       </c>
       <c r="N65" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -6754,12 +6748,17 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608301F-2C37-CF48-928A-951533A4135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B562DA8-1218-C94E-BAEA-0A12F3D671BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44620" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3229,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3337,7 +3337,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3394,7 +3394,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3448,7 +3448,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3503,7 +3503,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3558,7 +3558,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3608,7 +3608,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3662,7 +3662,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3773,7 +3773,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3830,7 +3830,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3940,7 +3940,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6754,11 +6754,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B562DA8-1218-C94E-BAEA-0A12F3D671BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0227F155-F58F-7741-85B1-AF96E0E9C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45160" yWindow="200" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3998,7 +3998,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4061,7 +4061,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4121,7 +4121,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4182,7 +4182,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4241,7 +4241,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4303,7 +4303,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4365,7 +4365,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4425,7 +4425,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4486,7 +4486,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4548,7 +4548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4611,7 +4611,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4674,7 +4674,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4734,7 +4734,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4797,7 +4797,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4856,7 +4856,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4919,7 +4919,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5031,7 +5031,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5092,7 +5092,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5153,7 +5153,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5215,7 +5215,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5278,7 +5278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5389,7 +5389,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5452,7 +5452,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5510,7 +5510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5571,7 +5571,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5634,7 +5634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5697,7 +5697,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5756,7 +5756,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(Q46,9)</f>
         <v>44500-001</v>
@@ -5809,7 +5809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(Q47,9)</f>
         <v>44500-001</v>
@@ -5859,7 +5859,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(Q48,9)</f>
         <v>44500-001</v>
@@ -5909,7 +5909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(Q49,9)</f>
         <v>44500-001</v>
@@ -5959,7 +5959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="8">RIGHT(Q50,9)</f>
         <v>49200-002</v>
@@ -6011,7 +6011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6061,7 +6061,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6113,7 +6113,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6164,7 +6164,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6215,7 +6215,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6266,7 +6266,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6320,7 +6320,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6374,7 +6374,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6425,7 +6425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6476,7 +6476,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6530,7 +6530,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6584,7 +6584,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6746,11 +6746,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="20000-002"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0227F155-F58F-7741-85B1-AF96E0E9C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D97B4BE-BCBE-694B-8321-8C9D2B0DCEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45160" yWindow="200" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3229,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3283,7 +3283,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3337,7 +3337,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3394,7 +3394,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3448,7 +3448,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3503,7 +3503,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3558,7 +3558,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3608,7 +3608,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3662,7 +3662,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3716,7 +3716,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3773,7 +3773,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3830,7 +3830,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3885,7 +3885,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3940,7 +3940,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4425,7 +4425,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4486,7 +4486,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4797,7 +4797,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5389,7 +5389,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5452,7 +5452,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5510,7 +5510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5756,7 +5756,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(Q46,9)</f>
         <v>44500-001</v>
@@ -5809,7 +5809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(Q47,9)</f>
         <v>44500-001</v>
@@ -5859,7 +5859,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(Q48,9)</f>
         <v>44500-001</v>
@@ -5909,7 +5909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(Q49,9)</f>
         <v>44500-001</v>
@@ -5959,7 +5959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="8">RIGHT(Q50,9)</f>
         <v>49200-002</v>
@@ -6011,7 +6011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6061,7 +6061,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6113,7 +6113,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6164,7 +6164,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6215,7 +6215,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6266,7 +6266,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6320,7 +6320,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6374,7 +6374,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6425,7 +6425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6476,7 +6476,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6530,7 +6530,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6584,7 +6584,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6749,6 +6749,13 @@
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Maybe Section 2"/>
+        <filter val="Section 1"/>
+        <filter val="Section 2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D97B4BE-BCBE-694B-8321-8C9D2B0DCEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B6CB8-649E-4C4C-883B-CBF983A62211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3079,8 +3079,8 @@
   </sheetPr>
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4061,7 +4061,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4241,7 +4241,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4303,7 +4303,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4548,7 +4548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4611,7 +4611,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4674,7 +4674,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4734,7 +4734,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4856,7 +4856,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4919,7 +4919,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5634,7 +5634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6754,7 +6754,6 @@
     <filterColumn colId="12">
       <filters>
         <filter val="Maybe Section 2"/>
-        <filter val="Section 1"/>
         <filter val="Section 2"/>
       </filters>
     </filterColumn>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B6CB8-649E-4C4C-883B-CBF983A62211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2339BC8-726A-A14D-9BBF-153E3A0FBB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29440" yWindow="34100" windowWidth="20280" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3079,8 +3079,8 @@
   </sheetPr>
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:V45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15 S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3283,7 +3283,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3639,7 +3639,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="5"/>
@@ -3716,7 +3716,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3885,7 +3885,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3998,7 +3998,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4121,7 +4121,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4182,7 +4182,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4365,7 +4365,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5031,7 +5031,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5092,7 +5092,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5153,7 +5153,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5215,7 +5215,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5278,7 +5278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5571,7 +5571,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5697,7 +5697,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>657</v>
       </c>
       <c r="N65" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -6746,15 +6746,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="20000-002"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="12">
+    <filterColumn colId="5">
       <filters>
-        <filter val="Maybe Section 2"/>
-        <filter val="Section 2"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2339BC8-726A-A14D-9BBF-153E3A0FBB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A712263-0D6A-E24A-B6BA-A3EF3770D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29440" yWindow="34100" windowWidth="20280" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46760" yWindow="-7080" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3079,8 +3079,8 @@
   </sheetPr>
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15 S15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42:V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3283,7 +3283,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3716,7 +3716,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3885,7 +3885,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4241,7 +4241,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4425,7 +4425,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4486,7 +4486,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4674,7 +4674,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5510,7 +5510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6748,7 +6748,7 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A712263-0D6A-E24A-B6BA-A3EF3770D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B505EF-1C63-7142-AB10-8E27651BC559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46760" yWindow="-7080" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56760" yWindow="-6360" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3079,8 +3079,8 @@
   </sheetPr>
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42:V42"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3998,7 +3998,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4061,7 +4061,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4121,7 +4121,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4182,7 +4182,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4303,7 +4303,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4365,7 +4365,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4548,7 +4548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4611,7 +4611,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4734,7 +4734,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4797,7 +4797,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4856,7 +4856,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4919,7 +4919,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5031,7 +5031,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5092,7 +5092,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5153,7 +5153,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5215,7 +5215,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5278,7 +5278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5389,7 +5389,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5452,7 +5452,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5571,7 +5571,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5634,7 +5634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5697,7 +5697,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6584,7 +6584,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6754,11 +6754,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B505EF-1C63-7142-AB10-8E27651BC559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE5D4D8-2FA0-6B42-A0B1-FC7BCF0F1EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-56760" yWindow="-6360" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3998,7 +3998,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
         <v>44000-001</v>
@@ -4061,7 +4061,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4121,7 +4121,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4182,7 +4182,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4365,7 +4365,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4486,7 +4486,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4548,7 +4548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4611,7 +4611,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4734,7 +4734,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4797,7 +4797,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4856,7 +4856,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4919,7 +4919,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5031,7 +5031,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5092,7 +5092,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5153,7 +5153,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5215,7 +5215,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5278,7 +5278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5389,7 +5389,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5571,7 +5571,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5634,7 +5634,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5697,7 +5697,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6584,7 +6584,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6754,6 +6754,11 @@
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="ECaMS Billboard"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE5D4D8-2FA0-6B42-A0B1-FC7BCF0F1EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675A7462-22EF-6549-9308-19525CC42A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44320" yWindow="23120" windowWidth="23620" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -2660,7 +2660,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2714,6 +2714,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3079,8 +3083,8 @@
   </sheetPr>
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="L45" sqref="L17:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4121,7 +4125,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4241,7 +4245,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4303,7 +4307,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4425,7 +4429,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4674,7 +4678,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5031,7 +5035,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5117,13 +5121,13 @@
       <c r="G35" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="32" t="s">
         <v>670</v>
       </c>
       <c r="M35" s="22" t="s">
@@ -5179,13 +5183,13 @@
       <c r="G36" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="31" t="s">
         <v>674</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="32" t="s">
         <v>670</v>
       </c>
       <c r="M36" s="10" t="s">
@@ -5278,7 +5282,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5452,7 +5456,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5510,7 +5514,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6620,7 +6624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6758,7 +6762,7 @@
     </filterColumn>
     <filterColumn colId="11">
       <filters>
-        <filter val="ECaMS Billboard"/>
+        <filter val="CoShop"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675A7462-22EF-6549-9308-19525CC42A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448845FD-B8D3-9143-9739-7218C842275E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44320" yWindow="23120" windowWidth="23620" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="2480" windowWidth="29560" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -2660,7 +2660,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2714,10 +2714,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3083,8 +3079,8 @@
   </sheetPr>
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L45" sqref="L17:L45"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3233,7 +3229,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
         <v>20000-002</v>
@@ -3562,7 +3558,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3612,7 +3608,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4125,7 +4121,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5035,7 +5031,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5121,13 +5117,13 @@
       <c r="G35" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="10" t="s">
         <v>670</v>
       </c>
       <c r="M35" s="22" t="s">
@@ -5183,13 +5179,13 @@
       <c r="G36" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L36" s="32" t="s">
+      <c r="L36" s="10" t="s">
         <v>670</v>
       </c>
       <c r="M36" s="10" t="s">
@@ -5282,7 +5278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6624,7 +6620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6690,7 +6686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6752,7 +6748,7 @@
   <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -6760,9 +6756,9 @@
         <filter val="Active"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="13">
       <filters>
-        <filter val="CoShop"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448845FD-B8D3-9143-9739-7218C842275E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A41A91-FAFD-6042-8BA2-B3DAB722E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="2480" windowWidth="29560" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23-fall'!$A$1:$AH$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$V$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$W$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-fall'!$A$1:$L$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'24-spring'!$A$1:$N$63</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="680">
   <si>
     <t>Last Name</t>
   </si>
@@ -2075,6 +2075,12 @@
   </si>
   <si>
     <t>Scum Master (SM6)</t>
+  </si>
+  <si>
+    <t>Final Project Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday, May 8 from 10:30 am to 12:30 pm CT </t>
   </si>
 </sst>
 </file>
@@ -3077,10 +3083,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3099,18 +3105,19 @@
     <col min="12" max="12" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="3"/>
+    <col min="15" max="15" width="39.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3154,46 +3161,49 @@
         <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
-        <f>RIGHT(Q2,9)</f>
+        <f>RIGHT(R2,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B2" s="4">
-        <f>R2</f>
+        <f>S2</f>
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>CONCATENATE(E2," ",S2)</f>
+        <f>CONCATENATE(E2," ",T2)</f>
         <v>Gene Anderson</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>T2</f>
+        <f>U2</f>
         <v>Gene</v>
       </c>
       <c r="F2" s="3">
@@ -3209,40 +3219,41 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>1</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A16" si="0">RIGHT(Q3,9)</f>
+        <f t="shared" ref="A3:A16" si="0">RIGHT(R3,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B16" si="1">R3</f>
+        <f t="shared" ref="B3:B16" si="1">S3</f>
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D16" si="2">CONCATENATE(E3," ",S3)</f>
+        <f t="shared" ref="D3:D16" si="2">CONCATENATE(E3," ",T3)</f>
         <v>Zander Bird</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3263,27 +3274,28 @@
         <v>6</v>
       </c>
       <c r="O3" s="10"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>2</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3317,27 +3329,28 @@
         <v>5</v>
       </c>
       <c r="O4" s="10"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="3" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3374,27 +3387,28 @@
         <v>1</v>
       </c>
       <c r="O5" s="10"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>4</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3428,27 +3442,28 @@
         <v>4</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="3" t="s">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>5</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3465,7 +3480,7 @@
         <v>Julian Hernandez</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" ref="E7:E16" si="3">T7</f>
+        <f t="shared" ref="E7:E16" si="3">U7</f>
         <v>Julian</v>
       </c>
       <c r="F7" s="3">
@@ -3483,27 +3498,28 @@
         <v>3</v>
       </c>
       <c r="O7" s="10"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="3" t="s">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>6</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3538,27 +3554,28 @@
         <v>2</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="3" t="s">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3588,27 +3605,28 @@
         <v>6</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="3" t="s">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3642,27 +3660,28 @@
         <v>6</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="3" t="s">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3696,27 +3715,28 @@
         <v>5</v>
       </c>
       <c r="O11" s="10"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>10</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3753,27 +3773,28 @@
         <v>3</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="3" t="s">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3810,27 +3831,28 @@
         <v>1</v>
       </c>
       <c r="O13" s="10"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="3" t="s">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>12</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3865,27 +3887,28 @@
         <v>3</v>
       </c>
       <c r="O14" s="10"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3920,27 +3943,28 @@
         <v>5</v>
       </c>
       <c r="O15" s="10"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="3" t="s">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3978,44 +4002,45 @@
         <v>1</v>
       </c>
       <c r="O16" s="10"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="3" t="s">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>15</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
-        <f t="shared" ref="A17:A45" si="4">RIGHT(Q17,9)</f>
+        <f t="shared" ref="A17:A45" si="4">RIGHT(R17,9)</f>
         <v>44000-001</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ref="B17:B45" si="5">R17</f>
+        <f t="shared" ref="B17:B45" si="5">S17</f>
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" ref="D17:D45" si="6">CONCATENATE(E17," ",S17)</f>
+        <f t="shared" ref="D17:D45" si="6">CONCATENATE(E17," ",T17)</f>
         <v>Olivia Adamic</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" ref="E17:E45" si="7">T17</f>
+        <f t="shared" ref="E17:E45" si="7">U17</f>
         <v>Olivia</v>
       </c>
       <c r="F17" s="3">
@@ -4041,27 +4066,28 @@
         <v>4</v>
       </c>
       <c r="O17" s="10"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="3" t="s">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4101,27 +4127,28 @@
         <v>3</v>
       </c>
       <c r="O18" s="10"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="3" t="s">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4162,27 +4189,28 @@
         <v>2</v>
       </c>
       <c r="O19" s="10"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="3" t="s">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
         <v>18</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4221,27 +4249,28 @@
         <v>2</v>
       </c>
       <c r="O20" s="10"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="3" t="s">
+      <c r="P20" s="10"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4283,27 +4312,28 @@
         <v>2</v>
       </c>
       <c r="O21" s="10"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="3" t="s">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4345,27 +4375,28 @@
         <v>3</v>
       </c>
       <c r="O22" s="10"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="3" t="s">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4405,27 +4436,28 @@
         <v>2</v>
       </c>
       <c r="O23" s="10"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="3" t="s">
+      <c r="P23" s="10"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4466,27 +4498,28 @@
         <v>3</v>
       </c>
       <c r="O24" s="10"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="3" t="s">
+      <c r="P24" s="10"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4528,27 +4561,28 @@
         <v>1</v>
       </c>
       <c r="O25" s="10"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="3" t="s">
+      <c r="P25" s="10"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25" s="3">
         <v>24</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4591,27 +4625,28 @@
         <v>3</v>
       </c>
       <c r="O26" s="10"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="3" t="s">
+      <c r="P26" s="10"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4654,27 +4689,28 @@
         <v>1</v>
       </c>
       <c r="O27" s="10"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="3" t="s">
+      <c r="P27" s="10"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4714,27 +4750,28 @@
         <v>3</v>
       </c>
       <c r="O28" s="10"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="3" t="s">
+      <c r="P28" s="10"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R28" s="3">
+      <c r="S28" s="3">
         <v>27</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4777,27 +4814,28 @@
         <v>2</v>
       </c>
       <c r="O29" s="10"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="10"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>28</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4836,27 +4874,28 @@
         <v>4</v>
       </c>
       <c r="O30" s="10"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="3" t="s">
+      <c r="P30" s="10"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R30" s="3">
+      <c r="S30" s="3">
         <v>29</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4899,27 +4938,28 @@
         <v>3</v>
       </c>
       <c r="O31" s="10"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="3" t="s">
+      <c r="P31" s="10"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R31" s="3">
+      <c r="S31" s="3">
         <v>30</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4962,27 +5002,28 @@
         <v>2</v>
       </c>
       <c r="O32" s="10"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="3" t="s">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>31</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5011,27 +5052,28 @@
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="3" t="s">
+      <c r="P33" s="26"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5072,27 +5114,28 @@
         <v>4</v>
       </c>
       <c r="O34" s="10"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="3" t="s">
+      <c r="P34" s="10"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R34" s="3">
+      <c r="S34" s="3">
         <v>33</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5133,27 +5176,28 @@
         <v>3</v>
       </c>
       <c r="O35" s="10"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="3" t="s">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="V35" s="3" t="s">
+      <c r="W35" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5195,27 +5239,28 @@
         <v>3</v>
       </c>
       <c r="O36" s="10"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="3" t="s">
+      <c r="P36" s="10"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R36" s="3">
+      <c r="S36" s="3">
         <v>35</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="V36" s="3" t="s">
+      <c r="W36" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5258,27 +5303,28 @@
         <v>4</v>
       </c>
       <c r="O37" s="10"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="3" t="s">
+      <c r="P37" s="10"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R37" s="3">
+      <c r="S37" s="3">
         <v>36</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="W37" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5320,27 +5366,28 @@
         <v>1</v>
       </c>
       <c r="O38" s="10"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="3" t="s">
+      <c r="P38" s="10"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R38" s="3">
+      <c r="S38" s="3">
         <v>37</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="U38" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="V38" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="V38" s="3" t="s">
+      <c r="W38" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5369,27 +5416,28 @@
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="3" t="s">
+      <c r="P39" s="26"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R39" s="3">
+      <c r="S39" s="3">
         <v>38</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="V39" s="3" t="s">
+      <c r="W39" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5432,27 +5480,28 @@
         <v>1</v>
       </c>
       <c r="O40" s="10"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="3" t="s">
+      <c r="P40" s="10"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R40" s="3">
+      <c r="S40" s="3">
         <v>39</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="W40" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5490,27 +5539,28 @@
         <v>2</v>
       </c>
       <c r="O41" s="10"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="3" t="s">
+      <c r="P41" s="10"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>40</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="V41" s="3" t="s">
+      <c r="W41" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5551,27 +5601,28 @@
         <v>1</v>
       </c>
       <c r="O42" s="10"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="3" t="s">
+      <c r="P42" s="10"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>41</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5614,27 +5665,28 @@
         <v>1</v>
       </c>
       <c r="O43" s="10"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="3" t="s">
+      <c r="P43" s="10"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>42</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="W43" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5677,27 +5729,28 @@
         <v>2</v>
       </c>
       <c r="O44" s="10"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="3" t="s">
+      <c r="P44" s="10"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="W44" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5736,44 +5789,45 @@
         <v>3</v>
       </c>
       <c r="O45" s="10"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="3" t="s">
+      <c r="P45" s="10"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
-        <f>RIGHT(Q46,9)</f>
+        <f>RIGHT(R46,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B46" s="4">
-        <f>R46</f>
+        <f>S46</f>
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>CONCATENATE(E46," ",S46)</f>
+        <f>CONCATENATE(E46," ",T46)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f>T46</f>
+        <f>U46</f>
         <v>Julie</v>
       </c>
       <c r="F46" s="12"/>
@@ -5788,45 +5842,48 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="3" t="s">
+      <c r="O46" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
-        <f>RIGHT(Q47,9)</f>
+        <f>RIGHT(R47,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B47" s="4">
-        <f>R47</f>
+        <f>S47</f>
         <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>CONCATENATE(E47," ",S47)</f>
+        <f>CONCATENATE(E47," ",T47)</f>
         <v>Collin Koldoff</v>
       </c>
       <c r="E47" s="3" t="str">
-        <f>T47</f>
+        <f>U47</f>
         <v>Collin</v>
       </c>
       <c r="F47" s="12"/>
@@ -5838,45 +5895,48 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="3" t="s">
+      <c r="O47" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>46</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
-        <f>RIGHT(Q48,9)</f>
+        <f>RIGHT(R48,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B48" s="4">
-        <f>R48</f>
+        <f>S48</f>
         <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>CONCATENATE(E48," ",S48)</f>
+        <f>CONCATENATE(E48," ",T48)</f>
         <v>Luke Mendiola</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f>T48</f>
+        <f>U48</f>
         <v>Luke</v>
       </c>
       <c r="F48" s="12"/>
@@ -5888,45 +5948,48 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="3" t="s">
+      <c r="O48" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
-        <f>RIGHT(Q49,9)</f>
+        <f>RIGHT(R49,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B49" s="4">
-        <f>R49</f>
+        <f>S49</f>
         <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>CONCATENATE(E49," ",S49)</f>
+        <f>CONCATENATE(E49," ",T49)</f>
         <v>Justina Piwoni</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f>T49</f>
+        <f>U49</f>
         <v>Justina</v>
       </c>
       <c r="F49" s="12"/>
@@ -5938,45 +6001,48 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="3" t="s">
+      <c r="O49" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>48</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
-        <f t="shared" ref="A50:A61" si="8">RIGHT(Q50,9)</f>
+        <f t="shared" ref="A50:A61" si="8">RIGHT(R50,9)</f>
         <v>49200-002</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" ref="B50:B61" si="9">R50</f>
+        <f t="shared" ref="B50:B61" si="9">S50</f>
         <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" ref="D50:D61" si="10">CONCATENATE(E50," ",S50)</f>
+        <f t="shared" ref="D50:D61" si="10">CONCATENATE(E50," ",T50)</f>
         <v>David Abrutis</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f t="shared" ref="E50:E61" si="11">T50</f>
+        <f t="shared" ref="E50:E61" si="11">U50</f>
         <v>David</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -5988,30 +6054,30 @@
       <c r="L50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="3" t="s">
+      <c r="Q50" s="5"/>
+      <c r="R50" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R50" s="3">
-        <v>49</v>
-      </c>
-      <c r="S50" t="s">
+      <c r="S50" s="3">
+        <v>49</v>
+      </c>
+      <c r="T50" t="s">
         <v>97</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>98</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>99</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6038,30 +6104,31 @@
       </c>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
-      <c r="O51" s="22" t="s">
+      <c r="O51" s="22"/>
+      <c r="P51" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="3" t="s">
+      <c r="Q51" s="5"/>
+      <c r="R51" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R51" s="3">
+      <c r="S51" s="3">
         <v>50</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>101</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>102</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>103</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6090,30 +6157,30 @@
       <c r="L52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="5"/>
+      <c r="R52" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>51</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>120</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>121</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>122</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6141,30 +6208,31 @@
       </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="10"/>
+      <c r="P53" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="3" t="s">
+      <c r="Q53" s="5"/>
+      <c r="R53" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R53" s="3">
+      <c r="S53" s="3">
         <v>52</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>152</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>153</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>154</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6192,30 +6260,31 @@
       </c>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="22" t="s">
+      <c r="O54" s="10"/>
+      <c r="P54" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="3" t="s">
+      <c r="Q54" s="5"/>
+      <c r="R54" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>609</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>610</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>611</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6243,30 +6312,31 @@
       </c>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
-      <c r="O55" s="22" t="s">
+      <c r="O55" s="10"/>
+      <c r="P55" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="3" t="s">
+      <c r="Q55" s="5"/>
+      <c r="R55" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R55" s="3">
+      <c r="S55" s="3">
         <v>54</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>304</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>37</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>613</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6297,30 +6367,31 @@
       </c>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
-      <c r="O56" s="22" t="s">
+      <c r="O56" s="10"/>
+      <c r="P56" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="3" t="s">
+      <c r="Q56" s="5"/>
+      <c r="R56" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R56" s="3">
+      <c r="S56" s="3">
         <v>55</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>134</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>37</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6351,30 +6422,31 @@
       </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
-      <c r="O57" s="22" t="s">
+      <c r="O57" s="10"/>
+      <c r="P57" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="3" t="s">
+      <c r="Q57" s="5"/>
+      <c r="R57" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>56</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>137</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>50</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>138</v>
       </c>
-      <c r="V57" t="s">
+      <c r="W57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6402,30 +6474,31 @@
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="23"/>
+      <c r="P58" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="5"/>
+      <c r="R58" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>57</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>10</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>11</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>12</v>
       </c>
-      <c r="V58" t="s">
+      <c r="W58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6453,30 +6526,31 @@
       </c>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="23"/>
+      <c r="P59" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="3" t="s">
+      <c r="Q59" s="5"/>
+      <c r="R59" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>58</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>615</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>33</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>616</v>
       </c>
-      <c r="V59" t="s">
+      <c r="W59" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6507,30 +6581,31 @@
       </c>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="10" t="s">
+      <c r="O60" s="10"/>
+      <c r="P60" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="3" t="s">
+      <c r="Q60" s="5"/>
+      <c r="R60" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>59</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>618</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>478</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>619</v>
       </c>
-      <c r="V60" t="s">
+      <c r="W60" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6561,30 +6636,31 @@
       </c>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
-      <c r="O61" s="10" t="s">
+      <c r="O61" s="10"/>
+      <c r="P61" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="3" t="s">
+      <c r="Q61" s="5"/>
+      <c r="R61" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>60</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>621</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>622</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>623</v>
       </c>
-      <c r="V61" t="s">
+      <c r="W61" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6619,8 +6695,9 @@
       <c r="N62" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="10"/>
+    </row>
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6655,9 +6732,10 @@
       <c r="N63" s="10">
         <v>4</v>
       </c>
-      <c r="P63" s="5"/>
-    </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="10"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6685,8 +6763,9 @@
       <c r="N64" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="10"/>
+    </row>
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6714,8 +6793,9 @@
       <c r="N65" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="10"/>
+    </row>
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6743,22 +6823,18 @@
       <c r="N66" s="10">
         <v>4</v>
       </c>
+      <c r="O66" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
+  <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44500-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A41A91-FAFD-6042-8BA2-B3DAB722E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2AC0B5-91F9-0942-A6FC-7F7BA2F81EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="682">
   <si>
     <t>Last Name</t>
   </si>
@@ -2081,13 +2081,19 @@
   </si>
   <si>
     <t xml:space="preserve">Wednesday, May 8 from 10:30 am to 12:30 pm CT </t>
+  </si>
+  <si>
+    <t>Tuesday, May 7 at 9:30 am CT</t>
+  </si>
+  <si>
+    <t>Tuesday, May 7 from 10:30 am to 12:30 pm CT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2251,6 +2257,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -2666,7 +2681,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2720,6 +2735,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3085,8 +3101,8 @@
   </sheetPr>
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4126,7 +4142,9 @@
       <c r="N18" s="10">
         <v>3</v>
       </c>
-      <c r="O18" s="10"/>
+      <c r="O18" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="3" t="s">
@@ -4270,7 +4288,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4333,7 +4351,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4457,7 +4475,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4624,7 +4642,9 @@
       <c r="N26" s="10">
         <v>3</v>
       </c>
-      <c r="O26" s="10"/>
+      <c r="O26" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="3" t="s">
@@ -4688,7 +4708,9 @@
       <c r="N27" s="10">
         <v>1</v>
       </c>
-      <c r="O27" s="10"/>
+      <c r="O27" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="3" t="s">
@@ -4710,7 +4732,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4813,7 +4835,9 @@
       <c r="N29" s="10">
         <v>2</v>
       </c>
-      <c r="O29" s="10"/>
+      <c r="O29" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="3" t="s">
@@ -4873,7 +4897,9 @@
       <c r="N30" s="10">
         <v>4</v>
       </c>
-      <c r="O30" s="10"/>
+      <c r="O30" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="3" t="s">
@@ -4937,7 +4963,9 @@
       <c r="N31" s="10">
         <v>3</v>
       </c>
-      <c r="O31" s="10"/>
+      <c r="O31" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="3" t="s">
@@ -5001,7 +5029,9 @@
       <c r="N32" s="10">
         <v>2</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="3" t="s">
@@ -5479,7 +5509,9 @@
       <c r="N40" s="10">
         <v>1</v>
       </c>
-      <c r="O40" s="10"/>
+      <c r="O40" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="3" t="s">
@@ -5501,7 +5533,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5560,7 +5592,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5728,7 +5760,9 @@
       <c r="N44" s="10">
         <v>2</v>
       </c>
-      <c r="O44" s="10"/>
+      <c r="O44" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="3" t="s">
@@ -5810,7 +5844,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(R46,9)</f>
         <v>44500-001</v>
@@ -5866,7 +5900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(R47,9)</f>
         <v>44500-001</v>
@@ -5919,7 +5953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(R48,9)</f>
         <v>44500-001</v>
@@ -5972,7 +6006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(R49,9)</f>
         <v>44500-001</v>
@@ -6025,7 +6059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="8">RIGHT(R50,9)</f>
         <v>49200-002</v>
@@ -6053,6 +6087,9 @@
       </c>
       <c r="L50" s="3" t="s">
         <v>83</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>681</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>630</v>
@@ -6104,7 +6141,9 @@
       </c>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
+      <c r="O51" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P51" s="22" t="s">
         <v>630</v>
       </c>
@@ -6128,7 +6167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6157,6 +6196,9 @@
       <c r="L52" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="O52" s="31" t="s">
+        <v>681</v>
+      </c>
       <c r="P52" s="3" t="s">
         <v>630</v>
       </c>
@@ -6180,7 +6222,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6208,7 +6250,9 @@
       </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
+      <c r="O53" s="31" t="s">
+        <v>681</v>
+      </c>
       <c r="P53" s="3" t="s">
         <v>630</v>
       </c>
@@ -6260,7 +6304,9 @@
       </c>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
+      <c r="O54" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P54" s="22" t="s">
         <v>630</v>
       </c>
@@ -6312,7 +6358,9 @@
       </c>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
+      <c r="O55" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P55" s="22" t="s">
         <v>630</v>
       </c>
@@ -6367,7 +6415,9 @@
       </c>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
+      <c r="O56" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P56" s="22" t="s">
         <v>630</v>
       </c>
@@ -6422,7 +6472,9 @@
       </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
+      <c r="O57" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="P57" s="22" t="s">
         <v>630</v>
       </c>
@@ -6446,7 +6498,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6474,7 +6526,9 @@
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
+      <c r="O58" s="31" t="s">
+        <v>681</v>
+      </c>
       <c r="P58" s="3" t="s">
         <v>630</v>
       </c>
@@ -6498,7 +6552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6526,7 +6580,9 @@
       </c>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
+      <c r="O59" s="31" t="s">
+        <v>681</v>
+      </c>
       <c r="P59" s="3" t="s">
         <v>630</v>
       </c>
@@ -6695,7 +6751,9 @@
       <c r="N62" s="10">
         <v>3</v>
       </c>
-      <c r="O62" s="10"/>
+      <c r="O62" s="10" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
@@ -6829,12 +6887,18 @@
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44500-001"/>
+        <filter val="44000-001"/>
+        <filter val="49200-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="ECaMS Billboard"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2AC0B5-91F9-0942-A6FC-7F7BA2F81EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604BFFD-0C71-D64A-BA73-61F5F85AA30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1500" windowWidth="35840" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3102,7 +3102,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4288,7 +4288,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4351,7 +4351,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4475,7 +4475,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4732,7 +4732,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5533,7 +5533,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5592,7 +5592,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5844,7 +5844,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(R46,9)</f>
         <v>44500-001</v>
@@ -5900,7 +5900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(R47,9)</f>
         <v>44500-001</v>
@@ -5953,7 +5953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(R48,9)</f>
         <v>44500-001</v>
@@ -6006,7 +6006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(R49,9)</f>
         <v>44500-001</v>
@@ -6059,7 +6059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" ref="A50:A61" si="8">RIGHT(R50,9)</f>
         <v>49200-002</v>
@@ -6167,7 +6167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6222,7 +6222,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6498,7 +6498,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6552,7 +6552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6887,18 +6887,12 @@
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
-        <filter val="49200-002"/>
+        <filter val="44500-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="ECaMS Billboard"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604BFFD-0C71-D64A-BA73-61F5F85AA30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C476D70E-CDE8-DB48-B4FB-09DE6C7C57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1500" windowWidth="35840" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="683">
   <si>
     <t>Last Name</t>
   </si>
@@ -2087,6 +2087,9 @@
   </si>
   <si>
     <t>Tuesday, May 7 from 10:30 am to 12:30 pm CT</t>
+  </si>
+  <si>
+    <t>Friday, May 10 from 10:30 am to 12:30 pm CT</t>
   </si>
 </sst>
 </file>
@@ -3101,8 +3104,8 @@
   </sheetPr>
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4039,7 +4042,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(R17,9)</f>
         <v>44000-001</v>
@@ -4081,7 +4084,9 @@
       <c r="N17" s="10">
         <v>4</v>
       </c>
-      <c r="O17" s="10"/>
+      <c r="O17" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="3" t="s">
@@ -4206,7 +4211,9 @@
       <c r="N19" s="10">
         <v>2</v>
       </c>
-      <c r="O19" s="10"/>
+      <c r="O19" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="3" t="s">
@@ -4228,7 +4235,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4266,7 +4273,9 @@
       <c r="N20" s="10">
         <v>2</v>
       </c>
-      <c r="O20" s="10"/>
+      <c r="O20" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="3" t="s">
@@ -4329,7 +4338,9 @@
       <c r="N21" s="10">
         <v>2</v>
       </c>
-      <c r="O21" s="10"/>
+      <c r="O21" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="3" t="s">
@@ -4392,7 +4403,9 @@
       <c r="N22" s="10">
         <v>3</v>
       </c>
-      <c r="O22" s="10"/>
+      <c r="O22" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="3" t="s">
@@ -4414,7 +4427,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4453,7 +4466,9 @@
       <c r="N23" s="10">
         <v>2</v>
       </c>
-      <c r="O23" s="10"/>
+      <c r="O23" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="3" t="s">
@@ -4515,7 +4530,9 @@
       <c r="N24" s="10">
         <v>3</v>
       </c>
-      <c r="O24" s="10"/>
+      <c r="O24" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="3" t="s">
@@ -4578,7 +4595,9 @@
       <c r="N25" s="10">
         <v>1</v>
       </c>
-      <c r="O25" s="10"/>
+      <c r="O25" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="3" t="s">
@@ -4771,7 +4790,9 @@
       <c r="N28" s="10">
         <v>3</v>
       </c>
-      <c r="O28" s="10"/>
+      <c r="O28" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="3" t="s">
@@ -5143,7 +5164,9 @@
       <c r="N34" s="10">
         <v>4</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="3" t="s">
@@ -5205,7 +5228,9 @@
       <c r="N35" s="10">
         <v>3</v>
       </c>
-      <c r="O35" s="10"/>
+      <c r="O35" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="3" t="s">
@@ -5268,7 +5293,9 @@
       <c r="N36" s="10">
         <v>3</v>
       </c>
-      <c r="O36" s="10"/>
+      <c r="O36" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P36" s="10"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="3" t="s">
@@ -5290,7 +5317,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5332,7 +5359,9 @@
       <c r="N37" s="10">
         <v>4</v>
       </c>
-      <c r="O37" s="10"/>
+      <c r="O37" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="3" t="s">
@@ -5395,7 +5424,9 @@
       <c r="N38" s="10">
         <v>1</v>
       </c>
-      <c r="O38" s="10"/>
+      <c r="O38" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P38" s="10"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="3" t="s">
@@ -5570,7 +5601,9 @@
       <c r="N41" s="10">
         <v>2</v>
       </c>
-      <c r="O41" s="10"/>
+      <c r="O41" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P41" s="10"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="3" t="s">
@@ -5632,7 +5665,9 @@
       <c r="N42" s="10">
         <v>1</v>
       </c>
-      <c r="O42" s="10"/>
+      <c r="O42" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="3" t="s">
@@ -5654,7 +5689,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5696,7 +5731,9 @@
       <c r="N43" s="10">
         <v>1</v>
       </c>
-      <c r="O43" s="10"/>
+      <c r="O43" s="22" t="s">
+        <v>682</v>
+      </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="3" t="s">
@@ -5784,7 +5821,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5822,7 +5859,9 @@
       <c r="N45" s="10">
         <v>3</v>
       </c>
-      <c r="O45" s="10"/>
+      <c r="O45" s="22" t="s">
+        <v>682</v>
+      </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="3" t="s">
@@ -5844,7 +5883,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(R46,9)</f>
         <v>44500-001</v>
@@ -5900,7 +5939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(R47,9)</f>
         <v>44500-001</v>
@@ -5953,7 +5992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(R48,9)</f>
         <v>44500-001</v>
@@ -6006,7 +6045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(R49,9)</f>
         <v>44500-001</v>
@@ -6637,7 +6676,9 @@
       </c>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
+      <c r="O60" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P60" s="10" t="s">
         <v>630</v>
       </c>
@@ -6692,7 +6733,9 @@
       </c>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
+      <c r="O61" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="P61" s="10" t="s">
         <v>630</v>
       </c>
@@ -6790,7 +6833,9 @@
       <c r="N63" s="10">
         <v>4</v>
       </c>
-      <c r="O63" s="10"/>
+      <c r="O63" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="Q63" s="5"/>
     </row>
     <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
@@ -6887,12 +6932,17 @@
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44500-001"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="SyllliMa"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C476D70E-CDE8-DB48-B4FB-09DE6C7C57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBCDFA2-9883-C44D-A326-91C060709A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38280" yWindow="22900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3104,7 +3104,7 @@
   </sheetPr>
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
@@ -4042,7 +4042,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(R17,9)</f>
         <v>44000-001</v>
@@ -4108,7 +4108,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4235,7 +4235,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4427,7 +4427,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4619,7 +4619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4685,7 +4685,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4814,7 +4814,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4880,7 +4880,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4942,7 +4942,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5008,7 +5008,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5317,7 +5317,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5498,7 +5498,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5689,7 +5689,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5755,7 +5755,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5821,7 +5821,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6153,7 +6153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6315,7 +6315,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6369,7 +6369,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6423,7 +6423,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6480,7 +6480,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6759,7 +6759,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6933,6 +6933,7 @@
     <filterColumn colId="0">
       <filters>
         <filter val="44000-001"/>
+        <filter val="49200-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -6942,7 +6943,8 @@
     </filterColumn>
     <filterColumn colId="11">
       <filters>
-        <filter val="SyllliMa"/>
+        <filter val="QuizMaster"/>
+        <filter val="QuizMasterKahoot!"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBCDFA2-9883-C44D-A326-91C060709A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07F4178-3F0A-2D44-8D9E-254E508B3D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="22900" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3105,7 +3105,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4108,7 +4108,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4619,7 +4619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4685,7 +4685,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4814,7 +4814,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4880,7 +4880,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4942,7 +4942,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5008,7 +5008,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5498,7 +5498,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5755,7 +5755,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5883,7 +5883,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(R46,9)</f>
         <v>44500-001</v>
@@ -5939,7 +5939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(R47,9)</f>
         <v>44500-001</v>
@@ -5992,7 +5992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(R48,9)</f>
         <v>44500-001</v>
@@ -6045,7 +6045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(R49,9)</f>
         <v>44500-001</v>
@@ -6153,7 +6153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6315,7 +6315,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6369,7 +6369,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6423,7 +6423,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6480,7 +6480,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>49200-002</v>
@@ -6759,7 +6759,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6932,19 +6932,12 @@
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
-        <filter val="49200-002"/>
+        <filter val="44500-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="QuizMaster"/>
-        <filter val="QuizMasterKahoot!"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07F4178-3F0A-2D44-8D9E-254E508B3D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAE93D2-7632-5E4B-9C2B-1DEDA1B083FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="685">
   <si>
     <t>Last Name</t>
   </si>
@@ -2090,6 +2090,12 @@
   </si>
   <si>
     <t>Friday, May 10 from 10:30 am to 12:30 pm CT</t>
+  </si>
+  <si>
+    <t>Tuesday, May 7 at 10:30 am CT</t>
+  </si>
+  <si>
+    <t>Wednesday, May 8 from 1:30 to 3:30 PM CT</t>
   </si>
 </sst>
 </file>
@@ -3105,7 +3111,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3259,7 +3265,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(R3,9)</f>
         <v>20000-002</v>
@@ -3292,7 +3298,9 @@
       <c r="N3" s="10">
         <v>6</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="3" t="s">
@@ -3314,7 +3322,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3347,7 +3355,9 @@
       <c r="N4" s="10">
         <v>5</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="3" t="s">
@@ -3369,7 +3379,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3405,7 +3415,9 @@
       <c r="N5" s="10">
         <v>1</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="O5" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="3" t="s">
@@ -3427,7 +3439,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3460,7 +3472,9 @@
       <c r="N6" s="10">
         <v>4</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="O6" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="3" t="s">
@@ -3482,7 +3496,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3516,7 +3530,9 @@
       <c r="N7" s="10">
         <v>3</v>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="3" t="s">
@@ -3538,7 +3554,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3572,7 +3588,9 @@
       <c r="N8" s="10">
         <v>2</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="3" t="s">
@@ -3594,7 +3612,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3623,7 +3641,9 @@
       <c r="N9" s="10">
         <v>6</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="3" t="s">
@@ -3645,7 +3665,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3678,7 +3698,9 @@
       <c r="N10" s="10">
         <v>6</v>
       </c>
-      <c r="O10" s="10"/>
+      <c r="O10" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="3" t="s">
@@ -3700,7 +3722,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3733,7 +3755,9 @@
       <c r="N11" s="10">
         <v>5</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="3" t="s">
@@ -3755,7 +3779,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3791,7 +3815,9 @@
       <c r="N12" s="10">
         <v>3</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="3" t="s">
@@ -3813,7 +3839,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3849,7 +3875,9 @@
       <c r="N13" s="10">
         <v>1</v>
       </c>
-      <c r="O13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="3" t="s">
@@ -3871,7 +3899,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3905,7 +3933,9 @@
       <c r="N14" s="10">
         <v>3</v>
       </c>
-      <c r="O14" s="10"/>
+      <c r="O14" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="3" t="s">
@@ -3927,7 +3957,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3961,7 +3991,9 @@
       <c r="N15" s="10">
         <v>5</v>
       </c>
-      <c r="O15" s="10"/>
+      <c r="O15" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="3" t="s">
@@ -3983,7 +4015,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4020,7 +4052,9 @@
       <c r="N16" s="10">
         <v>1</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="10" t="s">
+        <v>684</v>
+      </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="3" t="s">
@@ -4212,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="5"/>
@@ -4339,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="5"/>
@@ -4404,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="5"/>
@@ -4531,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="5"/>
@@ -4791,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="5"/>
@@ -5165,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="5"/>
@@ -5425,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P38" s="10"/>
       <c r="Q38" s="5"/>
@@ -5602,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P41" s="10"/>
       <c r="Q41" s="5"/>
@@ -5666,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="5"/>
@@ -5883,7 +5917,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(R46,9)</f>
         <v>44500-001</v>
@@ -5939,7 +5973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(R47,9)</f>
         <v>44500-001</v>
@@ -5992,7 +6026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(R48,9)</f>
         <v>44500-001</v>
@@ -6045,7 +6079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(R49,9)</f>
         <v>44500-001</v>
@@ -6834,11 +6868,11 @@
         <v>4</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6866,9 +6900,11 @@
       <c r="N64" s="10">
         <v>2</v>
       </c>
-      <c r="O64" s="10"/>
-    </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6896,9 +6932,11 @@
       <c r="N65" s="10">
         <v>6</v>
       </c>
-      <c r="O65" s="10"/>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6932,7 +6970,7 @@
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44500-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAE93D2-7632-5E4B-9C2B-1DEDA1B083FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E367746-A9C0-FE47-8458-CED53C4B555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101980" yWindow="-1380" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3265,7 +3265,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(R3,9)</f>
         <v>20000-002</v>
@@ -3322,7 +3322,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3379,7 +3379,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3439,7 +3439,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3496,7 +3496,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3554,7 +3554,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3612,7 +3612,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3665,7 +3665,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3722,7 +3722,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3779,7 +3779,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3839,7 +3839,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3899,7 +3899,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3957,7 +3957,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4015,7 +4015,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -5917,7 +5917,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(R46,9)</f>
         <v>44500-001</v>
@@ -5973,7 +5973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(R47,9)</f>
         <v>44500-001</v>
@@ -6026,7 +6026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(R48,9)</f>
         <v>44500-001</v>
@@ -6079,7 +6079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(R49,9)</f>
         <v>44500-001</v>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6970,7 +6970,7 @@
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44500-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E367746-A9C0-FE47-8458-CED53C4B555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC1F7A-C410-604B-98FD-A3CF72844DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101980" yWindow="-1380" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+      <selection activeCell="O19" sqref="O19:O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4076,7 +4076,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(R17,9)</f>
         <v>44000-001</v>
@@ -4142,7 +4142,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4205,7 +4205,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4269,7 +4269,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4331,7 +4331,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4396,7 +4396,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4461,7 +4461,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4524,7 +4524,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4588,7 +4588,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4653,7 +4653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4719,7 +4719,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4785,7 +4785,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4848,7 +4848,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4914,7 +4914,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4976,7 +4976,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5042,7 +5042,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5158,7 +5158,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5222,7 +5222,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5286,7 +5286,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5351,7 +5351,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5417,7 +5417,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5532,7 +5532,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5598,7 +5598,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5659,7 +5659,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5723,7 +5723,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5789,7 +5789,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5855,7 +5855,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5917,7 +5917,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(R46,9)</f>
         <v>44500-001</v>
@@ -5973,7 +5973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(R47,9)</f>
         <v>44500-001</v>
@@ -6026,7 +6026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>RIGHT(R48,9)</f>
         <v>44500-001</v>
@@ -6079,7 +6079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(R49,9)</f>
         <v>44500-001</v>
@@ -6793,7 +6793,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6970,7 +6970,7 @@
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44500-001"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC1F7A-C410-604B-98FD-A3CF72844DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A54789B-188C-3C4F-8220-74B604D6DA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2280" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="685">
   <si>
     <t>Last Name</t>
   </si>
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:O63"/>
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3265,7 +3265,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(R3,9)</f>
         <v>20000-002</v>
@@ -3322,7 +3322,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3379,7 +3379,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3439,7 +3439,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3496,7 +3496,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3554,7 +3554,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3612,7 +3612,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3665,7 +3665,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3722,7 +3722,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3779,7 +3779,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3839,7 +3839,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3899,7 +3899,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3957,7 +3957,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4015,7 +4015,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4076,7 +4076,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(R17,9)</f>
         <v>44000-001</v>
@@ -4142,7 +4142,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4205,7 +4205,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4269,7 +4269,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4331,7 +4331,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4396,7 +4396,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4461,7 +4461,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4524,7 +4524,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4588,7 +4588,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4653,7 +4653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4719,7 +4719,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4785,7 +4785,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4848,7 +4848,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4914,7 +4914,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4976,7 +4976,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5042,7 +5042,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5158,7 +5158,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5222,7 +5222,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5286,7 +5286,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5351,7 +5351,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5417,7 +5417,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5532,7 +5532,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5598,7 +5598,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5659,7 +5659,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5723,7 +5723,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5789,7 +5789,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5855,7 +5855,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -6793,7 +6793,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6964,13 +6964,15 @@
       <c r="N66" s="10">
         <v>4</v>
       </c>
-      <c r="O66" s="10"/>
+      <c r="O66" s="10" t="s">
+        <v>684</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="44000-001"/>
+        <filter val="20000-002"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A54789B-188C-3C4F-8220-74B604D6DA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4573ED1-81FC-E34A-97B9-ED0690B34253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2280" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44640" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -2690,7 +2690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2745,6 +2745,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3110,8 +3114,8 @@
   </sheetPr>
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O66" sqref="O66"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3120,16 +3124,15 @@
     <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7" style="10" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
+    <col min="13" max="14" width="13.5" style="3" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="39.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" style="3" customWidth="1"/>
@@ -3265,7 +3268,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">RIGHT(R3,9)</f>
         <v>20000-002</v>
@@ -3322,7 +3325,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3379,7 +3382,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3439,7 +3442,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3496,7 +3499,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3554,7 +3557,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3612,7 +3615,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3665,7 +3668,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3722,7 +3725,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3779,7 +3782,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3839,7 +3842,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3899,7 +3902,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3957,7 +3960,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4015,7 +4018,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4076,7 +4079,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" ref="A17:A45" si="4">RIGHT(R17,9)</f>
         <v>44000-001</v>
@@ -4142,7 +4145,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4205,7 +4208,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4269,7 +4272,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4331,7 +4334,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4396,7 +4399,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4422,13 +4425,13 @@
       <c r="G22" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="33" t="s">
         <v>83</v>
       </c>
       <c r="M22" s="10" t="s">
@@ -4461,7 +4464,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4487,10 +4490,11 @@
       <c r="G23" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="L23" s="10" t="str">
+      <c r="J23" s="32"/>
+      <c r="L23" s="33" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
@@ -4524,7 +4528,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4550,13 +4554,13 @@
       <c r="G24" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="32" t="s">
         <v>676</v>
       </c>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="33" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4614,13 +4618,13 @@
       <c r="G25" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="33" t="s">
         <v>670</v>
       </c>
       <c r="M25" s="10" t="s">
@@ -4653,7 +4657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4679,13 +4683,13 @@
       <c r="G26" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="33" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4745,13 +4749,13 @@
       <c r="G27" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="L27" s="10" t="str">
+      <c r="L27" s="33" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4811,10 +4815,11 @@
       <c r="G28" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="L28" s="10" t="str">
+      <c r="J28" s="32"/>
+      <c r="L28" s="33" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
@@ -4848,7 +4853,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4874,13 +4879,13 @@
       <c r="G29" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="10" t="str">
+      <c r="L29" s="33" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4939,10 +4944,11 @@
       <c r="G30" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="L30" s="10" t="str">
+      <c r="J30" s="32"/>
+      <c r="L30" s="33" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5002,13 +5008,13 @@
       <c r="G31" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="L31" s="10" t="str">
+      <c r="L31" s="33" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5068,13 +5074,13 @@
       <c r="G32" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="L32" s="10" t="str">
+      <c r="L32" s="33" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5183,13 +5189,13 @@
       <c r="G34" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="33" t="s">
         <v>627</v>
       </c>
       <c r="M34" s="22" t="s">
@@ -5222,7 +5228,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5247,13 +5253,13 @@
       <c r="G35" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="32" t="s">
         <v>677</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="33" t="s">
         <v>670</v>
       </c>
       <c r="M35" s="22" t="s">
@@ -5286,7 +5292,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5312,13 +5318,13 @@
       <c r="G36" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="33" t="s">
         <v>670</v>
       </c>
       <c r="M36" s="10" t="s">
@@ -5351,7 +5357,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5377,13 +5383,13 @@
       <c r="G37" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="10" t="str">
+      <c r="L37" s="33" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
@@ -5417,7 +5423,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5443,13 +5449,13 @@
       <c r="G38" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="33" t="s">
         <v>627</v>
       </c>
       <c r="M38" s="22" t="s">
@@ -5532,7 +5538,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5558,13 +5564,13 @@
       <c r="G40" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="32" t="s">
         <v>675</v>
       </c>
-      <c r="L40" s="10" t="str">
+      <c r="L40" s="33" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
@@ -5598,7 +5604,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5623,10 +5629,11 @@
       <c r="G41" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="L41" s="20" t="s">
+      <c r="J41" s="32"/>
+      <c r="L41" s="33" t="s">
         <v>83</v>
       </c>
       <c r="M41" s="10" t="s">
@@ -5659,7 +5666,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5685,13 +5692,13 @@
       <c r="G42" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="L42" s="10" t="str">
+      <c r="L42" s="33" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
@@ -5723,7 +5730,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5749,13 +5756,13 @@
       <c r="G43" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="L43" s="10" t="str">
+      <c r="L43" s="33" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
@@ -5789,7 +5796,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5815,13 +5822,13 @@
       <c r="G44" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="L44" s="10" t="str">
+      <c r="L44" s="33" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
@@ -5855,7 +5862,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5881,10 +5888,11 @@
       <c r="G45" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="L45" s="20" t="s">
+      <c r="J45" s="32"/>
+      <c r="L45" s="33" t="s">
         <v>665</v>
       </c>
       <c r="M45" s="22" t="s">
@@ -6793,7 +6801,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>639</v>
       </c>
@@ -6832,7 +6840,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>639</v>
       </c>
@@ -6872,7 +6880,7 @@
       </c>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>651</v>
       </c>
@@ -6904,7 +6912,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>651</v>
       </c>
@@ -6936,7 +6944,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>651</v>
       </c>
@@ -6972,7 +6980,7 @@
   <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="20000-002"/>
+        <filter val="44000-001"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4573ED1-81FC-E34A-97B9-ED0690B34253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C299E69-4564-7A4A-B32D-37E7F79B5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44640" yWindow="22900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23-fall'!$A$1:$AH$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$W$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-spring'!$A$1:$Z$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-fall'!$A$1:$L$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'24-spring'!$A$1:$N$63</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="686">
   <si>
     <t>Last Name</t>
   </si>
@@ -1930,12 +1930,6 @@
     <t>CoShoppers</t>
   </si>
   <si>
-    <t>Meeting Times</t>
-  </si>
-  <si>
-    <t>Tuesdays at 11 am</t>
-  </si>
-  <si>
     <t>Scrumdiddliumptious</t>
   </si>
   <si>
@@ -2008,9 +2002,6 @@
     <t>SourPatchEngineers</t>
   </si>
   <si>
-    <t>Luis*</t>
-  </si>
-  <si>
     <t>Danny</t>
   </si>
   <si>
@@ -2096,12 +2087,28 @@
   </si>
   <si>
     <t>Wednesday, May 8 from 1:30 to 3:30 PM CT</t>
+  </si>
+  <si>
+    <t>Friday, May 3 at 1 PM CT</t>
+  </si>
+  <si>
+    <t>Presentation Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2690,7 +2697,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2745,8 +2752,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3112,40 +3129,42 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="A66" sqref="A3:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="7" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="24" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="3" customWidth="1"/>
     <col min="13" max="14" width="13.5" style="3" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="39.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="3"/>
+    <col min="16" max="16" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="4" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3189,49 +3208,55 @@
         <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q1" s="5"/>
+        <v>683</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>684</v>
+      </c>
       <c r="R1" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
-        <f>RIGHT(R2,9)</f>
+        <f>RIGHT(T2,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B2" s="4">
-        <f>S2</f>
+        <f>U2</f>
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>CONCATENATE(E2," ",T2)</f>
+        <f>CONCATENATE(E2," ",V2)</f>
         <v>Gene Anderson</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>U2</f>
+        <f>W2</f>
         <v>Gene</v>
       </c>
       <c r="F2" s="3">
@@ -3241,51 +3266,53 @@
         <v>384</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S2" s="3">
+      <c r="U2" s="3">
         <v>1</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A16" si="0">RIGHT(R3,9)</f>
+        <f t="shared" ref="A3:A16" si="0">RIGHT(T3,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B16" si="1">S3</f>
+        <f t="shared" ref="B3:B16" si="1">U3</f>
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D16" si="2">CONCATENATE(E3," ",T3)</f>
+        <f>CONCATENATE(E3," ",V3)</f>
         <v>Zander Bird</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -3294,7 +3321,7 @@
         <v>382</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3302,30 +3329,37 @@
         <v>6</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P3" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q3" s="32">
+        <f>P3</f>
+        <v>45420.5625</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S3" s="3">
+      <c r="U3" s="3">
         <v>2</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3338,11 +3372,11 @@
         <v>49</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E4," ",V4)</f>
         <v>Danny Bruin</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
@@ -3351,7 +3385,7 @@
         <v>406</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -3359,30 +3393,37 @@
         <v>5</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P4" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q4" s="32">
+        <f t="shared" ref="Q4:Q66" si="2">P4</f>
+        <v>45420.5625</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S4" s="3">
+      <c r="U4" s="3">
         <v>3</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3395,11 +3436,11 @@
         <v>49</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E5," ",V5)</f>
         <v>Moe Garcia</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -3408,7 +3449,7 @@
         <v>383</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -3419,30 +3460,37 @@
         <v>1</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P5" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q5" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>4</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3455,11 +3503,11 @@
         <v>49</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E6," ",V6)</f>
         <v>Sindre Haltbakk</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -3468,7 +3516,7 @@
         <v>386</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -3476,30 +3524,37 @@
         <v>4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P6" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q6" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>5</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3512,11 +3567,11 @@
         <v>49</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E7," ",V7)</f>
         <v>Julian Hernandez</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" ref="E7:E16" si="3">U7</f>
+        <f t="shared" ref="E7:E16" si="3">W7</f>
         <v>Julian</v>
       </c>
       <c r="F7" s="3">
@@ -3526,7 +3581,7 @@
         <v>381</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -3534,30 +3589,37 @@
         <v>3</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P7" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q7" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>6</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3570,7 +3632,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E8," ",V8)</f>
         <v>Darko Ilic</v>
       </c>
       <c r="E8" s="3" t="str">
@@ -3584,7 +3646,7 @@
         <v>383</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -3592,30 +3654,37 @@
         <v>2</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P8" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q8" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3625,10 +3694,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>417</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E9," ",V9)</f>
         <v>Tyson Knight</v>
       </c>
       <c r="E9" s="3" t="str">
@@ -3645,30 +3714,37 @@
         <v>6</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P9" s="35">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q9" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3681,11 +3757,11 @@
         <v>49</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E10," ",V10)</f>
         <v>Mike Liberty</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -3694,7 +3770,7 @@
         <v>382</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -3702,30 +3778,37 @@
         <v>6</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P10" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q10" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>9</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3738,11 +3821,11 @@
         <v>49</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E11," ",V11)</f>
         <v>Dan Monbrod</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
@@ -3751,7 +3834,7 @@
         <v>386</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3759,30 +3842,37 @@
         <v>5</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P11" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q11" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
         <v>10</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3795,11 +3885,11 @@
         <v>49</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Luis* Perez</v>
+        <f>CONCATENATE(E12," ",V12)</f>
+        <v>Luis Perez</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>655</v>
+        <v>186</v>
       </c>
       <c r="F12" s="3">
         <v>6</v>
@@ -3808,7 +3898,7 @@
         <v>382</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -3819,90 +3909,105 @@
         <v>3</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P12" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q12" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="str">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="33">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="2"/>
+      <c r="C13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f>CONCATENATE(E13," ",V13)</f>
         <v>Robin Pobanz-Pawlak</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="F13" s="13">
         <v>3</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>654</v>
+      <c r="H13" s="34"/>
+      <c r="I13" s="13" t="s">
+        <v>652</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10">
         <v>1</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="3" t="s">
+      <c r="O13" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="P13" s="35">
+        <v>45415.541666666664</v>
+      </c>
+      <c r="Q13" s="36">
+        <f t="shared" si="2"/>
+        <v>45415.541666666664</v>
+      </c>
+      <c r="R13" s="36"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S13" s="3">
+      <c r="U13" s="3">
         <v>12</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3915,7 +4020,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E14," ",V14)</f>
         <v>Amatullah Sajida</v>
       </c>
       <c r="E14" s="3" t="str">
@@ -3929,7 +4034,7 @@
         <v>384</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -3937,30 +4042,37 @@
         <v>3</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P14" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q14" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>13</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -3973,7 +4085,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E15," ",V15)</f>
         <v>Nicholas Stanislaus</v>
       </c>
       <c r="E15" s="3" t="str">
@@ -3987,7 +4099,7 @@
         <v>383</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -3995,30 +4107,37 @@
         <v>5</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P15" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q15" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>14</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20000-002</v>
@@ -4031,7 +4150,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E16," ",V16)</f>
         <v>Aaron Wilson Perez</v>
       </c>
       <c r="E16" s="3" t="str">
@@ -4045,7 +4164,7 @@
         <v>383</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>14</v>
@@ -4056,47 +4175,54 @@
         <v>1</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P16" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q16" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="S16" s="3">
+      <c r="U16" s="3">
         <v>15</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
-        <f t="shared" ref="A17:A45" si="4">RIGHT(R17,9)</f>
+        <f t="shared" ref="A17:A45" si="4">RIGHT(T17,9)</f>
         <v>44000-001</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ref="B17:B45" si="5">S17</f>
+        <f t="shared" ref="B17:B45" si="5">U17</f>
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" ref="D17:D45" si="6">CONCATENATE(E17," ",T17)</f>
+        <f>CONCATENATE(E17," ",V17)</f>
         <v>Olivia Adamic</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" ref="E17:E45" si="7">U17</f>
+        <f t="shared" ref="E17:E45" si="6">W17</f>
         <v>Olivia</v>
       </c>
       <c r="F17" s="3">
@@ -4106,46 +4232,53 @@
         <v>381</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L17" s="10" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N17" s="10">
         <v>4</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P17" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q17" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>16</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4158,11 +4291,11 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="str">
+        <f>CONCATENATE(E18," ",V18)</f>
+        <v>Isaac Benka</v>
+      </c>
+      <c r="E18" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Isaac Benka</v>
-      </c>
-      <c r="E18" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Isaac</v>
       </c>
       <c r="F18" s="3">
@@ -4172,43 +4305,50 @@
         <v>382</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L18" s="10" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N18" s="10">
         <v>3</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P18" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q18" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>17</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4221,7 +4361,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(E19," ",V19)</f>
         <v>Matt Bilinski</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -4234,7 +4374,7 @@
         <v>382</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>44</v>
@@ -4243,36 +4383,43 @@
         <v>627</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N19" s="10">
         <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="P19" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q19" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S19" s="3">
+      <c r="U19" s="3">
         <v>18</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4285,7 +4432,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(E20," ",V20)</f>
         <v>Joshua Brown</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -4298,43 +4445,50 @@
         <v>384</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L20" s="10" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N20" s="10">
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P20" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q20" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R20" s="32"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>19</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4347,11 +4501,11 @@
         <v>49</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(E21," ",V21)</f>
         <v>Gabe Carlson</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
@@ -4360,46 +4514,53 @@
         <v>384</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L21" s="10" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N21" s="10">
         <v>2</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P21" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q21" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R21" s="32"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>20</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4412,11 +4573,11 @@
         <v>49</v>
       </c>
       <c r="D22" s="3" t="str">
+        <f>CONCATENATE(E22," ",V22)</f>
+        <v>Justin Cordero</v>
+      </c>
+      <c r="E22" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Justin Cordero</v>
-      </c>
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Justin</v>
       </c>
       <c r="F22" s="3">
@@ -4425,46 +4586,53 @@
       <c r="G22" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I22" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="L22" s="33" t="s">
+      <c r="I22" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N22" s="10">
         <v>3</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P22" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q22" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R22" s="32"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>21</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4477,11 +4645,11 @@
         <v>49</v>
       </c>
       <c r="D23" s="3" t="str">
+        <f>CONCATENATE(E23," ",V23)</f>
+        <v>Kevin Danowski</v>
+      </c>
+      <c r="E23" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Kevin Danowski</v>
-      </c>
-      <c r="E23" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Kevin</v>
       </c>
       <c r="F23" s="3">
@@ -4490,45 +4658,51 @@
       <c r="G23" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I23" s="32" t="s">
-        <v>646</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="L23" s="33" t="str">
+      <c r="I23" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="L23" s="10" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N23" s="10">
         <v>2</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P23" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q23" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R23" s="32"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>22</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4541,11 +4715,11 @@
         <v>49</v>
       </c>
       <c r="D24" s="3" t="str">
+        <f>CONCATENATE(E24," ",V24)</f>
+        <v>Ryan Dodson</v>
+      </c>
+      <c r="E24" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Ryan Dodson</v>
-      </c>
-      <c r="E24" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Ryan</v>
       </c>
       <c r="F24" s="3">
@@ -4554,13 +4728,13 @@
       <c r="G24" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I24" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="L24" s="33" t="str">
+      <c r="I24" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="L24" s="10" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
@@ -4569,30 +4743,37 @@
         <v>3</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P24" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q24" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R24" s="32"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4605,11 +4786,11 @@
         <v>49</v>
       </c>
       <c r="D25" s="3" t="str">
+        <f>CONCATENATE(E25," ",V25)</f>
+        <v>Stephen Feddes</v>
+      </c>
+      <c r="E25" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Stephen Feddes</v>
-      </c>
-      <c r="E25" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Stephen</v>
       </c>
       <c r="F25" s="3">
@@ -4618,46 +4799,53 @@
       <c r="G25" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="I25" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="J25" s="32" t="s">
+      <c r="I25" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="33" t="s">
-        <v>670</v>
+      <c r="L25" s="10" t="s">
+        <v>667</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N25" s="10">
         <v>1</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P25" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q25" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R25" s="32"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S25" s="3">
+      <c r="U25" s="3">
         <v>24</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4670,11 +4858,11 @@
         <v>49</v>
       </c>
       <c r="D26" s="3" t="str">
+        <f>CONCATENATE(E26," ",V26)</f>
+        <v>Jayrell Garcia</v>
+      </c>
+      <c r="E26" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Jayrell Garcia</v>
-      </c>
-      <c r="E26" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Jayrell</v>
       </c>
       <c r="F26" s="3">
@@ -4683,47 +4871,54 @@
       <c r="G26" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="J26" s="32" t="s">
+      <c r="I26" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="33" t="str">
+      <c r="L26" s="10" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N26" s="10">
         <v>3</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P26" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q26" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R26" s="32"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>25</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4736,11 +4931,11 @@
         <v>49</v>
       </c>
       <c r="D27" s="3" t="str">
+        <f>CONCATENATE(E27," ",V27)</f>
+        <v>Brian Gutt</v>
+      </c>
+      <c r="E27" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Brian Gutt</v>
-      </c>
-      <c r="E27" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Brian</v>
       </c>
       <c r="F27" s="3">
@@ -4749,47 +4944,54 @@
       <c r="G27" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I27" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="L27" s="33" t="str">
+      <c r="I27" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="L27" s="10" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N27" s="10">
         <v>1</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P27" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q27" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R27" s="32"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>26</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="Y27" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4802,58 +5004,64 @@
         <v>49</v>
       </c>
       <c r="D28" s="3" t="str">
+        <f>CONCATENATE(E28," ",V28)</f>
+        <v>Ryan Hinkle</v>
+      </c>
+      <c r="E28" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Ryan Hinkle</v>
-      </c>
-      <c r="E28" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Ryan</v>
       </c>
       <c r="F28" s="3">
         <v>6</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="J28" s="32"/>
-      <c r="L28" s="33" t="str">
+        <v>646</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="L28" s="10" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N28" s="10">
         <v>3</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P28" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q28" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R28" s="32"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S28" s="3">
+      <c r="U28" s="3">
         <v>27</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="Y28" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4866,11 +5074,11 @@
         <v>49</v>
       </c>
       <c r="D29" s="3" t="str">
+        <f>CONCATENATE(E29," ",V29)</f>
+        <v>Daniel Jazowski</v>
+      </c>
+      <c r="E29" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Daniel Jazowski</v>
-      </c>
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Daniel</v>
       </c>
       <c r="F29" s="3">
@@ -4879,47 +5087,54 @@
       <c r="G29" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I29" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="J29" s="32" t="s">
+      <c r="I29" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="33" t="str">
+      <c r="L29" s="10" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N29" s="10">
         <v>2</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P29" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q29" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R29" s="32"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>28</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4932,7 +5147,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(E30," ",V30)</f>
         <v>Syver Klungsoyr</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -4944,45 +5159,51 @@
       <c r="G30" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I30" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="J30" s="32"/>
-      <c r="L30" s="33" t="str">
+      <c r="I30" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L30" s="10" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N30" s="10">
         <v>4</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P30" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q30" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R30" s="32"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S30" s="3">
+      <c r="U30" s="3">
         <v>29</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="Y30" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -4995,11 +5216,11 @@
         <v>49</v>
       </c>
       <c r="D31" s="3" t="str">
+        <f>CONCATENATE(E31," ",V31)</f>
+        <v>Morgan Krupp</v>
+      </c>
+      <c r="E31" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Morgan Krupp</v>
-      </c>
-      <c r="E31" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Morgan</v>
       </c>
       <c r="F31" s="3">
@@ -5008,47 +5229,54 @@
       <c r="G31" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I31" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="L31" s="33" t="str">
+      <c r="I31" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="L31" s="10" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N31" s="10">
         <v>3</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P31" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q31" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S31" s="3">
+      <c r="U31" s="3">
         <v>30</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5061,11 +5289,11 @@
         <v>49</v>
       </c>
       <c r="D32" s="3" t="str">
+        <f>CONCATENATE(E32," ",V32)</f>
+        <v>Hima Madhavan</v>
+      </c>
+      <c r="E32" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Hima Madhavan</v>
-      </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Hima</v>
       </c>
       <c r="F32" s="3">
@@ -5074,47 +5302,54 @@
       <c r="G32" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I32" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="L32" s="33" t="str">
+      <c r="I32" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="L32" s="10" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N32" s="10">
         <v>2</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P32" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q32" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R32" s="32"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>31</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="Y32" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5127,11 +5362,11 @@
         <v>418</v>
       </c>
       <c r="D33" s="3" t="str">
+        <f>CONCATENATE(E33," ",V33)</f>
+        <v>Ithalo Mercado</v>
+      </c>
+      <c r="E33" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Ithalo Mercado</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Ithalo</v>
       </c>
       <c r="F33" s="25"/>
@@ -5143,28 +5378,33 @@
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="3" t="s">
+      <c r="P33" s="35"/>
+      <c r="Q33" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="32"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>32</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="X33" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="Y33" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5177,7 +5417,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(E34," ",V34)</f>
         <v>Matt Obrochta</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -5189,46 +5429,53 @@
       <c r="G34" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I34" s="32" t="s">
-        <v>645</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="L34" s="33" t="s">
+      <c r="I34" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>627</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N34" s="10">
         <v>4</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="P34" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q34" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R34" s="32"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S34" s="3">
+      <c r="U34" s="3">
         <v>33</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="X34" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="Y34" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5241,11 +5488,11 @@
         <v>49</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(E35," ",V35)</f>
         <v>Nico Paredes</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F35" s="3">
         <v>3</v>
@@ -5253,46 +5500,53 @@
       <c r="G35" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I35" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>677</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>670</v>
+      <c r="I35" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>667</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N35" s="10">
         <v>3</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P35" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q35" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R35" s="32"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>34</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="W35" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="V35" s="3" t="s">
+      <c r="X35" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="Y35" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5305,11 +5559,11 @@
         <v>49</v>
       </c>
       <c r="D36" s="3" t="str">
+        <f>CONCATENATE(E36," ",V36)</f>
+        <v>Julian Pizano</v>
+      </c>
+      <c r="E36" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Julian Pizano</v>
-      </c>
-      <c r="E36" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Julian</v>
       </c>
       <c r="F36" s="3">
@@ -5318,46 +5572,53 @@
       <c r="G36" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="J36" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="L36" s="33" t="s">
-        <v>670</v>
+      <c r="L36" s="10" t="s">
+        <v>667</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="N36" s="10">
         <v>3</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P36" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q36" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R36" s="32"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S36" s="3">
+      <c r="U36" s="3">
         <v>35</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="W36" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="V36" s="3" t="s">
+      <c r="X36" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="W36" s="3" t="s">
+      <c r="Y36" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5370,11 +5631,11 @@
         <v>49</v>
       </c>
       <c r="D37" s="3" t="str">
+        <f>CONCATENATE(E37," ",V37)</f>
+        <v>Logan Prasczewicz</v>
+      </c>
+      <c r="E37" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Logan Prasczewicz</v>
-      </c>
-      <c r="E37" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Logan</v>
       </c>
       <c r="F37" s="3">
@@ -5383,47 +5644,54 @@
       <c r="G37" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I37" s="32" t="s">
-        <v>646</v>
-      </c>
-      <c r="J37" s="32" t="s">
+      <c r="I37" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="33" t="str">
+      <c r="L37" s="10" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N37" s="10">
         <v>4</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P37" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q37" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R37" s="32"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S37" s="3">
+      <c r="U37" s="3">
         <v>36</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="W37" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="X37" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="W37" s="3" t="s">
+      <c r="Y37" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5436,11 +5704,11 @@
         <v>49</v>
       </c>
       <c r="D38" s="3" t="str">
+        <f>CONCATENATE(E38," ",V38)</f>
+        <v>Ivan Sanchez</v>
+      </c>
+      <c r="E38" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Ivan Sanchez</v>
-      </c>
-      <c r="E38" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Ivan</v>
       </c>
       <c r="F38" s="3">
@@ -5449,46 +5717,53 @@
       <c r="G38" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I38" s="32" t="s">
-        <v>645</v>
-      </c>
-      <c r="J38" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="L38" s="33" t="s">
+      <c r="I38" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>627</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N38" s="10">
         <v>1</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="P38" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q38" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R38" s="32"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S38" s="3">
+      <c r="U38" s="3">
         <v>37</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="V38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="W38" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="V38" s="3" t="s">
+      <c r="X38" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="W38" s="3" t="s">
+      <c r="Y38" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5501,11 +5776,11 @@
         <v>418</v>
       </c>
       <c r="D39" s="3" t="str">
+        <f>CONCATENATE(E39," ",V39)</f>
+        <v>Moattar Siddiqui</v>
+      </c>
+      <c r="E39" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Moattar Siddiqui</v>
-      </c>
-      <c r="E39" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Moattar</v>
       </c>
       <c r="F39" s="25"/>
@@ -5517,28 +5792,33 @@
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="3" t="s">
+      <c r="P39" s="35"/>
+      <c r="Q39" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="32"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S39" s="3">
+      <c r="U39" s="3">
         <v>38</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="W39" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="V39" s="3" t="s">
+      <c r="X39" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="W39" s="3" t="s">
+      <c r="Y39" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5551,11 +5831,11 @@
         <v>49</v>
       </c>
       <c r="D40" s="3" t="str">
+        <f>CONCATENATE(E40," ",V40)</f>
+        <v>Aaron Skonieczny</v>
+      </c>
+      <c r="E40" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Aaron Skonieczny</v>
-      </c>
-      <c r="E40" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Aaron</v>
       </c>
       <c r="F40" s="3">
@@ -5564,47 +5844,54 @@
       <c r="G40" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I40" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>675</v>
-      </c>
-      <c r="L40" s="33" t="str">
+      <c r="I40" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="L40" s="10" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N40" s="10">
         <v>1</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P40" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q40" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R40" s="32"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S40" s="3">
+      <c r="U40" s="3">
         <v>39</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="W40" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="X40" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="Y40" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5617,7 +5904,7 @@
         <v>49</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(E41," ",V41)</f>
         <v>Ben Smith</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -5629,44 +5916,50 @@
       <c r="G41" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="I41" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="J41" s="32"/>
-      <c r="L41" s="33" t="s">
+      <c r="I41" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="L41" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N41" s="10">
         <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P41" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q41" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R41" s="32"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>40</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="W41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="V41" s="3" t="s">
+      <c r="X41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="Y41" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5679,11 +5972,11 @@
         <v>49</v>
       </c>
       <c r="D42" s="3" t="str">
+        <f>CONCATENATE(E42," ",V42)</f>
+        <v>Michael Szostak</v>
+      </c>
+      <c r="E42" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Michael Szostak</v>
-      </c>
-      <c r="E42" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Michael</v>
       </c>
       <c r="F42" s="3">
@@ -5692,13 +5985,13 @@
       <c r="G42" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I42" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="J42" s="32" t="s">
-        <v>633</v>
-      </c>
-      <c r="L42" s="33" t="str">
+      <c r="I42" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="L42" s="10" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
@@ -5707,30 +6000,37 @@
         <v>1</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P42" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q42" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R42" s="32"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>41</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5743,11 +6043,11 @@
         <v>49</v>
       </c>
       <c r="D43" s="3" t="str">
+        <f>CONCATENATE(E43," ",V43)</f>
+        <v>Emilio Vilchis</v>
+      </c>
+      <c r="E43" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Emilio Vilchis</v>
-      </c>
-      <c r="E43" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Emilio</v>
       </c>
       <c r="F43" s="3">
@@ -5756,47 +6056,54 @@
       <c r="G43" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I43" s="32" t="s">
-        <v>646</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="L43" s="33" t="str">
+      <c r="I43" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="L43" s="10" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N43" s="10">
         <v>1</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P43" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q43" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R43" s="32"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>42</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="W43" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="X43" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="Y43" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5809,11 +6116,11 @@
         <v>49</v>
       </c>
       <c r="D44" s="3" t="str">
+        <f>CONCATENATE(E44," ",V44)</f>
+        <v>Ahmad Yousuf</v>
+      </c>
+      <c r="E44" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Ahmad Yousuf</v>
-      </c>
-      <c r="E44" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Ahmad</v>
       </c>
       <c r="F44" s="3">
@@ -5822,47 +6129,54 @@
       <c r="G44" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I44" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="J44" s="32" t="s">
-        <v>633</v>
-      </c>
-      <c r="L44" s="33" t="str">
+      <c r="I44" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="L44" s="10" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N44" s="10">
         <v>2</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P44" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q44" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R44" s="32"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>43</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="W44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44000-001</v>
@@ -5875,11 +6189,11 @@
         <v>49</v>
       </c>
       <c r="D45" s="3" t="str">
+        <f>CONCATENATE(E45," ",V45)</f>
+        <v>Kevin Zamudio</v>
+      </c>
+      <c r="E45" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>Kevin Zamudio</v>
-      </c>
-      <c r="E45" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Kevin</v>
       </c>
       <c r="F45" s="3">
@@ -5888,68 +6202,74 @@
       <c r="G45" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I45" s="32" t="s">
-        <v>646</v>
-      </c>
-      <c r="J45" s="32"/>
-      <c r="L45" s="33" t="s">
-        <v>665</v>
+      <c r="I45" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>662</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N45" s="10">
         <v>3</v>
       </c>
       <c r="O45" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P45" s="37">
+        <v>45422.4375</v>
+      </c>
+      <c r="Q45" s="32">
+        <f t="shared" si="2"/>
+        <v>45422.4375</v>
+      </c>
+      <c r="R45" s="32"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>44</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="Y45" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
-        <f>RIGHT(R46,9)</f>
+        <f>RIGHT(T46,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B46" s="4">
-        <f>S46</f>
+        <f>U46</f>
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>CONCATENATE(E46," ",T46)</f>
+        <f>CONCATENATE(E46," ",V46)</f>
         <v>Julie Dosher</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f>U46</f>
+        <f>W46</f>
         <v>Julie</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="21"/>
       <c r="I46" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>14</v>
@@ -5958,206 +6278,234 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="P46" s="37">
+        <v>45420.4375</v>
+      </c>
+      <c r="Q46" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.4375</v>
+      </c>
+      <c r="R46" s="32"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>45</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="Y46" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
-        <f>RIGHT(R47,9)</f>
+        <f>RIGHT(T47,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B47" s="4">
-        <f>S47</f>
+        <f>U47</f>
         <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>CONCATENATE(E47," ",T47)</f>
+        <f>CONCATENATE(E47," ",V47)</f>
         <v>Collin Koldoff</v>
       </c>
       <c r="E47" s="3" t="str">
-        <f>U47</f>
+        <f>W47</f>
         <v>Collin</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="21"/>
       <c r="I47" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="P47" s="37">
+        <v>45420.4375</v>
+      </c>
+      <c r="Q47" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.4375</v>
+      </c>
+      <c r="R47" s="32"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>46</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
-        <f>RIGHT(R48,9)</f>
+        <f>RIGHT(T48,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B48" s="4">
-        <f>S48</f>
+        <f>U48</f>
         <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>CONCATENATE(E48," ",T48)</f>
+        <f>CONCATENATE(E48," ",V48)</f>
         <v>Luke Mendiola</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f>U48</f>
+        <f>W48</f>
         <v>Luke</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="21"/>
       <c r="I48" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="P48" s="37">
+        <v>45420.4375</v>
+      </c>
+      <c r="Q48" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.4375</v>
+      </c>
+      <c r="R48" s="32"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>47</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
-        <f>RIGHT(R49,9)</f>
+        <f>RIGHT(T49,9)</f>
         <v>44500-001</v>
       </c>
       <c r="B49" s="4">
-        <f>S49</f>
+        <f>U49</f>
         <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>CONCATENATE(E49," ",T49)</f>
+        <f>CONCATENATE(E49," ",V49)</f>
         <v>Justina Piwoni</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f>U49</f>
+        <f>W49</f>
         <v>Justina</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="21"/>
       <c r="I49" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="P49" s="37">
+        <v>45420.4375</v>
+      </c>
+      <c r="Q49" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.4375</v>
+      </c>
+      <c r="R49" s="32"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>48</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="X49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="Y49" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
-        <f t="shared" ref="A50:A61" si="8">RIGHT(R50,9)</f>
+        <f t="shared" ref="A50:A61" si="7">RIGHT(T50,9)</f>
         <v>49200-002</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" ref="B50:B61" si="9">S50</f>
+        <f t="shared" ref="B50:B61" si="8">U50</f>
         <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" ref="D50:D61" si="10">CONCATENATE(E50," ",T50)</f>
+        <f>CONCATENATE(E50," ",V50)</f>
         <v>David Abrutis</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f t="shared" ref="E50:E61" si="11">U50</f>
+        <f t="shared" ref="E50:E61" si="9">W50</f>
         <v>David</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -6170,45 +6518,50 @@
         <v>83</v>
       </c>
       <c r="O50" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P50" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q50" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R50" s="32"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S50" s="3">
-        <v>49</v>
-      </c>
-      <c r="T50" t="s">
+      <c r="U50" s="3">
+        <v>49</v>
+      </c>
+      <c r="V50" t="s">
         <v>97</v>
       </c>
-      <c r="U50" t="s">
+      <c r="W50" t="s">
         <v>98</v>
       </c>
-      <c r="V50" t="s">
+      <c r="X50" t="s">
         <v>99</v>
       </c>
-      <c r="W50" t="s">
+      <c r="Y50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B51" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B51" s="4">
-        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(E51," ",V51)</f>
         <v>Z Albaz</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -6223,49 +6576,54 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P51" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P51" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q51" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R51" s="32"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S51" s="3">
+      <c r="U51" s="3">
         <v>50</v>
       </c>
-      <c r="T51" t="s">
+      <c r="V51" t="s">
         <v>101</v>
       </c>
-      <c r="U51" t="s">
+      <c r="W51" t="s">
         <v>102</v>
       </c>
-      <c r="V51" t="s">
+      <c r="X51" t="s">
         <v>103</v>
       </c>
-      <c r="W51" t="s">
+      <c r="Y51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B52" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B52" s="4">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f>CONCATENATE(E52," ",V52)</f>
+        <v>Pablo Enriquez</v>
+      </c>
+      <c r="E52" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Pablo Enriquez</v>
-      </c>
-      <c r="E52" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Pablo</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -6278,49 +6636,54 @@
         <v>83</v>
       </c>
       <c r="O52" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P52" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q52" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R52" s="32"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>51</v>
       </c>
-      <c r="T52" t="s">
+      <c r="V52" t="s">
         <v>120</v>
       </c>
-      <c r="U52" t="s">
+      <c r="W52" t="s">
         <v>121</v>
       </c>
-      <c r="V52" t="s">
+      <c r="X52" t="s">
         <v>122</v>
       </c>
-      <c r="W52" t="s">
+      <c r="Y52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B53" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B53" s="4">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f>CONCATENATE(E53," ",V53)</f>
+        <v>Shane Frantz</v>
+      </c>
+      <c r="E53" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>52</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Shane Frantz</v>
-      </c>
-      <c r="E53" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Shane</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -6332,49 +6695,54 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P53" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q53" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R53" s="32"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S53" s="3">
+      <c r="U53" s="3">
         <v>52</v>
       </c>
-      <c r="T53" t="s">
+      <c r="V53" t="s">
         <v>152</v>
       </c>
-      <c r="U53" t="s">
+      <c r="W53" t="s">
         <v>153</v>
       </c>
-      <c r="V53" t="s">
+      <c r="X53" t="s">
         <v>154</v>
       </c>
-      <c r="W53" t="s">
+      <c r="Y53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B54" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B54" s="4">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f>CONCATENATE(E54," ",V54)</f>
+        <v>Evan Hartke</v>
+      </c>
+      <c r="E54" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Evan Hartke</v>
-      </c>
-      <c r="E54" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Evan</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -6386,49 +6754,54 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P54" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P54" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q54" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R54" s="32"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>53</v>
       </c>
-      <c r="T54" t="s">
+      <c r="V54" t="s">
         <v>609</v>
       </c>
-      <c r="U54" t="s">
+      <c r="W54" t="s">
         <v>610</v>
       </c>
-      <c r="V54" t="s">
+      <c r="X54" t="s">
         <v>611</v>
       </c>
-      <c r="W54" t="s">
+      <c r="Y54" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B55" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B55" s="4">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f>CONCATENATE(E55," ",V55)</f>
+        <v>Alex Hernandez</v>
+      </c>
+      <c r="E55" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Alex Hernandez</v>
-      </c>
-      <c r="E55" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Alex</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -6440,49 +6813,54 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P55" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P55" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q55" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R55" s="32"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S55" s="3">
+      <c r="U55" s="3">
         <v>54</v>
       </c>
-      <c r="T55" t="s">
+      <c r="V55" t="s">
         <v>304</v>
       </c>
-      <c r="U55" t="s">
+      <c r="W55" t="s">
         <v>37</v>
       </c>
-      <c r="V55" t="s">
+      <c r="X55" t="s">
         <v>613</v>
       </c>
-      <c r="W55" t="s">
+      <c r="Y55" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B56" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B56" s="4">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f>CONCATENATE(E56," ",V56)</f>
+        <v>Alex Kaminski</v>
+      </c>
+      <c r="E56" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Alex Kaminski</v>
-      </c>
-      <c r="E56" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Alex</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -6497,49 +6875,54 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P56" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P56" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q56" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R56" s="32"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S56" s="3">
+      <c r="U56" s="3">
         <v>55</v>
       </c>
-      <c r="T56" t="s">
+      <c r="V56" t="s">
         <v>134</v>
       </c>
-      <c r="U56" t="s">
+      <c r="W56" t="s">
         <v>37</v>
       </c>
-      <c r="V56" t="s">
+      <c r="X56" t="s">
         <v>135</v>
       </c>
-      <c r="W56" t="s">
+      <c r="Y56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B57" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B57" s="4">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f>CONCATENATE(E57," ",V57)</f>
+        <v>James Mackowiak</v>
+      </c>
+      <c r="E57" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>James Mackowiak</v>
-      </c>
-      <c r="E57" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>James</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -6554,49 +6937,54 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="P57" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P57" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q57" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R57" s="32"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>56</v>
       </c>
-      <c r="T57" t="s">
+      <c r="V57" t="s">
         <v>137</v>
       </c>
-      <c r="U57" t="s">
+      <c r="W57" t="s">
         <v>50</v>
       </c>
-      <c r="V57" t="s">
+      <c r="X57" t="s">
         <v>138</v>
       </c>
-      <c r="W57" t="s">
+      <c r="Y57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B58" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B58" s="4">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f>CONCATENATE(E58," ",V58)</f>
+        <v>Luke Mendiola</v>
+      </c>
+      <c r="E58" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>57</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Luke Mendiola</v>
-      </c>
-      <c r="E58" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Luke</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -6608,49 +6996,54 @@
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
       <c r="O58" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P58" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q58" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R58" s="32"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>57</v>
       </c>
-      <c r="T58" t="s">
+      <c r="V58" t="s">
         <v>10</v>
       </c>
-      <c r="U58" t="s">
+      <c r="W58" t="s">
         <v>11</v>
       </c>
-      <c r="V58" t="s">
+      <c r="X58" t="s">
         <v>12</v>
       </c>
-      <c r="W58" t="s">
+      <c r="Y58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B59" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B59" s="4">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f>CONCATENATE(E59," ",V59)</f>
+        <v>Jacob Prince</v>
+      </c>
+      <c r="E59" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>58</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Jacob Prince</v>
-      </c>
-      <c r="E59" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Jacob</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -6662,49 +7055,54 @@
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
       <c r="O59" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="P59" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q59" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R59" s="32"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>58</v>
       </c>
-      <c r="T59" t="s">
+      <c r="V59" t="s">
         <v>615</v>
       </c>
-      <c r="U59" t="s">
+      <c r="W59" t="s">
         <v>33</v>
       </c>
-      <c r="V59" t="s">
+      <c r="X59" t="s">
         <v>616</v>
       </c>
-      <c r="W59" t="s">
+      <c r="Y59" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B60" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B60" s="4">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f>CONCATENATE(E60," ",V60)</f>
+        <v>Julian Rocha</v>
+      </c>
+      <c r="E60" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>59</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Julian Rocha</v>
-      </c>
-      <c r="E60" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Julian</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -6719,49 +7117,54 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P60" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="P60" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q60" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R60" s="32"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>59</v>
       </c>
-      <c r="T60" t="s">
+      <c r="V60" t="s">
         <v>618</v>
       </c>
-      <c r="U60" t="s">
+      <c r="W60" t="s">
         <v>478</v>
       </c>
-      <c r="V60" t="s">
+      <c r="X60" t="s">
         <v>619</v>
       </c>
-      <c r="W60" t="s">
+      <c r="Y60" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>49200-002</v>
+      </c>
+      <c r="B61" s="4">
         <f t="shared" si="8"/>
-        <v>49200-002</v>
-      </c>
-      <c r="B61" s="4">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f>CONCATENATE(E61," ",V61)</f>
+        <v>Amna Tasneem</v>
+      </c>
+      <c r="E61" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>Amna Tasneem</v>
-      </c>
-      <c r="E61" s="3" t="str">
-        <f t="shared" si="11"/>
         <v>Amna</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -6776,46 +7179,51 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="P61" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="P61" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q61" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R61" s="32"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>60</v>
       </c>
-      <c r="T61" t="s">
+      <c r="V61" t="s">
         <v>621</v>
       </c>
-      <c r="U61" t="s">
+      <c r="W61" t="s">
         <v>622</v>
       </c>
-      <c r="V61" t="s">
+      <c r="X61" t="s">
         <v>623</v>
       </c>
-      <c r="W61" t="s">
+      <c r="Y61" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B62" s="4">
         <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>642</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -6824,25 +7232,33 @@
         <v>381</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L62" s="10" t="str">
         <f>Products!$A$4</f>
         <v>QuizMaster</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N62" s="10">
         <v>3</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="P62" s="37">
+        <v>45419.395833333336</v>
+      </c>
+      <c r="Q62" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.395833333336</v>
+      </c>
+      <c r="R62" s="32"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B63" s="4">
         <v>62</v>
@@ -6851,7 +7267,7 @@
         <v>49</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>529</v>
@@ -6863,10 +7279,10 @@
         <v>384</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>627</v>
@@ -6876,13 +7292,21 @@
         <v>4</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q63" s="5"/>
-    </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+      <c r="P63" s="37">
+        <v>45419.4375</v>
+      </c>
+      <c r="Q63" s="32">
+        <f t="shared" si="2"/>
+        <v>45419.4375</v>
+      </c>
+      <c r="R63" s="32"/>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B64" s="4">
         <v>63</v>
@@ -6891,10 +7315,10 @@
         <v>49</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>652</v>
       </c>
       <c r="F64" s="3">
         <v>4</v>
@@ -6903,18 +7327,26 @@
         <v>383</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="N64" s="10">
         <v>2</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+      <c r="P64" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q64" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R64" s="32"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B65" s="4">
         <v>64</v>
@@ -6923,30 +7355,38 @@
         <v>49</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F65" s="3">
         <v>6</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N65" s="10">
         <v>6</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+      <c r="P65" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q65" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R65" s="32"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B66" s="4">
         <v>65</v>
@@ -6955,7 +7395,7 @@
         <v>49</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>17</v>
@@ -6967,22 +7407,31 @@
         <v>386</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="N66" s="10">
         <v>4</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>684</v>
-      </c>
-    </row>
+        <v>681</v>
+      </c>
+      <c r="P66" s="37">
+        <v>45420.5625</v>
+      </c>
+      <c r="Q66" s="32">
+        <f t="shared" si="2"/>
+        <v>45420.5625</v>
+      </c>
+      <c r="R66" s="32"/>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:W66" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="44000-001"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:Z72" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
     <filterColumn colId="2">
       <filters>
         <filter val="Active"/>
@@ -13732,7 +14181,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -13752,17 +14201,17 @@
     </row>
     <row r="5" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/students/all-students-2024-spring.xlsx
+++ b/students/all-students-2024-spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C299E69-4564-7A4A-B32D-37E7F79B5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6208452-3157-CF41-9D13-8E75062ABC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -2106,8 +2106,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -2752,18 +2752,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3126,13 +3126,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A66" sqref="A3:A66"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3239,7 +3239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>RIGHT(T2,9)</f>
         <v>20000-002</v>
@@ -3252,7 +3252,7 @@
         <v>417</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>CONCATENATE(E2," ",V2)</f>
+        <f t="shared" ref="D2:D33" si="0">CONCATENATE(E2," ",V2)</f>
         <v>Gene Anderson</v>
       </c>
       <c r="E2" s="3" t="str">
@@ -3297,18 +3297,18 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A16" si="0">RIGHT(T3,9)</f>
+        <f t="shared" ref="A3:A16" si="1">RIGHT(T3,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B16" si="1">U3</f>
+        <f t="shared" ref="B3:B16" si="2">U3</f>
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>CONCATENATE(E3," ",V3)</f>
+        <f t="shared" si="0"/>
         <v>Zander Bird</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3361,18 +3361,18 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f>CONCATENATE(E4," ",V4)</f>
         <v>Danny Bruin</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -3399,7 +3399,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q4" s="32">
-        <f t="shared" ref="Q4:Q66" si="2">P4</f>
+        <f t="shared" ref="Q4:Q66" si="3">P4</f>
         <v>45420.5625</v>
       </c>
       <c r="R4" s="32"/>
@@ -3425,18 +3425,18 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>CONCATENATE(E5," ",V5)</f>
         <v>Moe Garcia</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -3466,7 +3466,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q5" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R5" s="32"/>
@@ -3492,18 +3492,18 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>CONCATENATE(E6," ",V6)</f>
         <v>Sindre Haltbakk</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3530,7 +3530,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q6" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R6" s="32"/>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f>CONCATENATE(E7," ",V7)</f>
         <v>Julian Hernandez</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" ref="E7:E16" si="3">W7</f>
+        <f t="shared" ref="E7:E16" si="4">W7</f>
         <v>Julian</v>
       </c>
       <c r="F7" s="3">
@@ -3595,7 +3595,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q7" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R7" s="32"/>
@@ -3621,22 +3621,22 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f>CONCATENATE(E8," ",V8)</f>
         <v>Darko Ilic</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Darko</v>
       </c>
       <c r="F8" s="3">
@@ -3660,7 +3660,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q8" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R8" s="32"/>
@@ -3684,24 +3684,24 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000-002</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>CONCATENATE(E9," ",V9)</f>
+        <f t="shared" si="0"/>
         <v>Tyson Knight</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Tyson</v>
       </c>
       <c r="F9" s="7"/>
@@ -3720,7 +3720,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q9" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R9" s="32"/>
@@ -3746,18 +3746,18 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f>CONCATENATE(E10," ",V10)</f>
         <v>Mike Liberty</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3784,7 +3784,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q10" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R10" s="32"/>
@@ -3810,18 +3810,18 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B11" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f>CONCATENATE(E11," ",V11)</f>
         <v>Dan Monbrod</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -3848,7 +3848,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q11" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R11" s="32"/>
@@ -3874,18 +3874,18 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f>CONCATENATE(E12," ",V12)</f>
         <v>Luis Perez</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3915,7 +3915,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q12" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R12" s="32"/>
@@ -3941,18 +3941,18 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B13" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B13" s="33">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="13" t="str">
-        <f>CONCATENATE(E13," ",V13)</f>
         <v>Robin Pobanz-Pawlak</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -3983,7 +3983,7 @@
         <v>45415.541666666664</v>
       </c>
       <c r="Q13" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45415.541666666664</v>
       </c>
       <c r="R13" s="36"/>
@@ -4009,22 +4009,22 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f>CONCATENATE(E14," ",V14)</f>
         <v>Amatullah Sajida</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Amatullah</v>
       </c>
       <c r="F14" s="3">
@@ -4048,7 +4048,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q14" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R14" s="32"/>
@@ -4074,22 +4074,22 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f>CONCATENATE(E15," ",V15)</f>
         <v>Nicholas Stanislaus</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Nicholas</v>
       </c>
       <c r="F15" s="3">
@@ -4113,7 +4113,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q15" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R15" s="32"/>
@@ -4139,22 +4139,22 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>20000-002</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20000-002</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f>CONCATENATE(E16," ",V16)</f>
         <v>Aaron Wilson Perez</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Aaron</v>
       </c>
       <c r="F16" s="3">
@@ -4181,7 +4181,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q16" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R16" s="32"/>
@@ -4207,22 +4207,22 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
-        <f t="shared" ref="A17:A45" si="4">RIGHT(T17,9)</f>
+        <f t="shared" ref="A17:A45" si="5">RIGHT(T17,9)</f>
         <v>44000-001</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ref="B17:B45" si="5">U17</f>
+        <f t="shared" ref="B17:B45" si="6">U17</f>
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>CONCATENATE(E17," ",V17)</f>
+        <f t="shared" si="0"/>
         <v>Olivia Adamic</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" ref="E17:E45" si="6">W17</f>
+        <f t="shared" ref="E17:E45" si="7">W17</f>
         <v>Olivia</v>
       </c>
       <c r="F17" s="3">
@@ -4254,7 +4254,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q17" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R17" s="32"/>
@@ -4280,22 +4280,22 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>CONCATENATE(E18," ",V18)</f>
+        <f t="shared" si="0"/>
         <v>Isaac Benka</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Isaac</v>
       </c>
       <c r="F18" s="3">
@@ -4324,7 +4324,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q18" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R18" s="32"/>
@@ -4350,18 +4350,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>CONCATENATE(E19," ",V19)</f>
+        <f t="shared" si="0"/>
         <v>Matt Bilinski</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -4395,7 +4395,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q19" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R19" s="32"/>
@@ -4421,18 +4421,18 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>CONCATENATE(E20," ",V20)</f>
+        <f t="shared" si="0"/>
         <v>Joshua Brown</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -4464,7 +4464,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q20" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R20" s="32"/>
@@ -4490,18 +4490,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>CONCATENATE(E21," ",V21)</f>
+        <f t="shared" si="0"/>
         <v>Gabe Carlson</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -4536,7 +4536,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q21" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R21" s="32"/>
@@ -4562,22 +4562,22 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>CONCATENATE(E22," ",V22)</f>
+        <f t="shared" si="0"/>
         <v>Justin Cordero</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Justin</v>
       </c>
       <c r="F22" s="3">
@@ -4608,7 +4608,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R22" s="32"/>
@@ -4634,22 +4634,22 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>CONCATENATE(E23," ",V23)</f>
+        <f t="shared" si="0"/>
         <v>Kevin Danowski</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Kevin</v>
       </c>
       <c r="F23" s="3">
@@ -4678,7 +4678,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q23" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R23" s="32"/>
@@ -4704,22 +4704,22 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>CONCATENATE(E24," ",V24)</f>
+        <f t="shared" si="0"/>
         <v>Ryan Dodson</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Ryan</v>
       </c>
       <c r="F24" s="3">
@@ -4749,7 +4749,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q24" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R24" s="32"/>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>CONCATENATE(E25," ",V25)</f>
+        <f t="shared" si="0"/>
         <v>Stephen Feddes</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Stephen</v>
       </c>
       <c r="F25" s="3">
@@ -4821,7 +4821,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q25" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R25" s="32"/>
@@ -4847,22 +4847,22 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>CONCATENATE(E26," ",V26)</f>
+        <f t="shared" si="0"/>
         <v>Jayrell Garcia</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Jayrell</v>
       </c>
       <c r="F26" s="3">
@@ -4894,7 +4894,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q26" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R26" s="32"/>
@@ -4920,22 +4920,22 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>CONCATENATE(E27," ",V27)</f>
+        <f t="shared" si="0"/>
         <v>Brian Gutt</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Brian</v>
       </c>
       <c r="F27" s="3">
@@ -4967,7 +4967,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q27" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R27" s="32"/>
@@ -4993,22 +4993,22 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>CONCATENATE(E28," ",V28)</f>
+        <f t="shared" si="0"/>
         <v>Ryan Hinkle</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Ryan</v>
       </c>
       <c r="F28" s="3">
@@ -5037,7 +5037,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q28" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R28" s="32"/>
@@ -5063,22 +5063,22 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>CONCATENATE(E29," ",V29)</f>
+        <f t="shared" si="0"/>
         <v>Daniel Jazowski</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Daniel</v>
       </c>
       <c r="F29" s="3">
@@ -5110,7 +5110,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q29" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R29" s="32"/>
@@ -5136,18 +5136,18 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>CONCATENATE(E30," ",V30)</f>
+        <f t="shared" si="0"/>
         <v>Syver Klungsoyr</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -5179,7 +5179,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q30" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R30" s="32"/>
@@ -5205,22 +5205,22 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>CONCATENATE(E31," ",V31)</f>
+        <f t="shared" si="0"/>
         <v>Morgan Krupp</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Morgan</v>
       </c>
       <c r="F31" s="3">
@@ -5252,7 +5252,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q31" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R31" s="32"/>
@@ -5278,22 +5278,22 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>CONCATENATE(E32," ",V32)</f>
+        <f t="shared" si="0"/>
         <v>Hima Madhavan</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Hima</v>
       </c>
       <c r="F32" s="3">
@@ -5325,7 +5325,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q32" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R32" s="32"/>
@@ -5349,24 +5349,24 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>418</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>CONCATENATE(E33," ",V33)</f>
+        <f t="shared" si="0"/>
         <v>Ithalo Mercado</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Ithalo</v>
       </c>
       <c r="F33" s="25"/>
@@ -5380,7 +5380,7 @@
       <c r="O33" s="26"/>
       <c r="P33" s="35"/>
       <c r="Q33" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R33" s="32"/>
@@ -5406,18 +5406,18 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>CONCATENATE(E34," ",V34)</f>
+        <f t="shared" ref="D34:D65" si="8">CONCATENATE(E34," ",V34)</f>
         <v>Matt Obrochta</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -5451,7 +5451,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q34" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R34" s="32"/>
@@ -5477,18 +5477,18 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>CONCATENATE(E35," ",V35)</f>
+        <f t="shared" si="8"/>
         <v>Nico Paredes</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -5522,7 +5522,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q35" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R35" s="32"/>
@@ -5548,22 +5548,22 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>CONCATENATE(E36," ",V36)</f>
+        <f t="shared" si="8"/>
         <v>Julian Pizano</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Julian</v>
       </c>
       <c r="F36" s="3">
@@ -5594,7 +5594,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q36" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R36" s="32"/>
@@ -5620,22 +5620,22 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>CONCATENATE(E37," ",V37)</f>
+        <f t="shared" si="8"/>
         <v>Logan Prasczewicz</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Logan</v>
       </c>
       <c r="F37" s="3">
@@ -5667,7 +5667,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q37" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R37" s="32"/>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>CONCATENATE(E38," ",V38)</f>
+        <f t="shared" si="8"/>
         <v>Ivan Sanchez</v>
       </c>
       <c r="E38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Ivan</v>
       </c>
       <c r="F38" s="3">
@@ -5739,7 +5739,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q38" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R38" s="32"/>
@@ -5763,24 +5763,24 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>418</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>CONCATENATE(E39," ",V39)</f>
+        <f t="shared" si="8"/>
         <v>Moattar Siddiqui</v>
       </c>
       <c r="E39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Moattar</v>
       </c>
       <c r="F39" s="25"/>
@@ -5794,7 +5794,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="35"/>
       <c r="Q39" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R39" s="32"/>
@@ -5820,22 +5820,22 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>CONCATENATE(E40," ",V40)</f>
+        <f t="shared" si="8"/>
         <v>Aaron Skonieczny</v>
       </c>
       <c r="E40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Aaron</v>
       </c>
       <c r="F40" s="3">
@@ -5867,7 +5867,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q40" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R40" s="32"/>
@@ -5893,18 +5893,18 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>CONCATENATE(E41," ",V41)</f>
+        <f t="shared" si="8"/>
         <v>Ben Smith</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -5935,7 +5935,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q41" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R41" s="32"/>
@@ -5961,22 +5961,22 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>CONCATENATE(E42," ",V42)</f>
+        <f t="shared" si="8"/>
         <v>Michael Szostak</v>
       </c>
       <c r="E42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Michael</v>
       </c>
       <c r="F42" s="3">
@@ -6006,7 +6006,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q42" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R42" s="32"/>
@@ -6032,22 +6032,22 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>CONCATENATE(E43," ",V43)</f>
+        <f t="shared" si="8"/>
         <v>Emilio Vilchis</v>
       </c>
       <c r="E43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Emilio</v>
       </c>
       <c r="F43" s="3">
@@ -6079,7 +6079,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q43" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R43" s="32"/>
@@ -6105,22 +6105,22 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>CONCATENATE(E44," ",V44)</f>
+        <f t="shared" si="8"/>
         <v>Ahmad Yousuf</v>
       </c>
       <c r="E44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Ahmad</v>
       </c>
       <c r="F44" s="3">
@@ -6152,7 +6152,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q44" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R44" s="32"/>
@@ -6178,22 +6178,22 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44000-001</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>CONCATENATE(E45," ",V45)</f>
+        <f t="shared" si="8"/>
         <v>Kevin Zamudio</v>
       </c>
       <c r="E45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Kevin</v>
       </c>
       <c r="F45" s="3">
@@ -6221,7 +6221,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q45" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45422.4375</v>
       </c>
       <c r="R45" s="32"/>
@@ -6258,7 +6258,7 @@
         <v>49</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>CONCATENATE(E46," ",V46)</f>
+        <f t="shared" si="8"/>
         <v>Julie Dosher</v>
       </c>
       <c r="E46" s="3" t="str">
@@ -6284,7 +6284,7 @@
         <v>45420.4375</v>
       </c>
       <c r="Q46" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.4375</v>
       </c>
       <c r="R46" s="32"/>
@@ -6321,7 +6321,7 @@
         <v>49</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>CONCATENATE(E47," ",V47)</f>
+        <f t="shared" si="8"/>
         <v>Collin Koldoff</v>
       </c>
       <c r="E47" s="3" t="str">
@@ -6344,7 +6344,7 @@
         <v>45420.4375</v>
       </c>
       <c r="Q47" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.4375</v>
       </c>
       <c r="R47" s="32"/>
@@ -6381,7 +6381,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>CONCATENATE(E48," ",V48)</f>
+        <f t="shared" si="8"/>
         <v>Luke Mendiola</v>
       </c>
       <c r="E48" s="3" t="str">
@@ -6404,7 +6404,7 @@
         <v>45420.4375</v>
       </c>
       <c r="Q48" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.4375</v>
       </c>
       <c r="R48" s="32"/>
@@ -6441,7 +6441,7 @@
         <v>49</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>CONCATENATE(E49," ",V49)</f>
+        <f t="shared" si="8"/>
         <v>Justina Piwoni</v>
       </c>
       <c r="E49" s="3" t="str">
@@ -6464,7 +6464,7 @@
         <v>45420.4375</v>
       </c>
       <c r="Q49" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.4375</v>
       </c>
       <c r="R49" s="32"/>
@@ -6490,22 +6490,22 @@
     </row>
     <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
-        <f t="shared" ref="A50:A61" si="7">RIGHT(T50,9)</f>
+        <f t="shared" ref="A50:A61" si="9">RIGHT(T50,9)</f>
         <v>49200-002</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" ref="B50:B61" si="8">U50</f>
+        <f t="shared" ref="B50:B61" si="10">U50</f>
         <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>CONCATENATE(E50," ",V50)</f>
+        <f t="shared" si="8"/>
         <v>David Abrutis</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f t="shared" ref="E50:E61" si="9">W50</f>
+        <f t="shared" ref="E50:E61" si="11">W50</f>
         <v>David</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -6524,7 +6524,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q50" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R50" s="32"/>
@@ -6550,18 +6550,18 @@
     </row>
     <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B51" s="4">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="3" t="str">
-        <f>CONCATENATE(E51," ",V51)</f>
         <v>Z Albaz</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -6582,7 +6582,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q51" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R51" s="32"/>
@@ -6608,22 +6608,22 @@
     </row>
     <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B52" s="4">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="3" t="str">
-        <f>CONCATENATE(E52," ",V52)</f>
         <v>Pablo Enriquez</v>
       </c>
       <c r="E52" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Pablo</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -6642,7 +6642,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q52" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R52" s="32"/>
@@ -6668,22 +6668,22 @@
     </row>
     <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B53" s="4">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="3" t="str">
-        <f>CONCATENATE(E53," ",V53)</f>
         <v>Shane Frantz</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Shane</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -6701,7 +6701,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q53" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R53" s="32"/>
@@ -6727,22 +6727,22 @@
     </row>
     <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B54" s="4">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="3" t="str">
-        <f>CONCATENATE(E54," ",V54)</f>
         <v>Evan Hartke</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Evan</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -6760,7 +6760,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q54" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R54" s="32"/>
@@ -6786,22 +6786,22 @@
     </row>
     <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B55" s="4">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="3" t="str">
-        <f>CONCATENATE(E55," ",V55)</f>
         <v>Alex Hernandez</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Alex</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -6819,7 +6819,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q55" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R55" s="32"/>
@@ -6845,22 +6845,22 @@
     </row>
     <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B56" s="4">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="3" t="str">
-        <f>CONCATENATE(E56," ",V56)</f>
         <v>Alex Kaminski</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Alex</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -6881,7 +6881,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q56" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R56" s="32"/>
@@ -6907,22 +6907,22 @@
     </row>
     <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B57" s="4">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="3" t="str">
-        <f>CONCATENATE(E57," ",V57)</f>
         <v>James Mackowiak</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>James</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -6943,7 +6943,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q57" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R57" s="32"/>
@@ -6969,22 +6969,22 @@
     </row>
     <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B58" s="4">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="3" t="str">
-        <f>CONCATENATE(E58," ",V58)</f>
         <v>Luke Mendiola</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Luke</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -7002,7 +7002,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q58" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R58" s="32"/>
@@ -7026,24 +7026,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>CONCATENATE(E59," ",V59)</f>
+        <f t="shared" si="8"/>
         <v>Jacob Prince</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Jacob</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -7061,7 +7061,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q59" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R59" s="32"/>
@@ -7087,22 +7087,22 @@
     </row>
     <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B60" s="4">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>59</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="3" t="str">
-        <f>CONCATENATE(E60," ",V60)</f>
         <v>Julian Rocha</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Julian</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -7123,7 +7123,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q60" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R60" s="32"/>
@@ -7149,22 +7149,22 @@
     </row>
     <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49200-002</v>
       </c>
       <c r="B61" s="4">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="3" t="str">
-        <f>CONCATENATE(E61," ",V61)</f>
         <v>Amna Tasneem</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Amna</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -7185,7 +7185,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q61" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R61" s="32"/>
@@ -7209,7 +7209,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>637</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q62" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R62" s="32"/>
@@ -7298,7 +7298,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q63" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R63" s="32"/>
@@ -7339,7 +7339,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q64" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R64" s="32"/>
@@ -7379,7 +7379,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q65" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R65" s="32"/>
@@ -7419,25 +7419,12 @@
         <v>45420.5625</v>
       </c>
       <c r="Q66" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45420.5625</v>
       </c>
       <c r="R66" s="32"/>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:Z72" xr:uid="{B1FFF453-E717-1D42-A537-18080064A0A2}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Active"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
